--- a/out.xlsx
+++ b/out.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/79d2e06a4ad5c942/course/homework 2/fea program/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DXX\OneDrive\course\homework 2\fea program\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="case1" sheetId="2" r:id="rId1"/>
+    <sheet name="case1 alter" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="27">
   <si>
     <t>node</t>
   </si>
@@ -90,6 +91,21 @@
   </si>
   <si>
     <t>Q</t>
+  </si>
+  <si>
+    <t>matrix</t>
+  </si>
+  <si>
+    <t>[[D@28d93b30:</t>
+  </si>
+  <si>
+    <t>[[D@1b6d3586:</t>
+  </si>
+  <si>
+    <t>[[D@4554617c:</t>
+  </si>
+  <si>
+    <t>[[D@74a14482:</t>
   </si>
 </sst>
 </file>
@@ -445,7 +461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -1668,4 +1684,1262 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>42887</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.6448842592592593</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>4.3700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>0.1079</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>3666.6667000000002</v>
+      </c>
+      <c r="C16">
+        <v>128.57140000000001</v>
+      </c>
+      <c r="D16">
+        <v>-2166.6667000000002</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>3666.6667000000002</v>
+      </c>
+      <c r="B17">
+        <v>666666.66669999994</v>
+      </c>
+      <c r="C17">
+        <v>2166.6667000000002</v>
+      </c>
+      <c r="D17">
+        <v>-500000</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>128.57140000000001</v>
+      </c>
+      <c r="B18">
+        <v>2166.6667000000002</v>
+      </c>
+      <c r="C18">
+        <v>52</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>128.57140000000001</v>
+      </c>
+      <c r="F18">
+        <v>-2166.6667000000002</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>-2166.6667000000002</v>
+      </c>
+      <c r="B19">
+        <v>-500000</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1333333.3333000001</v>
+      </c>
+      <c r="E19">
+        <v>2166.6667000000002</v>
+      </c>
+      <c r="F19">
+        <v>-500000</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>128.57140000000001</v>
+      </c>
+      <c r="D20">
+        <v>2166.6667000000002</v>
+      </c>
+      <c r="E20">
+        <v>52</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>128.57140000000001</v>
+      </c>
+      <c r="H20">
+        <v>-2166.6667000000002</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>-2166.6667000000002</v>
+      </c>
+      <c r="D21">
+        <v>-500000</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1333333.3333000001</v>
+      </c>
+      <c r="G21">
+        <v>2166.6667000000002</v>
+      </c>
+      <c r="H21">
+        <v>-500000</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>128.57140000000001</v>
+      </c>
+      <c r="F22">
+        <v>2166.6667000000002</v>
+      </c>
+      <c r="G22">
+        <v>52</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>128.57140000000001</v>
+      </c>
+      <c r="J22">
+        <v>-2166.6667000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>-2166.6667000000002</v>
+      </c>
+      <c r="F23">
+        <v>-500000</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1333333.3333000001</v>
+      </c>
+      <c r="I23">
+        <v>2166.6667000000002</v>
+      </c>
+      <c r="J23">
+        <v>-500000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>128.57140000000001</v>
+      </c>
+      <c r="H24">
+        <v>2166.6667000000002</v>
+      </c>
+      <c r="I24">
+        <v>26</v>
+      </c>
+      <c r="J24">
+        <v>-3666.6667000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>-2166.6667000000002</v>
+      </c>
+      <c r="H25">
+        <v>-500000</v>
+      </c>
+      <c r="I25">
+        <v>-3666.6667000000002</v>
+      </c>
+      <c r="J25">
+        <v>666666.66669999994</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>18.571400000000001</v>
+      </c>
+      <c r="B31">
+        <v>2619.0475999999999</v>
+      </c>
+      <c r="C31">
+        <v>6.4286000000000003</v>
+      </c>
+      <c r="D31">
+        <v>-1547.6189999999999</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>2619.0475999999999</v>
+      </c>
+      <c r="B32">
+        <v>476190.47619999998</v>
+      </c>
+      <c r="C32">
+        <v>1547.6189999999999</v>
+      </c>
+      <c r="D32">
+        <v>-357142.85710000002</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>6.4286000000000003</v>
+      </c>
+      <c r="B33">
+        <v>1547.6189999999999</v>
+      </c>
+      <c r="C33">
+        <v>37.142899999999997</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>6.4286000000000003</v>
+      </c>
+      <c r="F33">
+        <v>-1547.6189999999999</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>-1547.6189999999999</v>
+      </c>
+      <c r="B34">
+        <v>-357142.85710000002</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>952380.95239999995</v>
+      </c>
+      <c r="E34">
+        <v>1547.6189999999999</v>
+      </c>
+      <c r="F34">
+        <v>-357142.85710000002</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>6.4286000000000003</v>
+      </c>
+      <c r="D35">
+        <v>1547.6189999999999</v>
+      </c>
+      <c r="E35">
+        <v>37.142899999999997</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>6.4286000000000003</v>
+      </c>
+      <c r="H35">
+        <v>-1547.6189999999999</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>-1547.6189999999999</v>
+      </c>
+      <c r="D36">
+        <v>-357142.85710000002</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>952380.95239999995</v>
+      </c>
+      <c r="G36">
+        <v>1547.6189999999999</v>
+      </c>
+      <c r="H36">
+        <v>-357142.85710000002</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>6.4286000000000003</v>
+      </c>
+      <c r="F37">
+        <v>1547.6189999999999</v>
+      </c>
+      <c r="G37">
+        <v>37.142899999999997</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>6.4286000000000003</v>
+      </c>
+      <c r="J37">
+        <v>-1547.6189999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>-1547.6189999999999</v>
+      </c>
+      <c r="F38">
+        <v>-357142.85710000002</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>952380.95239999995</v>
+      </c>
+      <c r="I38">
+        <v>1547.6189999999999</v>
+      </c>
+      <c r="J38">
+        <v>-357142.85710000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>6.4286000000000003</v>
+      </c>
+      <c r="H39">
+        <v>1547.6189999999999</v>
+      </c>
+      <c r="I39">
+        <v>18.571400000000001</v>
+      </c>
+      <c r="J39">
+        <v>-2619.0475999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>-1547.6189999999999</v>
+      </c>
+      <c r="H40">
+        <v>-357142.85710000002</v>
+      </c>
+      <c r="I40">
+        <v>-2619.0475999999999</v>
+      </c>
+      <c r="J40">
+        <v>476190.47619999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="C45" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>84767.428599999999</v>
+      </c>
+      <c r="B46">
+        <v>41074380.951399997</v>
+      </c>
+      <c r="C46">
+        <v>-79857.428599999999</v>
+      </c>
+      <c r="D46">
+        <v>40256047.618000001</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>41074380.951399997</v>
+      </c>
+      <c r="B47">
+        <v>27133523808.855801</v>
+      </c>
+      <c r="C47">
+        <v>-40256047.618000001</v>
+      </c>
+      <c r="D47">
+        <v>13449857142.5231</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>-79857.428599999999</v>
+      </c>
+      <c r="B48">
+        <v>-40256047.618000001</v>
+      </c>
+      <c r="C48">
+        <v>169534.85709999999</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>-79857.428599999999</v>
+      </c>
+      <c r="F48">
+        <v>40256047.618000001</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>40256047.618000001</v>
+      </c>
+      <c r="B49">
+        <v>13449857142.5231</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>54267047617.711601</v>
+      </c>
+      <c r="E49">
+        <v>-40256047.618000001</v>
+      </c>
+      <c r="F49">
+        <v>13449857142.5231</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>-79857.428599999999</v>
+      </c>
+      <c r="D50">
+        <v>-40256047.618000001</v>
+      </c>
+      <c r="E50">
+        <v>169534.85709999999</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>-79857.428599999999</v>
+      </c>
+      <c r="H50">
+        <v>40256047.618000001</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>40256047.618000001</v>
+      </c>
+      <c r="D51">
+        <v>13449857142.5231</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>54267047617.711601</v>
+      </c>
+      <c r="G51">
+        <v>-40256047.618000001</v>
+      </c>
+      <c r="H51">
+        <v>13449857142.5231</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>-79857.428599999999</v>
+      </c>
+      <c r="F52">
+        <v>-40256047.618000001</v>
+      </c>
+      <c r="G52">
+        <v>169534.85709999999</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>-79857.428599999999</v>
+      </c>
+      <c r="J52">
+        <v>40256047.618000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>40256047.618000001</v>
+      </c>
+      <c r="F53">
+        <v>13449857142.5231</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>54267047617.711601</v>
+      </c>
+      <c r="I53">
+        <v>-40256047.618000001</v>
+      </c>
+      <c r="J53">
+        <v>13449857142.5231</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>-79857.428599999999</v>
+      </c>
+      <c r="H54">
+        <v>-40256047.618000001</v>
+      </c>
+      <c r="I54">
+        <v>84767.428599999999</v>
+      </c>
+      <c r="J54">
+        <v>-41074380.951399997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>40256047.618000001</v>
+      </c>
+      <c r="H55">
+        <v>13449857142.5231</v>
+      </c>
+      <c r="I55">
+        <v>-41074380.951399997</v>
+      </c>
+      <c r="J55">
+        <v>27133523808.855801</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>22</v>
+      </c>
+      <c r="B59" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>17</v>
+      </c>
+      <c r="B60">
+        <v>10</v>
+      </c>
+      <c r="C60" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>3136</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>588000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>-252000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/out.xlsx
+++ b/out.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="case1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="CASE2_3" sheetId="9" r:id="rId6"/>
     <sheet name="CASE2_3_checkQe" sheetId="14" r:id="rId7"/>
     <sheet name="case3" sheetId="11" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="12" r:id="rId9"/>
+    <sheet name="case4" sheetId="15" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="49">
   <si>
     <t>node</t>
   </si>
@@ -173,6 +174,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>mode of vibration</t>
+  </si>
+  <si>
+    <t>时间</t>
   </si>
 </sst>
 </file>
@@ -4051,6 +4058,4594 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF78"/>
+  <sheetViews>
+    <sheetView topLeftCell="A71" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>1.0000000000000001E-18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="C5" s="3">
+        <f>A3*A5</f>
+        <v>4.0000000000000007E-22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" ref="C6:C19" si="0">A4*A6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>0.38419999999999999</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>1.5368000000000001E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>0.63460000000000005</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>1.9038E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>1E-4</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>0.63390000000000002</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>6.3390000000000001E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>-1E-4</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>0.38450000000000001</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" si="0"/>
+        <v>-3.8449999999999999E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>-2.9999999999999997E-4</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>-4.0000000000000002E-4</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1999999999999999E-7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B23" s="3">
+        <v>2.7999999999999999E-8</v>
+      </c>
+      <c r="C23" s="3">
+        <v>-6.7714999999999995E-8</v>
+      </c>
+      <c r="D23" s="3">
+        <v>-2.6094000000000001E-7</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2.9486999999999999E-7</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-9.2471999999999995E-23</v>
+      </c>
+      <c r="G23" s="3">
+        <v>4.7803999999999996E-7</v>
+      </c>
+      <c r="H23" s="3">
+        <v>9.6145999999999998E-7</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1.1513000000000001E-6</v>
+      </c>
+      <c r="J23" s="3">
+        <v>8.2704000000000003E-7</v>
+      </c>
+      <c r="K23" s="3">
+        <v>4.0641999999999999E-22</v>
+      </c>
+      <c r="M23" s="3">
+        <v>2.8000000000000002E-7</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-6.7715000000000005E-7</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-2.6094E-6</v>
+      </c>
+      <c r="P23" s="3">
+        <v>-2.9486999999999998E-6</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>-9.2472000000000007E-22</v>
+      </c>
+      <c r="R23" s="3">
+        <v>4.7804E-6</v>
+      </c>
+      <c r="S23" s="3">
+        <v>9.6145999999999994E-6</v>
+      </c>
+      <c r="T23" s="3">
+        <v>1.1513E-5</v>
+      </c>
+      <c r="U23" s="3">
+        <v>8.2703999999999996E-6</v>
+      </c>
+      <c r="V23" s="3">
+        <v>4.0641999999999999E-21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B24" s="3">
+        <v>2.1754000000000002E-19</v>
+      </c>
+      <c r="C24" s="3">
+        <v>6.9288999999999996E-19</v>
+      </c>
+      <c r="D24" s="3">
+        <v>3.9192000000000002E-19</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1.4324000000000001E-20</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2.5491999999999999E-35</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-3.8394000000000001E-19</v>
+      </c>
+      <c r="H24" s="3">
+        <v>-4.9298000000000003E-19</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1.3217000000000001E-20</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-2.9490999999999998E-20</v>
+      </c>
+      <c r="K24" s="3">
+        <v>-1.3124999999999999E-34</v>
+      </c>
+      <c r="M24" s="3">
+        <v>2.1754E-18</v>
+      </c>
+      <c r="N24" s="3">
+        <v>6.9289000000000002E-18</v>
+      </c>
+      <c r="O24" s="3">
+        <v>3.9191999999999999E-18</v>
+      </c>
+      <c r="P24" s="3">
+        <v>1.4324000000000001E-19</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>2.5491999999999999E-34</v>
+      </c>
+      <c r="R24" s="3">
+        <v>-3.8393999999999998E-18</v>
+      </c>
+      <c r="S24" s="3">
+        <v>-4.9297999999999998E-18</v>
+      </c>
+      <c r="T24" s="3">
+        <v>1.3216999999999999E-19</v>
+      </c>
+      <c r="U24" s="3">
+        <v>-2.9491E-19</v>
+      </c>
+      <c r="V24" s="3">
+        <v>-1.3124999999999999E-33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B25" s="3">
+        <v>-2.8606000000000002E-6</v>
+      </c>
+      <c r="C25" s="3">
+        <v>-9.5602999999999999E-5</v>
+      </c>
+      <c r="D25">
+        <v>-2.5431999999999999E-4</v>
+      </c>
+      <c r="E25">
+        <v>-2.7563000000000002E-4</v>
+      </c>
+      <c r="F25" s="3">
+        <v>-8.1138999999999999E-20</v>
+      </c>
+      <c r="G25">
+        <v>4.6443999999999999E-4</v>
+      </c>
+      <c r="H25">
+        <v>9.1252E-4</v>
+      </c>
+      <c r="I25">
+        <v>1.0920999999999999E-3</v>
+      </c>
+      <c r="J25">
+        <v>7.9367999999999995E-4</v>
+      </c>
+      <c r="K25" s="3">
+        <v>3.8420999999999998E-19</v>
+      </c>
+      <c r="M25" s="3">
+        <v>-2.8606E-5</v>
+      </c>
+      <c r="N25">
+        <v>-9.5602999999999997E-4</v>
+      </c>
+      <c r="O25">
+        <v>-2.5431999999999998E-3</v>
+      </c>
+      <c r="P25">
+        <v>-2.7563000000000002E-3</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>-8.1139000000000004E-19</v>
+      </c>
+      <c r="R25">
+        <v>4.6443999999999999E-3</v>
+      </c>
+      <c r="S25">
+        <v>9.1252E-3</v>
+      </c>
+      <c r="T25">
+        <v>1.0921E-2</v>
+      </c>
+      <c r="U25">
+        <v>7.9368000000000008E-3</v>
+      </c>
+      <c r="V25" s="3">
+        <v>3.8420999999999998E-18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B26" s="3">
+        <v>-5.0150999999999997E-8</v>
+      </c>
+      <c r="C26" s="3">
+        <v>-1.3136999999999999E-7</v>
+      </c>
+      <c r="D26" s="3">
+        <v>-2.3192E-7</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2.2716E-7</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-5.9872000000000001E-23</v>
+      </c>
+      <c r="G26" s="3">
+        <v>4.2037E-7</v>
+      </c>
+      <c r="H26" s="3">
+        <v>8.0054000000000005E-7</v>
+      </c>
+      <c r="I26" s="3">
+        <v>9.6509000000000002E-7</v>
+      </c>
+      <c r="J26" s="3">
+        <v>7.1221E-7</v>
+      </c>
+      <c r="K26" s="3">
+        <v>3.4033000000000001E-22</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-5.0151000000000005E-7</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-1.3137E-6</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-2.3192000000000002E-6</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-2.2716E-6</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>-5.9872000000000003E-22</v>
+      </c>
+      <c r="R26" s="3">
+        <v>4.2037000000000001E-6</v>
+      </c>
+      <c r="S26" s="3">
+        <v>8.0053999999999996E-6</v>
+      </c>
+      <c r="T26" s="3">
+        <v>9.6508999999999994E-6</v>
+      </c>
+      <c r="U26" s="3">
+        <v>7.1221E-6</v>
+      </c>
+      <c r="V26" s="3">
+        <v>3.4032999999999999E-21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B27" s="3">
+        <v>3.8781999999999998E-19</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1.3099000000000001E-18</v>
+      </c>
+      <c r="D27" s="3">
+        <v>8.1821999999999997E-19</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3.2612000000000003E-20</v>
+      </c>
+      <c r="F27" s="3">
+        <v>4.1710999999999998E-35</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-7.2474E-19</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-9.9142999999999997E-19</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-1.1565999999999999E-20</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-2.9316999999999998E-20</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-2.4077E-34</v>
+      </c>
+      <c r="M27" s="3">
+        <v>3.8781999999999999E-18</v>
+      </c>
+      <c r="N27" s="3">
+        <v>1.3098999999999999E-17</v>
+      </c>
+      <c r="O27" s="3">
+        <v>8.1821999999999995E-18</v>
+      </c>
+      <c r="P27" s="3">
+        <v>3.2612E-19</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>4.1710999999999997E-34</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-7.2474000000000004E-18</v>
+      </c>
+      <c r="S27" s="3">
+        <v>-9.9142999999999997E-18</v>
+      </c>
+      <c r="T27" s="3">
+        <v>-1.1565999999999999E-19</v>
+      </c>
+      <c r="U27" s="3">
+        <v>-2.9317000000000002E-19</v>
+      </c>
+      <c r="V27" s="3">
+        <v>-2.4077E-33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B28" s="3">
+        <v>-4.6845999999999998E-5</v>
+      </c>
+      <c r="C28">
+        <v>-1.9322E-4</v>
+      </c>
+      <c r="D28">
+        <v>-3.7326999999999998E-4</v>
+      </c>
+      <c r="E28">
+        <v>-3.7020999999999999E-4</v>
+      </c>
+      <c r="F28" s="3">
+        <v>-1.0819E-19</v>
+      </c>
+      <c r="G28">
+        <v>7.1823999999999998E-4</v>
+      </c>
+      <c r="H28">
+        <v>1.4449E-3</v>
+      </c>
+      <c r="I28">
+        <v>1.7556E-3</v>
+      </c>
+      <c r="J28">
+        <v>1.2964000000000001E-3</v>
+      </c>
+      <c r="K28" s="3">
+        <v>6.3455999999999996E-19</v>
+      </c>
+      <c r="M28">
+        <v>-4.6846000000000002E-4</v>
+      </c>
+      <c r="N28">
+        <v>-1.9322E-3</v>
+      </c>
+      <c r="O28">
+        <v>-3.7326999999999998E-3</v>
+      </c>
+      <c r="P28">
+        <v>-3.7020999999999998E-3</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>-1.0819E-18</v>
+      </c>
+      <c r="R28">
+        <v>7.1824000000000002E-3</v>
+      </c>
+      <c r="S28">
+        <v>1.4449E-2</v>
+      </c>
+      <c r="T28">
+        <v>1.7555999999999999E-2</v>
+      </c>
+      <c r="U28">
+        <v>1.2964E-2</v>
+      </c>
+      <c r="V28" s="3">
+        <v>6.3456000000000003E-18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B29" s="3">
+        <v>5.2845999999999997E-9</v>
+      </c>
+      <c r="C29" s="3">
+        <v>-1.0706E-8</v>
+      </c>
+      <c r="D29" s="3">
+        <v>4.4279999999999997E-8</v>
+      </c>
+      <c r="E29" s="3">
+        <v>6.4128000000000004E-8</v>
+      </c>
+      <c r="F29" s="3">
+        <v>6.8122E-24</v>
+      </c>
+      <c r="G29" s="3">
+        <v>2.955E-8</v>
+      </c>
+      <c r="H29" s="3">
+        <v>1.9257000000000001E-7</v>
+      </c>
+      <c r="I29" s="3">
+        <v>2.8047000000000002E-7</v>
+      </c>
+      <c r="J29" s="3">
+        <v>2.3879999999999999E-7</v>
+      </c>
+      <c r="K29" s="3">
+        <v>1.3642999999999999E-22</v>
+      </c>
+      <c r="M29" s="3">
+        <v>5.2846000000000002E-8</v>
+      </c>
+      <c r="N29" s="3">
+        <v>-1.0705999999999999E-7</v>
+      </c>
+      <c r="O29" s="3">
+        <v>4.4280000000000002E-7</v>
+      </c>
+      <c r="P29" s="3">
+        <v>6.4127999999999998E-7</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>6.8122000000000006E-23</v>
+      </c>
+      <c r="R29" s="3">
+        <v>2.9550000000000002E-7</v>
+      </c>
+      <c r="S29" s="3">
+        <v>1.9257E-6</v>
+      </c>
+      <c r="T29" s="3">
+        <v>2.8047E-6</v>
+      </c>
+      <c r="U29" s="3">
+        <v>2.3879999999999998E-6</v>
+      </c>
+      <c r="V29" s="3">
+        <v>1.3643E-21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B30" s="3">
+        <v>5.3219000000000002E-19</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1.8438000000000002E-18</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1.1436999999999999E-18</v>
+      </c>
+      <c r="E30" s="3">
+        <v>9.2336000000000006E-21</v>
+      </c>
+      <c r="F30" s="3">
+        <v>5.5976000000000002E-35</v>
+      </c>
+      <c r="G30" s="3">
+        <v>-9.7833000000000002E-19</v>
+      </c>
+      <c r="H30" s="3">
+        <v>-1.3018000000000001E-18</v>
+      </c>
+      <c r="I30" s="3">
+        <v>-4.2803999999999998E-20</v>
+      </c>
+      <c r="J30" s="3">
+        <v>-3.6713E-20</v>
+      </c>
+      <c r="K30" s="3">
+        <v>-3.1532E-34</v>
+      </c>
+      <c r="M30" s="3">
+        <v>5.3219000000000002E-18</v>
+      </c>
+      <c r="N30" s="3">
+        <v>1.8438E-17</v>
+      </c>
+      <c r="O30" s="3">
+        <v>1.1437E-17</v>
+      </c>
+      <c r="P30" s="3">
+        <v>9.2336000000000006E-20</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>5.5976000000000002E-34</v>
+      </c>
+      <c r="R30" s="3">
+        <v>-9.7832999999999994E-18</v>
+      </c>
+      <c r="S30" s="3">
+        <v>-1.3018E-17</v>
+      </c>
+      <c r="T30" s="3">
+        <v>-4.2803999999999998E-19</v>
+      </c>
+      <c r="U30" s="3">
+        <v>-3.6713E-19</v>
+      </c>
+      <c r="V30" s="3">
+        <v>-3.1531999999999999E-33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B31" s="3">
+        <v>-4.0389000000000004E-6</v>
+      </c>
+      <c r="C31" s="3">
+        <v>-9.5366999999999997E-5</v>
+      </c>
+      <c r="D31">
+        <v>-1.9662E-4</v>
+      </c>
+      <c r="E31">
+        <v>-2.0976999999999999E-4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>-7.7201000000000004E-20</v>
+      </c>
+      <c r="G31">
+        <v>5.5285999999999996E-4</v>
+      </c>
+      <c r="H31">
+        <v>1.2738999999999999E-3</v>
+      </c>
+      <c r="I31">
+        <v>1.6437999999999999E-3</v>
+      </c>
+      <c r="J31">
+        <v>1.2565E-3</v>
+      </c>
+      <c r="K31" s="3">
+        <v>6.3392000000000001E-19</v>
+      </c>
+      <c r="M31" s="3">
+        <v>-4.0389000000000002E-5</v>
+      </c>
+      <c r="N31">
+        <v>-9.5367E-4</v>
+      </c>
+      <c r="O31">
+        <v>-1.9662E-3</v>
+      </c>
+      <c r="P31">
+        <v>-2.0977000000000001E-3</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>-7.7201000000000004E-19</v>
+      </c>
+      <c r="R31">
+        <v>5.5285999999999998E-3</v>
+      </c>
+      <c r="S31">
+        <v>1.2739E-2</v>
+      </c>
+      <c r="T31">
+        <v>1.6438000000000001E-2</v>
+      </c>
+      <c r="U31">
+        <v>1.2565E-2</v>
+      </c>
+      <c r="V31" s="3">
+        <v>6.3392000000000001E-18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B32" s="3">
+        <v>4.1910000000000003E-8</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1.6499E-7</v>
+      </c>
+      <c r="D32" s="3">
+        <v>2.4119E-7</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1.8752E-7</v>
+      </c>
+      <c r="F32" s="3">
+        <v>4.6450000000000001E-23</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-2.8570999999999998E-7</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-4.7460999999999999E-7</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-4.4630999999999998E-7</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-2.8285999999999998E-7</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-1.3607999999999999E-22</v>
+      </c>
+      <c r="M32" s="3">
+        <v>4.1909999999999999E-7</v>
+      </c>
+      <c r="N32" s="3">
+        <v>1.6499000000000001E-6</v>
+      </c>
+      <c r="O32" s="3">
+        <v>2.4119000000000002E-6</v>
+      </c>
+      <c r="P32" s="3">
+        <v>1.8752000000000001E-6</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>4.6449999999999996E-22</v>
+      </c>
+      <c r="R32" s="3">
+        <v>-2.8571000000000001E-6</v>
+      </c>
+      <c r="S32" s="3">
+        <v>-4.7461000000000002E-6</v>
+      </c>
+      <c r="T32" s="3">
+        <v>-4.4630999999999997E-6</v>
+      </c>
+      <c r="U32" s="3">
+        <v>-2.8285999999999999E-6</v>
+      </c>
+      <c r="V32" s="3">
+        <v>-1.3608E-21</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B33" s="3">
+        <v>5.9636999999999997E-19</v>
+      </c>
+      <c r="C33" s="3">
+        <v>2.1210999999999998E-18</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1.3277000000000001E-18</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-5.0244E-22</v>
+      </c>
+      <c r="F33" s="3">
+        <v>7.2823E-35</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-1.1759E-18</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-1.5117999999999999E-18</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-6.5583000000000005E-20</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-4.4546000000000001E-20</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-3.7411999999999998E-34</v>
+      </c>
+      <c r="M33" s="3">
+        <v>5.9637000000000001E-18</v>
+      </c>
+      <c r="N33" s="3">
+        <v>2.1210999999999999E-17</v>
+      </c>
+      <c r="O33" s="3">
+        <v>1.3277E-17</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-5.0243999999999998E-21</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>7.2822999999999996E-34</v>
+      </c>
+      <c r="R33" s="3">
+        <v>-1.1759E-17</v>
+      </c>
+      <c r="S33" s="3">
+        <v>-1.5117999999999999E-17</v>
+      </c>
+      <c r="T33" s="3">
+        <v>-6.5583E-19</v>
+      </c>
+      <c r="U33" s="3">
+        <v>-4.4546000000000004E-19</v>
+      </c>
+      <c r="V33" s="3">
+        <v>-3.7412E-33</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B34" s="3">
+        <v>2.0613000000000001E-6</v>
+      </c>
+      <c r="C34" s="3">
+        <v>2.7801999999999999E-5</v>
+      </c>
+      <c r="D34" s="3">
+        <v>-1.4507E-5</v>
+      </c>
+      <c r="E34" s="3">
+        <v>-7.5867999999999999E-5</v>
+      </c>
+      <c r="F34" s="3">
+        <v>-3.1151999999999998E-20</v>
+      </c>
+      <c r="G34">
+        <v>2.6458999999999999E-4</v>
+      </c>
+      <c r="H34">
+        <v>6.6087000000000003E-4</v>
+      </c>
+      <c r="I34">
+        <v>9.6887999999999998E-4</v>
+      </c>
+      <c r="J34">
+        <v>7.8355999999999999E-4</v>
+      </c>
+      <c r="K34" s="3">
+        <v>3.8445999999999998E-19</v>
+      </c>
+      <c r="M34" s="3">
+        <v>2.0613000000000001E-5</v>
+      </c>
+      <c r="N34">
+        <v>2.7802000000000002E-4</v>
+      </c>
+      <c r="O34">
+        <v>-1.4506999999999999E-4</v>
+      </c>
+      <c r="P34">
+        <v>-7.5867999999999997E-4</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>-3.1152E-19</v>
+      </c>
+      <c r="R34">
+        <v>2.6459000000000001E-3</v>
+      </c>
+      <c r="S34">
+        <v>6.6087000000000003E-3</v>
+      </c>
+      <c r="T34">
+        <v>9.6887999999999991E-3</v>
+      </c>
+      <c r="U34">
+        <v>7.8355999999999999E-3</v>
+      </c>
+      <c r="V34" s="3">
+        <v>3.8446000000000003E-18</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B35" s="3">
+        <v>-1.9285E-8</v>
+      </c>
+      <c r="C35" s="3">
+        <v>4.4564000000000001E-8</v>
+      </c>
+      <c r="D35" s="3">
+        <v>8.6188000000000004E-8</v>
+      </c>
+      <c r="E35" s="3">
+        <v>8.3308999999999995E-8</v>
+      </c>
+      <c r="F35" s="3">
+        <v>3.9424E-23</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-2.6856999999999998E-7</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-6.7329999999999997E-7</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-8.5613999999999999E-7</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-6.5232000000000001E-7</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-3.3963999999999999E-22</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-1.9285000000000001E-7</v>
+      </c>
+      <c r="N35" s="3">
+        <v>4.4564000000000001E-7</v>
+      </c>
+      <c r="O35" s="3">
+        <v>8.6188000000000004E-7</v>
+      </c>
+      <c r="P35" s="3">
+        <v>8.3308999999999995E-7</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>3.9424000000000001E-22</v>
+      </c>
+      <c r="R35" s="3">
+        <v>-2.6857E-6</v>
+      </c>
+      <c r="S35" s="3">
+        <v>-6.7329999999999997E-6</v>
+      </c>
+      <c r="T35" s="3">
+        <v>-8.5614000000000007E-6</v>
+      </c>
+      <c r="U35" s="3">
+        <v>-6.5231999999999996E-6</v>
+      </c>
+      <c r="V35" s="3">
+        <v>-3.3963999999999998E-21</v>
+      </c>
+    </row>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B36" s="3">
+        <v>5.8852999999999998E-19</v>
+      </c>
+      <c r="C36" s="3">
+        <v>2.1264000000000001E-18</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1.3232E-18</v>
+      </c>
+      <c r="E36" s="3">
+        <v>-5.1163999999999997E-20</v>
+      </c>
+      <c r="F36" s="3">
+        <v>6.4631000000000005E-35</v>
+      </c>
+      <c r="G36" s="3">
+        <v>-1.1833000000000001E-18</v>
+      </c>
+      <c r="H36" s="3">
+        <v>-1.5011E-18</v>
+      </c>
+      <c r="I36" s="3">
+        <v>2.9298999999999998E-20</v>
+      </c>
+      <c r="J36" s="3">
+        <v>8.0941000000000003E-21</v>
+      </c>
+      <c r="K36" s="3">
+        <v>-3.8781999999999999E-34</v>
+      </c>
+      <c r="M36" s="3">
+        <v>5.8852999999999998E-18</v>
+      </c>
+      <c r="N36" s="3">
+        <v>2.1264E-17</v>
+      </c>
+      <c r="O36" s="3">
+        <v>1.3232E-17</v>
+      </c>
+      <c r="P36" s="3">
+        <v>-5.1163999999999996E-19</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>6.4631000000000001E-34</v>
+      </c>
+      <c r="R36" s="3">
+        <v>-1.1833E-17</v>
+      </c>
+      <c r="S36" s="3">
+        <v>-1.5011000000000001E-17</v>
+      </c>
+      <c r="T36" s="3">
+        <v>2.9299000000000002E-19</v>
+      </c>
+      <c r="U36" s="3">
+        <v>8.0941000000000003E-20</v>
+      </c>
+      <c r="V36" s="3">
+        <v>-3.8782000000000002E-33</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B37" s="3">
+        <v>1.6481E-8</v>
+      </c>
+      <c r="C37" s="3">
+        <v>-6.7235000000000006E-8</v>
+      </c>
+      <c r="D37" s="3">
+        <v>-1.8529E-8</v>
+      </c>
+      <c r="E37" s="3">
+        <v>7.9263E-8</v>
+      </c>
+      <c r="F37" s="3">
+        <v>2.6843000000000002E-23</v>
+      </c>
+      <c r="G37" s="3">
+        <v>-2.6931999999999998E-7</v>
+      </c>
+      <c r="H37" s="3">
+        <v>-6.5186999999999997E-7</v>
+      </c>
+      <c r="I37" s="3">
+        <v>-1.0376E-6</v>
+      </c>
+      <c r="J37" s="3">
+        <v>-8.5868999999999997E-7</v>
+      </c>
+      <c r="K37" s="3">
+        <v>-4.0849000000000002E-22</v>
+      </c>
+      <c r="M37" s="3">
+        <v>1.6481E-7</v>
+      </c>
+      <c r="N37" s="3">
+        <v>-6.7235000000000001E-7</v>
+      </c>
+      <c r="O37" s="3">
+        <v>-1.8528999999999999E-7</v>
+      </c>
+      <c r="P37" s="3">
+        <v>7.9263000000000002E-7</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>2.6842999999999998E-22</v>
+      </c>
+      <c r="R37" s="3">
+        <v>-2.6931999999999999E-6</v>
+      </c>
+      <c r="S37" s="3">
+        <v>-6.5186999999999999E-6</v>
+      </c>
+      <c r="T37" s="3">
+        <v>-1.0376E-5</v>
+      </c>
+      <c r="U37" s="3">
+        <v>-8.5869000000000007E-6</v>
+      </c>
+      <c r="V37" s="3">
+        <v>-4.0849000000000001E-21</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B39" s="3">
+        <f>B23-M23</f>
+        <v>-2.5200000000000003E-7</v>
+      </c>
+      <c r="C39" s="3">
+        <f t="shared" ref="C39:K39" si="1">C23-N23</f>
+        <v>6.0943500000000006E-7</v>
+      </c>
+      <c r="D39" s="3">
+        <f t="shared" si="1"/>
+        <v>2.3484599999999998E-6</v>
+      </c>
+      <c r="E39" s="3">
+        <f t="shared" si="1"/>
+        <v>2.6538299999999999E-6</v>
+      </c>
+      <c r="F39" s="3">
+        <f t="shared" si="1"/>
+        <v>8.3224800000000006E-22</v>
+      </c>
+      <c r="G39" s="3">
+        <f t="shared" si="1"/>
+        <v>-4.3023600000000003E-6</v>
+      </c>
+      <c r="H39" s="3">
+        <f t="shared" si="1"/>
+        <v>-8.6531399999999996E-6</v>
+      </c>
+      <c r="I39" s="3">
+        <f t="shared" si="1"/>
+        <v>-1.0361699999999999E-5</v>
+      </c>
+      <c r="J39" s="3">
+        <f t="shared" si="1"/>
+        <v>-7.4433599999999995E-6</v>
+      </c>
+      <c r="K39" s="3">
+        <f t="shared" si="1"/>
+        <v>-3.6577800000000003E-21</v>
+      </c>
+      <c r="M39" s="3">
+        <v>2.8E-5</v>
+      </c>
+      <c r="N39" s="3">
+        <v>-6.7714999999999998E-5</v>
+      </c>
+      <c r="O39">
+        <v>-2.6093999999999998E-4</v>
+      </c>
+      <c r="P39">
+        <v>-2.9486999999999997E-4</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>-9.2471999999999997E-20</v>
+      </c>
+      <c r="R39">
+        <v>4.7804E-4</v>
+      </c>
+      <c r="S39">
+        <v>9.6146000000000003E-4</v>
+      </c>
+      <c r="T39">
+        <v>1.1513000000000001E-3</v>
+      </c>
+      <c r="U39">
+        <v>8.2704000000000002E-4</v>
+      </c>
+      <c r="V39" s="3">
+        <v>4.0642000000000002E-19</v>
+      </c>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B40" s="3">
+        <f t="shared" ref="B40:B54" si="2">B24-M24</f>
+        <v>-1.9578600000000001E-18</v>
+      </c>
+      <c r="C40" s="3">
+        <f t="shared" ref="C40:C54" si="3">C24-N24</f>
+        <v>-6.2360100000000003E-18</v>
+      </c>
+      <c r="D40" s="3">
+        <f t="shared" ref="D40:D54" si="4">D24-O24</f>
+        <v>-3.5272800000000002E-18</v>
+      </c>
+      <c r="E40" s="3">
+        <f t="shared" ref="E40:E54" si="5">E24-P24</f>
+        <v>-1.2891600000000001E-19</v>
+      </c>
+      <c r="F40" s="3">
+        <f t="shared" ref="F40:F54" si="6">F24-Q24</f>
+        <v>-2.2942799999999999E-34</v>
+      </c>
+      <c r="G40" s="3">
+        <f t="shared" ref="G40:G54" si="7">G24-R24</f>
+        <v>3.4554599999999997E-18</v>
+      </c>
+      <c r="H40" s="3">
+        <f t="shared" ref="H40:H54" si="8">H24-S24</f>
+        <v>4.4368199999999996E-18</v>
+      </c>
+      <c r="I40" s="3">
+        <f t="shared" ref="I40:I54" si="9">I24-T24</f>
+        <v>-1.1895299999999998E-19</v>
+      </c>
+      <c r="J40" s="3">
+        <f t="shared" ref="J40:J54" si="10">J24-U24</f>
+        <v>2.6541900000000002E-19</v>
+      </c>
+      <c r="K40" s="3">
+        <f t="shared" ref="K40:K54" si="11">K24-V24</f>
+        <v>1.18125E-33</v>
+      </c>
+      <c r="M40" s="3">
+        <v>2.1754000000000001E-16</v>
+      </c>
+      <c r="N40" s="3">
+        <v>6.9289E-16</v>
+      </c>
+      <c r="O40" s="3">
+        <v>3.9192000000000002E-16</v>
+      </c>
+      <c r="P40" s="3">
+        <v>1.4323999999999999E-17</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>2.5491999999999999E-32</v>
+      </c>
+      <c r="R40" s="3">
+        <v>-3.8393999999999998E-16</v>
+      </c>
+      <c r="S40" s="3">
+        <v>-4.9297999999999998E-16</v>
+      </c>
+      <c r="T40" s="3">
+        <v>1.3217E-17</v>
+      </c>
+      <c r="U40" s="3">
+        <v>-2.9490999999999998E-17</v>
+      </c>
+      <c r="V40" s="3">
+        <v>-1.3125000000000001E-31</v>
+      </c>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B41" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5745399999999999E-5</v>
+      </c>
+      <c r="C41" s="3">
+        <f t="shared" si="3"/>
+        <v>8.6042699999999998E-4</v>
+      </c>
+      <c r="D41" s="3">
+        <f t="shared" si="4"/>
+        <v>2.2888799999999996E-3</v>
+      </c>
+      <c r="E41" s="3">
+        <f t="shared" si="5"/>
+        <v>2.4806699999999999E-3</v>
+      </c>
+      <c r="F41" s="3">
+        <f t="shared" si="6"/>
+        <v>7.3025100000000002E-19</v>
+      </c>
+      <c r="G41" s="3">
+        <f t="shared" si="7"/>
+        <v>-4.1799599999999999E-3</v>
+      </c>
+      <c r="H41" s="3">
+        <f t="shared" si="8"/>
+        <v>-8.21268E-3</v>
+      </c>
+      <c r="I41" s="3">
+        <f t="shared" si="9"/>
+        <v>-9.8288999999999998E-3</v>
+      </c>
+      <c r="J41" s="3">
+        <f t="shared" si="10"/>
+        <v>-7.1431200000000011E-3</v>
+      </c>
+      <c r="K41" s="3">
+        <f t="shared" si="11"/>
+        <v>-3.4578899999999998E-18</v>
+      </c>
+      <c r="M41">
+        <v>-2.8606E-3</v>
+      </c>
+      <c r="N41">
+        <v>-9.5602999999999994E-2</v>
+      </c>
+      <c r="O41">
+        <v>-0.25431999999999999</v>
+      </c>
+      <c r="P41">
+        <v>-0.27562999999999999</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>-8.1139000000000006E-17</v>
+      </c>
+      <c r="R41">
+        <v>0.46444000000000002</v>
+      </c>
+      <c r="S41">
+        <v>0.91252</v>
+      </c>
+      <c r="T41">
+        <v>1.0921000000000001</v>
+      </c>
+      <c r="U41">
+        <v>0.79368000000000005</v>
+      </c>
+      <c r="V41" s="3">
+        <v>3.8420999999999999E-16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B42" s="3">
+        <f t="shared" si="2"/>
+        <v>4.5135900000000006E-7</v>
+      </c>
+      <c r="C42" s="3">
+        <f t="shared" si="3"/>
+        <v>1.1823300000000001E-6</v>
+      </c>
+      <c r="D42" s="3">
+        <f t="shared" si="4"/>
+        <v>2.0872800000000002E-6</v>
+      </c>
+      <c r="E42" s="3">
+        <f t="shared" si="5"/>
+        <v>2.0444400000000001E-6</v>
+      </c>
+      <c r="F42" s="3">
+        <f t="shared" si="6"/>
+        <v>5.3884800000000002E-22</v>
+      </c>
+      <c r="G42" s="3">
+        <f t="shared" si="7"/>
+        <v>-3.7833300000000002E-6</v>
+      </c>
+      <c r="H42" s="3">
+        <f t="shared" si="8"/>
+        <v>-7.20486E-6</v>
+      </c>
+      <c r="I42" s="3">
+        <f t="shared" si="9"/>
+        <v>-8.6858099999999998E-6</v>
+      </c>
+      <c r="J42" s="3">
+        <f t="shared" si="10"/>
+        <v>-6.4098900000000004E-6</v>
+      </c>
+      <c r="K42" s="3">
+        <f t="shared" si="11"/>
+        <v>-3.0629699999999998E-21</v>
+      </c>
+      <c r="M42" s="3">
+        <v>-5.0151000000000001E-5</v>
+      </c>
+      <c r="N42">
+        <v>-1.3137000000000001E-4</v>
+      </c>
+      <c r="O42">
+        <v>-2.3191999999999999E-4</v>
+      </c>
+      <c r="P42">
+        <v>-2.2715999999999999E-4</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>-5.9871999999999998E-20</v>
+      </c>
+      <c r="R42">
+        <v>4.2036999999999999E-4</v>
+      </c>
+      <c r="S42">
+        <v>8.0053999999999998E-4</v>
+      </c>
+      <c r="T42">
+        <v>9.6509000000000005E-4</v>
+      </c>
+      <c r="U42">
+        <v>7.1221000000000001E-4</v>
+      </c>
+      <c r="V42" s="3">
+        <v>3.4033000000000002E-19</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B43" s="3">
+        <f t="shared" si="2"/>
+        <v>-3.4903800000000001E-18</v>
+      </c>
+      <c r="C43" s="3">
+        <f t="shared" si="3"/>
+        <v>-1.17891E-17</v>
+      </c>
+      <c r="D43" s="3">
+        <f t="shared" si="4"/>
+        <v>-7.3639799999999992E-18</v>
+      </c>
+      <c r="E43" s="3">
+        <f t="shared" si="5"/>
+        <v>-2.9350800000000001E-19</v>
+      </c>
+      <c r="F43" s="3">
+        <f t="shared" si="6"/>
+        <v>-3.7539899999999996E-34</v>
+      </c>
+      <c r="G43" s="3">
+        <f t="shared" si="7"/>
+        <v>6.5226600000000002E-18</v>
+      </c>
+      <c r="H43" s="3">
+        <f t="shared" si="8"/>
+        <v>8.9228699999999997E-18</v>
+      </c>
+      <c r="I43" s="3">
+        <f t="shared" si="9"/>
+        <v>1.0409399999999999E-19</v>
+      </c>
+      <c r="J43" s="3">
+        <f t="shared" si="10"/>
+        <v>2.6385300000000002E-19</v>
+      </c>
+      <c r="K43" s="3">
+        <f t="shared" si="11"/>
+        <v>2.16693E-33</v>
+      </c>
+      <c r="M43" s="3">
+        <v>3.8782000000000001E-16</v>
+      </c>
+      <c r="N43" s="3">
+        <v>1.3099E-15</v>
+      </c>
+      <c r="O43" s="3">
+        <v>8.1822000000000001E-16</v>
+      </c>
+      <c r="P43" s="3">
+        <v>3.2611999999999999E-17</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>4.1710999999999998E-32</v>
+      </c>
+      <c r="R43" s="3">
+        <v>-7.2474000000000002E-16</v>
+      </c>
+      <c r="S43" s="3">
+        <v>-9.9143000000000002E-16</v>
+      </c>
+      <c r="T43" s="3">
+        <v>-1.1566E-17</v>
+      </c>
+      <c r="U43" s="3">
+        <v>-2.9316999999999999E-17</v>
+      </c>
+      <c r="V43" s="3">
+        <v>-2.4076999999999998E-31</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B44" s="3">
+        <f t="shared" si="2"/>
+        <v>4.2161400000000001E-4</v>
+      </c>
+      <c r="C44" s="3">
+        <f t="shared" si="3"/>
+        <v>1.73898E-3</v>
+      </c>
+      <c r="D44" s="3">
+        <f t="shared" si="4"/>
+        <v>3.3594300000000001E-3</v>
+      </c>
+      <c r="E44" s="3">
+        <f t="shared" si="5"/>
+        <v>3.3318899999999997E-3</v>
+      </c>
+      <c r="F44" s="3">
+        <f t="shared" si="6"/>
+        <v>9.7371E-19</v>
+      </c>
+      <c r="G44" s="3">
+        <f t="shared" si="7"/>
+        <v>-6.46416E-3</v>
+      </c>
+      <c r="H44" s="3">
+        <f t="shared" si="8"/>
+        <v>-1.3004099999999999E-2</v>
+      </c>
+      <c r="I44" s="3">
+        <f t="shared" si="9"/>
+        <v>-1.5800399999999999E-2</v>
+      </c>
+      <c r="J44" s="3">
+        <f t="shared" si="10"/>
+        <v>-1.16676E-2</v>
+      </c>
+      <c r="K44" s="3">
+        <f t="shared" si="11"/>
+        <v>-5.7110400000000004E-18</v>
+      </c>
+      <c r="M44">
+        <v>-4.6845999999999999E-2</v>
+      </c>
+      <c r="N44">
+        <v>-0.19322</v>
+      </c>
+      <c r="O44">
+        <v>-0.37326999999999999</v>
+      </c>
+      <c r="P44">
+        <v>-0.37020999999999998</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>-1.0819E-16</v>
+      </c>
+      <c r="R44">
+        <v>0.71823999999999999</v>
+      </c>
+      <c r="S44">
+        <v>1.4449000000000001</v>
+      </c>
+      <c r="T44">
+        <v>1.7556</v>
+      </c>
+      <c r="U44">
+        <v>1.2964</v>
+      </c>
+      <c r="V44" s="3">
+        <v>6.3456E-16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B45" s="3">
+        <f t="shared" si="2"/>
+        <v>-4.75614E-8</v>
+      </c>
+      <c r="C45" s="3">
+        <f t="shared" si="3"/>
+        <v>9.635399999999999E-8</v>
+      </c>
+      <c r="D45" s="3">
+        <f t="shared" si="4"/>
+        <v>-3.9852E-7</v>
+      </c>
+      <c r="E45" s="3">
+        <f t="shared" si="5"/>
+        <v>-5.7715200000000001E-7</v>
+      </c>
+      <c r="F45" s="3">
+        <f t="shared" si="6"/>
+        <v>-6.1309800000000009E-23</v>
+      </c>
+      <c r="G45" s="3">
+        <f t="shared" si="7"/>
+        <v>-2.6595000000000002E-7</v>
+      </c>
+      <c r="H45" s="3">
+        <f t="shared" si="8"/>
+        <v>-1.73313E-6</v>
+      </c>
+      <c r="I45" s="3">
+        <f t="shared" si="9"/>
+        <v>-2.5242299999999999E-6</v>
+      </c>
+      <c r="J45" s="3">
+        <f t="shared" si="10"/>
+        <v>-2.1491999999999997E-6</v>
+      </c>
+      <c r="K45" s="3">
+        <f t="shared" si="11"/>
+        <v>-1.2278700000000001E-21</v>
+      </c>
+      <c r="M45" s="3">
+        <v>5.2846000000000002E-6</v>
+      </c>
+      <c r="N45" s="3">
+        <v>-1.0706E-5</v>
+      </c>
+      <c r="O45" s="3">
+        <v>4.4280000000000003E-5</v>
+      </c>
+      <c r="P45" s="3">
+        <v>6.4128000000000007E-5</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>6.8122000000000001E-21</v>
+      </c>
+      <c r="R45" s="3">
+        <v>2.955E-5</v>
+      </c>
+      <c r="S45">
+        <v>1.9257000000000001E-4</v>
+      </c>
+      <c r="T45">
+        <v>2.8047E-4</v>
+      </c>
+      <c r="U45">
+        <v>2.388E-4</v>
+      </c>
+      <c r="V45" s="3">
+        <v>1.3642999999999999E-19</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B46" s="3">
+        <f t="shared" si="2"/>
+        <v>-4.7897099999999998E-18</v>
+      </c>
+      <c r="C46" s="3">
+        <f t="shared" si="3"/>
+        <v>-1.6594200000000001E-17</v>
+      </c>
+      <c r="D46" s="3">
+        <f t="shared" si="4"/>
+        <v>-1.0293300000000001E-17</v>
+      </c>
+      <c r="E46" s="3">
+        <f t="shared" si="5"/>
+        <v>-8.3102400000000005E-20</v>
+      </c>
+      <c r="F46" s="3">
+        <f t="shared" si="6"/>
+        <v>-5.0378400000000002E-34</v>
+      </c>
+      <c r="G46" s="3">
+        <f t="shared" si="7"/>
+        <v>8.8049699999999998E-18</v>
+      </c>
+      <c r="H46" s="3">
+        <f t="shared" si="8"/>
+        <v>1.1716199999999999E-17</v>
+      </c>
+      <c r="I46" s="3">
+        <f t="shared" si="9"/>
+        <v>3.8523599999999998E-19</v>
+      </c>
+      <c r="J46" s="3">
+        <f t="shared" si="10"/>
+        <v>3.3041699999999997E-19</v>
+      </c>
+      <c r="K46" s="3">
+        <f t="shared" si="11"/>
+        <v>2.8378799999999998E-33</v>
+      </c>
+      <c r="M46" s="3">
+        <v>5.3218999999999998E-16</v>
+      </c>
+      <c r="N46" s="3">
+        <v>1.8438000000000001E-15</v>
+      </c>
+      <c r="O46" s="3">
+        <v>1.1437E-15</v>
+      </c>
+      <c r="P46" s="3">
+        <v>9.2335999999999999E-18</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>5.5976000000000002E-32</v>
+      </c>
+      <c r="R46" s="3">
+        <v>-9.7833000000000006E-16</v>
+      </c>
+      <c r="S46" s="3">
+        <v>-1.3018E-15</v>
+      </c>
+      <c r="T46" s="3">
+        <v>-4.2804000000000001E-17</v>
+      </c>
+      <c r="U46" s="3">
+        <v>-3.6712999999999999E-17</v>
+      </c>
+      <c r="V46" s="3">
+        <v>-3.1531999999999999E-31</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B47" s="3">
+        <f t="shared" si="2"/>
+        <v>3.6350100000000003E-5</v>
+      </c>
+      <c r="C47" s="3">
+        <f t="shared" si="3"/>
+        <v>8.5830300000000004E-4</v>
+      </c>
+      <c r="D47" s="3">
+        <f t="shared" si="4"/>
+        <v>1.76958E-3</v>
+      </c>
+      <c r="E47" s="3">
+        <f t="shared" si="5"/>
+        <v>1.8879300000000001E-3</v>
+      </c>
+      <c r="F47" s="3">
+        <f t="shared" si="6"/>
+        <v>6.9480899999999999E-19</v>
+      </c>
+      <c r="G47" s="3">
+        <f t="shared" si="7"/>
+        <v>-4.9757400000000002E-3</v>
+      </c>
+      <c r="H47" s="3">
+        <f t="shared" si="8"/>
+        <v>-1.1465100000000001E-2</v>
+      </c>
+      <c r="I47" s="3">
+        <f t="shared" si="9"/>
+        <v>-1.47942E-2</v>
+      </c>
+      <c r="J47" s="3">
+        <f t="shared" si="10"/>
+        <v>-1.1308499999999999E-2</v>
+      </c>
+      <c r="K47" s="3">
+        <f t="shared" si="11"/>
+        <v>-5.7052800000000005E-18</v>
+      </c>
+      <c r="M47">
+        <v>-4.0388999999999998E-3</v>
+      </c>
+      <c r="N47">
+        <v>-9.5366999999999993E-2</v>
+      </c>
+      <c r="O47">
+        <v>-0.19661999999999999</v>
+      </c>
+      <c r="P47">
+        <v>-0.20977000000000001</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>-7.7200999999999995E-17</v>
+      </c>
+      <c r="R47">
+        <v>0.55286000000000002</v>
+      </c>
+      <c r="S47">
+        <v>1.2739</v>
+      </c>
+      <c r="T47">
+        <v>1.6437999999999999</v>
+      </c>
+      <c r="U47">
+        <v>1.2565</v>
+      </c>
+      <c r="V47" s="3">
+        <v>6.3391999999999995E-16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B48" s="3">
+        <f t="shared" si="2"/>
+        <v>-3.7719E-7</v>
+      </c>
+      <c r="C48" s="3">
+        <f t="shared" si="3"/>
+        <v>-1.48491E-6</v>
+      </c>
+      <c r="D48" s="3">
+        <f t="shared" si="4"/>
+        <v>-2.1707100000000001E-6</v>
+      </c>
+      <c r="E48" s="3">
+        <f t="shared" si="5"/>
+        <v>-1.68768E-6</v>
+      </c>
+      <c r="F48" s="3">
+        <f t="shared" si="6"/>
+        <v>-4.1804999999999994E-22</v>
+      </c>
+      <c r="G48" s="3">
+        <f t="shared" si="7"/>
+        <v>2.5713900000000002E-6</v>
+      </c>
+      <c r="H48" s="3">
+        <f t="shared" si="8"/>
+        <v>4.2714899999999998E-6</v>
+      </c>
+      <c r="I48" s="3">
+        <f t="shared" si="9"/>
+        <v>4.0167899999999995E-6</v>
+      </c>
+      <c r="J48" s="3">
+        <f t="shared" si="10"/>
+        <v>2.5457399999999999E-6</v>
+      </c>
+      <c r="K48" s="3">
+        <f t="shared" si="11"/>
+        <v>1.2247200000000001E-21</v>
+      </c>
+      <c r="M48" s="3">
+        <v>4.1909999999999997E-5</v>
+      </c>
+      <c r="N48">
+        <v>1.6499E-4</v>
+      </c>
+      <c r="O48">
+        <v>2.4119000000000001E-4</v>
+      </c>
+      <c r="P48">
+        <v>1.8751999999999999E-4</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>4.6450000000000001E-20</v>
+      </c>
+      <c r="R48">
+        <v>-2.8571E-4</v>
+      </c>
+      <c r="S48">
+        <v>-4.7460999999999998E-4</v>
+      </c>
+      <c r="T48">
+        <v>-4.4631E-4</v>
+      </c>
+      <c r="U48">
+        <v>-2.8286000000000001E-4</v>
+      </c>
+      <c r="V48" s="3">
+        <v>-1.3608000000000001E-19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="B49" s="3">
+        <f t="shared" si="2"/>
+        <v>-5.3673299999999999E-18</v>
+      </c>
+      <c r="C49" s="3">
+        <f t="shared" si="3"/>
+        <v>-1.9089899999999999E-17</v>
+      </c>
+      <c r="D49" s="3">
+        <f t="shared" si="4"/>
+        <v>-1.19493E-17</v>
+      </c>
+      <c r="E49" s="3">
+        <f t="shared" si="5"/>
+        <v>4.5219599999999999E-21</v>
+      </c>
+      <c r="F49" s="3">
+        <f t="shared" si="6"/>
+        <v>-6.5540699999999994E-34</v>
+      </c>
+      <c r="G49" s="3">
+        <f t="shared" si="7"/>
+        <v>1.05831E-17</v>
+      </c>
+      <c r="H49" s="3">
+        <f t="shared" si="8"/>
+        <v>1.3606199999999999E-17</v>
+      </c>
+      <c r="I49" s="3">
+        <f t="shared" si="9"/>
+        <v>5.9024700000000002E-19</v>
+      </c>
+      <c r="J49" s="3">
+        <f t="shared" si="10"/>
+        <v>4.0091400000000002E-19</v>
+      </c>
+      <c r="K49" s="3">
+        <f t="shared" si="11"/>
+        <v>3.3670800000000003E-33</v>
+      </c>
+      <c r="M49" s="3">
+        <v>5.9636999999999997E-16</v>
+      </c>
+      <c r="N49" s="3">
+        <v>2.1211000000000001E-15</v>
+      </c>
+      <c r="O49" s="3">
+        <v>1.3277000000000001E-15</v>
+      </c>
+      <c r="P49" s="3">
+        <v>-5.0244000000000004E-19</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>7.2822999999999995E-32</v>
+      </c>
+      <c r="R49" s="3">
+        <v>-1.1759E-15</v>
+      </c>
+      <c r="S49" s="3">
+        <v>-1.5118E-15</v>
+      </c>
+      <c r="T49" s="3">
+        <v>-6.5583E-17</v>
+      </c>
+      <c r="U49" s="3">
+        <v>-4.4545999999999997E-17</v>
+      </c>
+      <c r="V49" s="3">
+        <v>-3.7411999999999998E-31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="B50" s="3">
+        <f t="shared" si="2"/>
+        <v>-1.8551700000000001E-5</v>
+      </c>
+      <c r="C50" s="3">
+        <f t="shared" si="3"/>
+        <v>-2.5021800000000002E-4</v>
+      </c>
+      <c r="D50" s="3">
+        <f t="shared" si="4"/>
+        <v>1.3056299999999999E-4</v>
+      </c>
+      <c r="E50" s="3">
+        <f t="shared" si="5"/>
+        <v>6.8281199999999998E-4</v>
+      </c>
+      <c r="F50" s="3">
+        <f t="shared" si="6"/>
+        <v>2.8036799999999999E-19</v>
+      </c>
+      <c r="G50" s="3">
+        <f t="shared" si="7"/>
+        <v>-2.3813100000000002E-3</v>
+      </c>
+      <c r="H50" s="3">
+        <f t="shared" si="8"/>
+        <v>-5.9478300000000003E-3</v>
+      </c>
+      <c r="I50" s="3">
+        <f t="shared" si="9"/>
+        <v>-8.7199199999999991E-3</v>
+      </c>
+      <c r="J50" s="3">
+        <f t="shared" si="10"/>
+        <v>-7.0520399999999999E-3</v>
+      </c>
+      <c r="K50" s="3">
+        <f t="shared" si="11"/>
+        <v>-3.4601400000000003E-18</v>
+      </c>
+      <c r="M50">
+        <v>2.0612999999999999E-3</v>
+      </c>
+      <c r="N50">
+        <v>2.7802E-2</v>
+      </c>
+      <c r="O50">
+        <v>-1.4507000000000001E-2</v>
+      </c>
+      <c r="P50">
+        <v>-7.5868000000000005E-2</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>-3.1152000000000002E-17</v>
+      </c>
+      <c r="R50">
+        <v>0.26458999999999999</v>
+      </c>
+      <c r="S50">
+        <v>0.66086999999999996</v>
+      </c>
+      <c r="T50">
+        <v>0.96887999999999996</v>
+      </c>
+      <c r="U50">
+        <v>0.78356000000000003</v>
+      </c>
+      <c r="V50" s="3">
+        <v>3.8445999999999999E-16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="B51" s="3">
+        <f t="shared" si="2"/>
+        <v>1.7356500000000001E-7</v>
+      </c>
+      <c r="C51" s="3">
+        <f t="shared" si="3"/>
+        <v>-4.0107600000000004E-7</v>
+      </c>
+      <c r="D51" s="3">
+        <f t="shared" si="4"/>
+        <v>-7.7569200000000003E-7</v>
+      </c>
+      <c r="E51" s="3">
+        <f t="shared" si="5"/>
+        <v>-7.497809999999999E-7</v>
+      </c>
+      <c r="F51" s="3">
+        <f t="shared" si="6"/>
+        <v>-3.5481600000000003E-22</v>
+      </c>
+      <c r="G51" s="3">
+        <f t="shared" si="7"/>
+        <v>2.4171300000000001E-6</v>
+      </c>
+      <c r="H51" s="3">
+        <f t="shared" si="8"/>
+        <v>6.0596999999999998E-6</v>
+      </c>
+      <c r="I51" s="3">
+        <f t="shared" si="9"/>
+        <v>7.7052600000000012E-6</v>
+      </c>
+      <c r="J51" s="3">
+        <f t="shared" si="10"/>
+        <v>5.8708799999999994E-6</v>
+      </c>
+      <c r="K51" s="3">
+        <f t="shared" si="11"/>
+        <v>3.0567599999999997E-21</v>
+      </c>
+      <c r="M51" s="3">
+        <v>-1.9284999999999999E-5</v>
+      </c>
+      <c r="N51" s="3">
+        <v>4.4564000000000002E-5</v>
+      </c>
+      <c r="O51" s="3">
+        <v>8.6187999999999995E-5</v>
+      </c>
+      <c r="P51" s="3">
+        <v>8.3308999999999998E-5</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>3.9423999999999997E-20</v>
+      </c>
+      <c r="R51">
+        <v>-2.6856999999999998E-4</v>
+      </c>
+      <c r="S51">
+        <v>-6.7330000000000005E-4</v>
+      </c>
+      <c r="T51">
+        <v>-8.5614000000000003E-4</v>
+      </c>
+      <c r="U51">
+        <v>-6.5231999999999996E-4</v>
+      </c>
+      <c r="V51" s="3">
+        <v>-3.3963999999999998E-19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="B52" s="3">
+        <f t="shared" si="2"/>
+        <v>-5.2967700000000002E-18</v>
+      </c>
+      <c r="C52" s="3">
+        <f t="shared" si="3"/>
+        <v>-1.9137599999999999E-17</v>
+      </c>
+      <c r="D52" s="3">
+        <f t="shared" si="4"/>
+        <v>-1.1908799999999999E-17</v>
+      </c>
+      <c r="E52" s="3">
+        <f t="shared" si="5"/>
+        <v>4.6047599999999994E-19</v>
+      </c>
+      <c r="F52" s="3">
+        <f t="shared" si="6"/>
+        <v>-5.8167899999999998E-34</v>
+      </c>
+      <c r="G52" s="3">
+        <f t="shared" si="7"/>
+        <v>1.06497E-17</v>
+      </c>
+      <c r="H52" s="3">
+        <f t="shared" si="8"/>
+        <v>1.3509900000000001E-17</v>
+      </c>
+      <c r="I52" s="3">
+        <f t="shared" si="9"/>
+        <v>-2.63691E-19</v>
+      </c>
+      <c r="J52" s="3">
+        <f t="shared" si="10"/>
+        <v>-7.2846900000000003E-20</v>
+      </c>
+      <c r="K52" s="3">
+        <f t="shared" si="11"/>
+        <v>3.49038E-33</v>
+      </c>
+      <c r="M52" s="3">
+        <v>5.8853000000000002E-16</v>
+      </c>
+      <c r="N52" s="3">
+        <v>2.1264E-15</v>
+      </c>
+      <c r="O52" s="3">
+        <v>1.3232000000000001E-15</v>
+      </c>
+      <c r="P52" s="3">
+        <v>-5.1164000000000003E-17</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>6.4630999999999998E-32</v>
+      </c>
+      <c r="R52" s="3">
+        <v>-1.1832999999999999E-15</v>
+      </c>
+      <c r="S52" s="3">
+        <v>-1.5011000000000001E-15</v>
+      </c>
+      <c r="T52" s="3">
+        <v>2.9298999999999998E-17</v>
+      </c>
+      <c r="U52" s="3">
+        <v>8.0941000000000007E-18</v>
+      </c>
+      <c r="V52" s="3">
+        <v>-3.8782000000000001E-31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="B53" s="3">
+        <f t="shared" si="2"/>
+        <v>-1.48329E-7</v>
+      </c>
+      <c r="C53" s="3">
+        <f t="shared" si="3"/>
+        <v>6.0511500000000003E-7</v>
+      </c>
+      <c r="D53" s="3">
+        <f t="shared" si="4"/>
+        <v>1.6676099999999999E-7</v>
+      </c>
+      <c r="E53" s="3">
+        <f t="shared" si="5"/>
+        <v>-7.1336700000000006E-7</v>
+      </c>
+      <c r="F53" s="3">
+        <f t="shared" si="6"/>
+        <v>-2.4158699999999997E-22</v>
+      </c>
+      <c r="G53" s="3">
+        <f t="shared" si="7"/>
+        <v>2.4238800000000001E-6</v>
+      </c>
+      <c r="H53" s="3">
+        <f t="shared" si="8"/>
+        <v>5.8668299999999999E-6</v>
+      </c>
+      <c r="I53" s="3">
+        <f t="shared" si="9"/>
+        <v>9.3384000000000002E-6</v>
+      </c>
+      <c r="J53" s="3">
+        <f t="shared" si="10"/>
+        <v>7.7282100000000007E-6</v>
+      </c>
+      <c r="K53" s="3">
+        <f t="shared" si="11"/>
+        <v>3.6764100000000003E-21</v>
+      </c>
+      <c r="M53" s="3">
+        <v>1.6481E-5</v>
+      </c>
+      <c r="N53" s="3">
+        <v>-6.7235000000000003E-5</v>
+      </c>
+      <c r="O53" s="3">
+        <v>-1.8529000000000002E-5</v>
+      </c>
+      <c r="P53" s="3">
+        <v>7.9263000000000003E-5</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>2.6842999999999999E-20</v>
+      </c>
+      <c r="R53">
+        <v>-2.6931999999999998E-4</v>
+      </c>
+      <c r="S53">
+        <v>-6.5187000000000003E-4</v>
+      </c>
+      <c r="T53">
+        <v>-1.0376000000000001E-3</v>
+      </c>
+      <c r="U53">
+        <v>-8.5868999999999995E-4</v>
+      </c>
+      <c r="V53" s="3">
+        <v>-4.0849E-19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="B54" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C54" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D54" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>44</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>10</v>
+      </c>
+      <c r="D55">
+        <v>20</v>
+      </c>
+      <c r="E55">
+        <v>30</v>
+      </c>
+      <c r="F55">
+        <v>40</v>
+      </c>
+      <c r="G55">
+        <v>50</v>
+      </c>
+      <c r="H55">
+        <v>60</v>
+      </c>
+      <c r="I55">
+        <v>70</v>
+      </c>
+      <c r="J55">
+        <v>80</v>
+      </c>
+      <c r="K55">
+        <v>90</v>
+      </c>
+      <c r="L55">
+        <v>100</v>
+      </c>
+      <c r="M55">
+        <v>110</v>
+      </c>
+      <c r="N55">
+        <v>120</v>
+      </c>
+      <c r="O55">
+        <v>130</v>
+      </c>
+      <c r="P55">
+        <v>140</v>
+      </c>
+      <c r="Q55">
+        <v>150</v>
+      </c>
+      <c r="R55">
+        <v>160</v>
+      </c>
+      <c r="S55">
+        <v>170</v>
+      </c>
+      <c r="T55">
+        <v>180</v>
+      </c>
+      <c r="U55">
+        <v>190</v>
+      </c>
+      <c r="V55">
+        <v>200</v>
+      </c>
+      <c r="W55">
+        <v>210</v>
+      </c>
+      <c r="X55">
+        <v>220</v>
+      </c>
+      <c r="Y55">
+        <v>230</v>
+      </c>
+      <c r="Z55">
+        <v>240</v>
+      </c>
+      <c r="AA55">
+        <v>250</v>
+      </c>
+      <c r="AB55">
+        <v>260</v>
+      </c>
+      <c r="AC55">
+        <v>270</v>
+      </c>
+      <c r="AD55">
+        <v>280</v>
+      </c>
+      <c r="AE55">
+        <v>290</v>
+      </c>
+      <c r="AF55">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="56" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56" s="3">
+        <v>-1.9464000000000001E-6</v>
+      </c>
+      <c r="D56" s="3">
+        <v>-1.6869E-8</v>
+      </c>
+      <c r="E56" s="3">
+        <v>-3.1864999999999999E-6</v>
+      </c>
+      <c r="F56" s="3">
+        <v>-9.9271000000000003E-8</v>
+      </c>
+      <c r="G56" s="3">
+        <v>1.0478999999999999E-21</v>
+      </c>
+      <c r="H56" s="3">
+        <v>2.762E-7</v>
+      </c>
+      <c r="I56" s="3">
+        <v>2.9598999999999998E-6</v>
+      </c>
+      <c r="J56" s="3">
+        <v>7.1055999999999998E-7</v>
+      </c>
+      <c r="K56" s="3">
+        <v>1.7446E-6</v>
+      </c>
+      <c r="L56" s="3">
+        <v>-6.4048999999999999E-22</v>
+      </c>
+      <c r="M56" s="3">
+        <v>-1.5719999999999999E-6</v>
+      </c>
+      <c r="N56" s="3">
+        <v>-1.2526000000000001E-6</v>
+      </c>
+      <c r="O56" s="3">
+        <v>-2.1428E-6</v>
+      </c>
+      <c r="P56" s="3">
+        <v>-9.4560999999999996E-7</v>
+      </c>
+      <c r="Q56" s="3">
+        <v>-6.8363999999999999E-22</v>
+      </c>
+      <c r="R56" s="3">
+        <v>1.0659E-6</v>
+      </c>
+      <c r="S56" s="3">
+        <v>1.3955E-6</v>
+      </c>
+      <c r="T56" s="3">
+        <v>1.9976000000000002E-6</v>
+      </c>
+      <c r="U56" s="3">
+        <v>6.0782000000000005E-7</v>
+      </c>
+      <c r="V56" s="3">
+        <v>-3.1623E-21</v>
+      </c>
+      <c r="W56" s="3">
+        <v>-4.1890000000000003E-7</v>
+      </c>
+      <c r="X56" s="3">
+        <v>-2.6029999999999999E-6</v>
+      </c>
+      <c r="Y56" s="3">
+        <v>-5.0999999999999999E-7</v>
+      </c>
+      <c r="Z56" s="3">
+        <v>-1.7853000000000001E-6</v>
+      </c>
+      <c r="AA56" s="3">
+        <v>4.2232000000000001E-22</v>
+      </c>
+      <c r="AB56" s="3">
+        <v>1.9885000000000001E-6</v>
+      </c>
+      <c r="AC56" s="3">
+        <v>2.1995999999999999E-7</v>
+      </c>
+      <c r="AD56" s="3">
+        <v>3.3967999999999998E-6</v>
+      </c>
+      <c r="AE56" s="3">
+        <v>1.3108000000000001E-7</v>
+      </c>
+      <c r="AF56" s="3">
+        <v>2.6583000000000001E-21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>2</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57" s="3">
+        <v>2.4827000000000002E-19</v>
+      </c>
+      <c r="D57" s="3">
+        <v>3.6036999999999998E-19</v>
+      </c>
+      <c r="E57" s="3">
+        <v>-5.9810000000000004E-20</v>
+      </c>
+      <c r="F57" s="3">
+        <v>4.1841999999999999E-19</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1.8782999999999999E-35</v>
+      </c>
+      <c r="H57" s="3">
+        <v>-2.2474000000000002E-19</v>
+      </c>
+      <c r="I57" s="3">
+        <v>-3.6412999999999999E-19</v>
+      </c>
+      <c r="J57" s="3">
+        <v>-2.6858E-21</v>
+      </c>
+      <c r="K57" s="3">
+        <v>-2.9768999999999998E-19</v>
+      </c>
+      <c r="L57" s="3">
+        <v>1.6066999999999999E-34</v>
+      </c>
+      <c r="M57" s="3">
+        <v>2.5282000000000001E-20</v>
+      </c>
+      <c r="N57" s="3">
+        <v>6.4395000000000005E-19</v>
+      </c>
+      <c r="O57" s="3">
+        <v>-7.2388000000000004E-20</v>
+      </c>
+      <c r="P57" s="3">
+        <v>2.0499000000000001E-19</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>1.7237000000000001E-34</v>
+      </c>
+      <c r="R57" s="3">
+        <v>5.1422999999999999E-20</v>
+      </c>
+      <c r="S57" s="3">
+        <v>-5.7332999999999996E-19</v>
+      </c>
+      <c r="T57" s="3">
+        <v>-1.5830999999999999E-19</v>
+      </c>
+      <c r="U57" s="3">
+        <v>-8.8512000000000005E-20</v>
+      </c>
+      <c r="V57" s="3">
+        <v>7.1077000000000001E-34</v>
+      </c>
+      <c r="W57" s="3">
+        <v>-9.9899000000000007E-21</v>
+      </c>
+      <c r="X57" s="3">
+        <v>3.2700000000000002E-19</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>4.7607999999999995E-19</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>-9.5107999999999998E-20</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>-8.5755999999999993E-34</v>
+      </c>
+      <c r="AB57" s="3">
+        <v>-2.6046000000000001E-20</v>
+      </c>
+      <c r="AC57" s="3">
+        <v>-1.7220000000000001E-19</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>-5.0372999999999996E-19</v>
+      </c>
+      <c r="AE57" s="3">
+        <v>-1.3658999999999999E-20</v>
+      </c>
+      <c r="AF57" s="3">
+        <v>-2.2758999999999999E-34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A58" s="8">
+        <v>3</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>-1.8548E-3</v>
+      </c>
+      <c r="D58" s="3">
+        <v>-3.8983999999999998E-5</v>
+      </c>
+      <c r="E58">
+        <v>-2.9865E-3</v>
+      </c>
+      <c r="F58">
+        <v>-1.0833E-4</v>
+      </c>
+      <c r="G58" s="3">
+        <v>9.8622000000000006E-19</v>
+      </c>
+      <c r="H58">
+        <v>2.4553999999999998E-4</v>
+      </c>
+      <c r="I58">
+        <v>2.7899999999999999E-3</v>
+      </c>
+      <c r="J58">
+        <v>6.4201999999999998E-4</v>
+      </c>
+      <c r="K58">
+        <v>1.6153000000000001E-3</v>
+      </c>
+      <c r="L58" s="3">
+        <v>-6.0430000000000003E-19</v>
+      </c>
+      <c r="M58">
+        <v>-1.4541000000000001E-3</v>
+      </c>
+      <c r="N58">
+        <v>-1.1620999999999999E-3</v>
+      </c>
+      <c r="O58">
+        <v>-2.0143000000000001E-3</v>
+      </c>
+      <c r="P58">
+        <v>-8.7593999999999997E-4</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>-6.4002000000000002E-19</v>
+      </c>
+      <c r="R58">
+        <v>1.023E-3</v>
+      </c>
+      <c r="S58">
+        <v>1.2978E-3</v>
+      </c>
+      <c r="T58">
+        <v>1.918E-3</v>
+      </c>
+      <c r="U58">
+        <v>5.8646000000000002E-4</v>
+      </c>
+      <c r="V58" s="3">
+        <v>-2.9799999999999999E-18</v>
+      </c>
+      <c r="W58">
+        <v>-4.1287000000000002E-4</v>
+      </c>
+      <c r="X58">
+        <v>-2.4784E-3</v>
+      </c>
+      <c r="Y58">
+        <v>-4.7008E-4</v>
+      </c>
+      <c r="Z58">
+        <v>-1.6982E-3</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>3.9015E-19</v>
+      </c>
+      <c r="AB58">
+        <v>1.8518E-3</v>
+      </c>
+      <c r="AC58">
+        <v>2.1828E-4</v>
+      </c>
+      <c r="AD58">
+        <v>3.1622999999999998E-3</v>
+      </c>
+      <c r="AE58">
+        <v>1.0881E-4</v>
+      </c>
+      <c r="AF58" s="3">
+        <v>2.4915000000000002E-18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>4</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59" s="3">
+        <v>-1.6659E-6</v>
+      </c>
+      <c r="D59" s="3">
+        <v>-6.8387000000000002E-8</v>
+      </c>
+      <c r="E59" s="3">
+        <v>-2.6118999999999999E-6</v>
+      </c>
+      <c r="F59" s="3">
+        <v>-1.1498E-7</v>
+      </c>
+      <c r="G59" s="3">
+        <v>8.6262000000000009E-22</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1.8799E-7</v>
+      </c>
+      <c r="I59" s="3">
+        <v>2.4416000000000001E-6</v>
+      </c>
+      <c r="J59" s="3">
+        <v>5.1473E-7</v>
+      </c>
+      <c r="K59" s="3">
+        <v>1.3680000000000001E-6</v>
+      </c>
+      <c r="L59" s="3">
+        <v>-5.2641999999999997E-22</v>
+      </c>
+      <c r="M59" s="3">
+        <v>-1.2220999999999999E-6</v>
+      </c>
+      <c r="N59" s="3">
+        <v>-9.8601000000000003E-7</v>
+      </c>
+      <c r="O59" s="3">
+        <v>-1.7455000000000001E-6</v>
+      </c>
+      <c r="P59" s="3">
+        <v>-7.5089000000000002E-7</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>-5.5131000000000002E-22</v>
+      </c>
+      <c r="R59" s="3">
+        <v>9.3172999999999999E-7</v>
+      </c>
+      <c r="S59" s="3">
+        <v>1.1051E-6</v>
+      </c>
+      <c r="T59" s="3">
+        <v>1.7467999999999999E-6</v>
+      </c>
+      <c r="U59" s="3">
+        <v>5.3608000000000002E-7</v>
+      </c>
+      <c r="V59" s="3">
+        <v>-2.6432999999999999E-21</v>
+      </c>
+      <c r="W59" s="3">
+        <v>-3.9024999999999999E-7</v>
+      </c>
+      <c r="X59" s="3">
+        <v>-2.2199999999999999E-6</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>-3.9737000000000002E-7</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>-1.5122999999999999E-6</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>3.3283000000000001E-22</v>
+      </c>
+      <c r="AB59" s="3">
+        <v>1.5904000000000001E-6</v>
+      </c>
+      <c r="AC59" s="3">
+        <v>2.0520000000000001E-7</v>
+      </c>
+      <c r="AD59" s="3">
+        <v>2.6952E-6</v>
+      </c>
+      <c r="AE59" s="3">
+        <v>7.0779000000000001E-8</v>
+      </c>
+      <c r="AF59" s="3">
+        <v>2.1481000000000002E-21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>5</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60" s="3">
+        <v>4.8262E-19</v>
+      </c>
+      <c r="D60" s="3">
+        <v>6.7788000000000001E-19</v>
+      </c>
+      <c r="E60" s="3">
+        <v>-1.7374999999999999E-19</v>
+      </c>
+      <c r="F60" s="3">
+        <v>8.0925000000000005E-19</v>
+      </c>
+      <c r="G60" s="3">
+        <v>5.4284999999999998E-35</v>
+      </c>
+      <c r="H60" s="3">
+        <v>-4.2624000000000001E-19</v>
+      </c>
+      <c r="I60" s="3">
+        <v>-7.5234999999999999E-19</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1.8839000000000001E-20</v>
+      </c>
+      <c r="K60" s="3">
+        <v>-5.5395000000000005E-19</v>
+      </c>
+      <c r="L60" s="3">
+        <v>3.1725999999999999E-34</v>
+      </c>
+      <c r="M60" s="3">
+        <v>-2.7879E-21</v>
+      </c>
+      <c r="N60" s="3">
+        <v>1.2182E-18</v>
+      </c>
+      <c r="O60" s="3">
+        <v>-1.1198E-19</v>
+      </c>
+      <c r="P60" s="3">
+        <v>3.8768999999999999E-19</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>3.4183000000000001E-34</v>
+      </c>
+      <c r="R60" s="3">
+        <v>1.1167999999999999E-19</v>
+      </c>
+      <c r="S60" s="3">
+        <v>-1.0448E-18</v>
+      </c>
+      <c r="T60" s="3">
+        <v>-2.8560999999999998E-19</v>
+      </c>
+      <c r="U60" s="3">
+        <v>-1.3761E-19</v>
+      </c>
+      <c r="V60" s="3">
+        <v>1.3839E-33</v>
+      </c>
+      <c r="W60" s="3">
+        <v>2.2531E-20</v>
+      </c>
+      <c r="X60" s="3">
+        <v>5.7800999999999996E-19</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>9.1930999999999993E-19</v>
+      </c>
+      <c r="Z60" s="3">
+        <v>-2.0209999999999999E-19</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>-1.5259E-33</v>
+      </c>
+      <c r="AB60" s="3">
+        <v>-5.9004000000000006E-20</v>
+      </c>
+      <c r="AC60" s="3">
+        <v>-3.7191E-19</v>
+      </c>
+      <c r="AD60" s="3">
+        <v>-9.5001000000000008E-19</v>
+      </c>
+      <c r="AE60" s="3">
+        <v>-5.6210999999999998E-20</v>
+      </c>
+      <c r="AF60" s="3">
+        <v>-3.8944000000000003E-34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A61" s="8">
+        <v>6</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>-3.0825000000000002E-3</v>
+      </c>
+      <c r="D61" s="3">
+        <v>-8.1460999999999998E-5</v>
+      </c>
+      <c r="E61">
+        <v>-4.8846999999999996E-3</v>
+      </c>
+      <c r="F61">
+        <v>-1.6991E-4</v>
+      </c>
+      <c r="G61" s="3">
+        <v>1.5979E-18</v>
+      </c>
+      <c r="H61">
+        <v>3.3688000000000001E-4</v>
+      </c>
+      <c r="I61">
+        <v>4.4745000000000002E-3</v>
+      </c>
+      <c r="J61">
+        <v>9.2082000000000004E-4</v>
+      </c>
+      <c r="K61">
+        <v>2.5339E-3</v>
+      </c>
+      <c r="L61" s="3">
+        <v>-9.198299999999999E-19</v>
+      </c>
+      <c r="M61">
+        <v>-2.2609000000000001E-3</v>
+      </c>
+      <c r="N61">
+        <v>-1.7968000000000001E-3</v>
+      </c>
+      <c r="O61">
+        <v>-3.1722E-3</v>
+      </c>
+      <c r="P61">
+        <v>-1.3952000000000001E-3</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>-1.0118000000000001E-18</v>
+      </c>
+      <c r="R61">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="S61">
+        <v>2.0619000000000002E-3</v>
+      </c>
+      <c r="T61">
+        <v>3.2173000000000002E-3</v>
+      </c>
+      <c r="U61">
+        <v>9.7108000000000003E-4</v>
+      </c>
+      <c r="V61" s="3">
+        <v>-4.9496000000000002E-18</v>
+      </c>
+      <c r="W61">
+        <v>-6.9618999999999996E-4</v>
+      </c>
+      <c r="X61">
+        <v>-4.1057000000000003E-3</v>
+      </c>
+      <c r="Y61">
+        <v>-7.4014999999999997E-4</v>
+      </c>
+      <c r="Z61">
+        <v>-2.7791999999999999E-3</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>5.7935999999999995E-19</v>
+      </c>
+      <c r="AB61">
+        <v>2.9564000000000001E-3</v>
+      </c>
+      <c r="AC61">
+        <v>2.9847000000000001E-4</v>
+      </c>
+      <c r="AD61">
+        <v>4.9928000000000004E-3</v>
+      </c>
+      <c r="AE61">
+        <v>1.0787E-4</v>
+      </c>
+      <c r="AF61" s="3">
+        <v>3.9386999999999997E-18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>7</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62" s="3">
+        <v>-6.5252000000000002E-7</v>
+      </c>
+      <c r="D62" s="3">
+        <v>2.2390000000000001E-8</v>
+      </c>
+      <c r="E62" s="3">
+        <v>-1.0041000000000001E-6</v>
+      </c>
+      <c r="F62" s="3">
+        <v>2.6076999999999999E-8</v>
+      </c>
+      <c r="G62" s="3">
+        <v>3.0073E-22</v>
+      </c>
+      <c r="H62" s="3">
+        <v>-1.6776999999999999E-8</v>
+      </c>
+      <c r="I62" s="3">
+        <v>7.4519000000000002E-7</v>
+      </c>
+      <c r="J62" s="3">
+        <v>-6.1639000000000002E-9</v>
+      </c>
+      <c r="K62" s="3">
+        <v>3.9117999999999999E-7</v>
+      </c>
+      <c r="L62" s="3">
+        <v>-3.7844000000000002E-23</v>
+      </c>
+      <c r="M62" s="3">
+        <v>-3.3232E-7</v>
+      </c>
+      <c r="N62" s="3">
+        <v>-1.9702E-7</v>
+      </c>
+      <c r="O62" s="3">
+        <v>-4.4815E-7</v>
+      </c>
+      <c r="P62" s="3">
+        <v>-2.2350000000000001E-7</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>-1.5744E-22</v>
+      </c>
+      <c r="R62" s="3">
+        <v>3.2193999999999998E-7</v>
+      </c>
+      <c r="S62" s="3">
+        <v>3.7467000000000001E-7</v>
+      </c>
+      <c r="T62" s="3">
+        <v>6.8224000000000005E-7</v>
+      </c>
+      <c r="U62" s="3">
+        <v>1.8194E-7</v>
+      </c>
+      <c r="V62" s="3">
+        <v>-1.0885000000000001E-21</v>
+      </c>
+      <c r="W62" s="3">
+        <v>-1.2704E-7</v>
+      </c>
+      <c r="X62" s="3">
+        <v>-8.5570000000000002E-7</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>-1.1309E-7</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>-5.3117000000000001E-7</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>-1.531E-23</v>
+      </c>
+      <c r="AB62" s="3">
+        <v>5.2651999999999998E-7</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>-1.1867E-7</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>8.2770999999999999E-7</v>
+      </c>
+      <c r="AE62" s="3">
+        <v>-9.5412999999999995E-8</v>
+      </c>
+      <c r="AF62" s="3">
+        <v>6.1580999999999997E-22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>8</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63" s="3">
+        <v>6.3070000000000004E-19</v>
+      </c>
+      <c r="D63" s="3">
+        <v>9.1352000000000005E-19</v>
+      </c>
+      <c r="E63" s="3">
+        <v>-2.8930000000000002E-19</v>
+      </c>
+      <c r="F63" s="3">
+        <v>1.1345999999999999E-18</v>
+      </c>
+      <c r="G63" s="3">
+        <v>1.0085E-34</v>
+      </c>
+      <c r="H63" s="3">
+        <v>-5.8229000000000004E-19</v>
+      </c>
+      <c r="I63" s="3">
+        <v>-1.0195E-18</v>
+      </c>
+      <c r="J63" s="3">
+        <v>8.3570000000000003E-20</v>
+      </c>
+      <c r="K63" s="3">
+        <v>-7.2426999999999998E-19</v>
+      </c>
+      <c r="L63" s="3">
+        <v>4.5860000000000003E-34</v>
+      </c>
+      <c r="M63" s="3">
+        <v>-3.3092000000000003E-20</v>
+      </c>
+      <c r="N63" s="3">
+        <v>1.6629E-18</v>
+      </c>
+      <c r="O63" s="3">
+        <v>-1.6607000000000001E-19</v>
+      </c>
+      <c r="P63" s="3">
+        <v>5.0259E-19</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>4.4850000000000003E-34</v>
+      </c>
+      <c r="R63" s="3">
+        <v>1.7835E-19</v>
+      </c>
+      <c r="S63" s="3">
+        <v>-1.4425999999999999E-18</v>
+      </c>
+      <c r="T63" s="3">
+        <v>-3.8846000000000002E-19</v>
+      </c>
+      <c r="U63" s="3">
+        <v>-1.7121000000000001E-19</v>
+      </c>
+      <c r="V63" s="3">
+        <v>1.8657999999999999E-33</v>
+      </c>
+      <c r="W63" s="3">
+        <v>1.3722E-20</v>
+      </c>
+      <c r="X63" s="3">
+        <v>6.8069000000000003E-19</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>1.2848000000000001E-18</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>-2.7779999999999998E-19</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>-2.0817999999999999E-33</v>
+      </c>
+      <c r="AB63" s="3">
+        <v>-6.4600000000000002E-20</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>-5.0603000000000003E-19</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>-1.1871999999999999E-18</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>-6.8695000000000003E-20</v>
+      </c>
+      <c r="AF63" s="3">
+        <v>-5.1320999999999996E-34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A64" s="8">
+        <v>9</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>-3.0508000000000002E-3</v>
+      </c>
+      <c r="D64" s="3">
+        <v>-2.5108000000000001E-5</v>
+      </c>
+      <c r="E64">
+        <v>-4.8291999999999996E-3</v>
+      </c>
+      <c r="F64" s="3">
+        <v>-8.9404E-5</v>
+      </c>
+      <c r="G64" s="3">
+        <v>1.5475E-18</v>
+      </c>
+      <c r="H64">
+        <v>2.353E-4</v>
+      </c>
+      <c r="I64">
+        <v>4.2307999999999998E-3</v>
+      </c>
+      <c r="J64">
+        <v>6.8426000000000001E-4</v>
+      </c>
+      <c r="K64">
+        <v>2.3806999999999999E-3</v>
+      </c>
+      <c r="L64" s="3">
+        <v>-7.2087999999999999E-19</v>
+      </c>
+      <c r="M64">
+        <v>-2.1098000000000002E-3</v>
+      </c>
+      <c r="N64">
+        <v>-1.5567999999999999E-3</v>
+      </c>
+      <c r="O64">
+        <v>-2.9329E-3</v>
+      </c>
+      <c r="P64">
+        <v>-1.2933E-3</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>-9.5516999999999994E-19</v>
+      </c>
+      <c r="R64">
+        <v>1.6188000000000001E-3</v>
+      </c>
+      <c r="S64">
+        <v>2.0125999999999998E-3</v>
+      </c>
+      <c r="T64">
+        <v>3.1546999999999999E-3</v>
+      </c>
+      <c r="U64">
+        <v>9.4381E-4</v>
+      </c>
+      <c r="V64" s="3">
+        <v>-4.9437000000000001E-18</v>
+      </c>
+      <c r="W64">
+        <v>-6.6520999999999995E-4</v>
+      </c>
+      <c r="X64">
+        <v>-4.0480999999999998E-3</v>
+      </c>
+      <c r="Y64">
+        <v>-6.8508000000000002E-4</v>
+      </c>
+      <c r="Z64">
+        <v>-2.6959000000000002E-3</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>3.9973000000000002E-19</v>
+      </c>
+      <c r="AB64">
+        <v>2.8530000000000001E-3</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>5.2126000000000002E-5</v>
+      </c>
+      <c r="AD64">
+        <v>4.7597000000000004E-3</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>-4.8504999999999997E-5</v>
+      </c>
+      <c r="AF64" s="3">
+        <v>3.7139999999999997E-18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>10</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65" s="3">
+        <v>6.7217000000000002E-7</v>
+      </c>
+      <c r="D65" s="3">
+        <v>4.0760999999999997E-8</v>
+      </c>
+      <c r="E65" s="3">
+        <v>1.0828E-6</v>
+      </c>
+      <c r="F65" s="3">
+        <v>8.4105999999999999E-8</v>
+      </c>
+      <c r="G65" s="3">
+        <v>-3.7448000000000001E-22</v>
+      </c>
+      <c r="H65" s="3">
+        <v>-1.5209999999999999E-7</v>
+      </c>
+      <c r="I65" s="3">
+        <v>-1.1093999999999999E-6</v>
+      </c>
+      <c r="J65" s="3">
+        <v>-3.7575000000000001E-7</v>
+      </c>
+      <c r="K65" s="3">
+        <v>-6.4427000000000004E-7</v>
+      </c>
+      <c r="L65" s="3">
+        <v>3.4188999999999999E-22</v>
+      </c>
+      <c r="M65" s="3">
+        <v>5.8416000000000001E-7</v>
+      </c>
+      <c r="N65" s="3">
+        <v>5.7731999999999998E-7</v>
+      </c>
+      <c r="O65" s="3">
+        <v>8.1488E-7</v>
+      </c>
+      <c r="P65" s="3">
+        <v>3.8593999999999997E-7</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>2.4431999999999998E-22</v>
+      </c>
+      <c r="R65" s="3">
+        <v>-4.2593E-7</v>
+      </c>
+      <c r="S65" s="3">
+        <v>-4.5788999999999998E-7</v>
+      </c>
+      <c r="T65" s="3">
+        <v>-7.3758000000000002E-7</v>
+      </c>
+      <c r="U65" s="3">
+        <v>-2.057E-7</v>
+      </c>
+      <c r="V65" s="3">
+        <v>1.0778999999999999E-21</v>
+      </c>
+      <c r="W65" s="3">
+        <v>1.518E-7</v>
+      </c>
+      <c r="X65" s="3">
+        <v>9.1350000000000002E-7</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>1.9917E-7</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>6.4079000000000001E-7</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>-2.5468E-22</v>
+      </c>
+      <c r="AB65" s="3">
+        <v>-6.9805999999999999E-7</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>-2.4517999999999998E-7</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>-1.2122E-6</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>-1.5717E-7</v>
+      </c>
+      <c r="AF65" s="3">
+        <v>-9.6663999999999994E-22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>11</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66" s="3">
+        <v>7.5949999999999998E-19</v>
+      </c>
+      <c r="D66" s="3">
+        <v>1.0392999999999999E-18</v>
+      </c>
+      <c r="E66" s="3">
+        <v>-2.0999999999999999E-19</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1.3251E-18</v>
+      </c>
+      <c r="G66" s="3">
+        <v>1.0414999999999999E-34</v>
+      </c>
+      <c r="H66" s="3">
+        <v>-6.7333E-19</v>
+      </c>
+      <c r="I66" s="3">
+        <v>-1.2327E-18</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1.0063E-19</v>
+      </c>
+      <c r="K66" s="3">
+        <v>-8.9018999999999996E-19</v>
+      </c>
+      <c r="L66" s="3">
+        <v>5.6063000000000002E-34</v>
+      </c>
+      <c r="M66" s="3">
+        <v>3.3743999999999999E-21</v>
+      </c>
+      <c r="N66" s="3">
+        <v>1.9130999999999999E-18</v>
+      </c>
+      <c r="O66" s="3">
+        <v>-1.7334E-19</v>
+      </c>
+      <c r="P66" s="3">
+        <v>6.1803E-19</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>5.2495000000000001E-34</v>
+      </c>
+      <c r="R66" s="3">
+        <v>1.7252999999999999E-19</v>
+      </c>
+      <c r="S66" s="3">
+        <v>-1.7575000000000001E-18</v>
+      </c>
+      <c r="T66" s="3">
+        <v>-4.4078999999999997E-19</v>
+      </c>
+      <c r="U66" s="3">
+        <v>-1.9376000000000001E-19</v>
+      </c>
+      <c r="V66" s="3">
+        <v>2.2650999999999999E-33</v>
+      </c>
+      <c r="W66" s="3">
+        <v>5.8744999999999998E-21</v>
+      </c>
+      <c r="X66" s="3">
+        <v>8.7413000000000002E-19</v>
+      </c>
+      <c r="Y66" s="3">
+        <v>1.5214E-18</v>
+      </c>
+      <c r="Z66" s="3">
+        <v>-2.8999000000000002E-19</v>
+      </c>
+      <c r="AA66" s="3">
+        <v>-2.4072E-33</v>
+      </c>
+      <c r="AB66" s="3">
+        <v>-9.1827000000000002E-20</v>
+      </c>
+      <c r="AC66" s="3">
+        <v>-6.0542999999999996E-19</v>
+      </c>
+      <c r="AD66" s="3">
+        <v>-1.4835999999999999E-18</v>
+      </c>
+      <c r="AE66" s="3">
+        <v>-5.7402999999999996E-20</v>
+      </c>
+      <c r="AF66" s="3">
+        <v>-6.8893000000000004E-34</v>
+      </c>
+    </row>
+    <row r="67" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A67" s="8">
+        <v>12</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>-1.8661000000000001E-3</v>
+      </c>
+      <c r="D67" s="3">
+        <v>-2.2007000000000001E-5</v>
+      </c>
+      <c r="E67">
+        <v>-2.9096999999999999E-3</v>
+      </c>
+      <c r="F67" s="3">
+        <v>-4.3010999999999999E-5</v>
+      </c>
+      <c r="G67" s="3">
+        <v>9.2621999999999999E-19</v>
+      </c>
+      <c r="H67" s="3">
+        <v>9.0610000000000002E-5</v>
+      </c>
+      <c r="I67">
+        <v>2.5135000000000001E-3</v>
+      </c>
+      <c r="J67">
+        <v>3.0162E-4</v>
+      </c>
+      <c r="K67">
+        <v>1.3860000000000001E-3</v>
+      </c>
+      <c r="L67" s="3">
+        <v>-3.6423E-19</v>
+      </c>
+      <c r="M67">
+        <v>-1.224E-3</v>
+      </c>
+      <c r="N67">
+        <v>-8.2569999999999996E-4</v>
+      </c>
+      <c r="O67">
+        <v>-1.7376E-3</v>
+      </c>
+      <c r="P67">
+        <v>-7.2283999999999998E-4</v>
+      </c>
+      <c r="Q67" s="3">
+        <v>-5.7210000000000002E-19</v>
+      </c>
+      <c r="R67">
+        <v>9.5998999999999998E-4</v>
+      </c>
+      <c r="S67">
+        <v>1.2195000000000001E-3</v>
+      </c>
+      <c r="T67">
+        <v>1.9066E-3</v>
+      </c>
+      <c r="U67">
+        <v>5.9566999999999997E-4</v>
+      </c>
+      <c r="V67" s="3">
+        <v>-2.9835E-18</v>
+      </c>
+      <c r="W67">
+        <v>-4.2302000000000003E-4</v>
+      </c>
+      <c r="X67">
+        <v>-2.4605999999999999E-3</v>
+      </c>
+      <c r="Y67">
+        <v>-3.9063999999999999E-4</v>
+      </c>
+      <c r="Z67">
+        <v>-1.6326999999999999E-3</v>
+      </c>
+      <c r="AA67" s="3">
+        <v>1.6766999999999999E-19</v>
+      </c>
+      <c r="AB67">
+        <v>1.6964E-3</v>
+      </c>
+      <c r="AC67" s="3">
+        <v>-5.9120000000000003E-5</v>
+      </c>
+      <c r="AD67">
+        <v>2.8180000000000002E-3</v>
+      </c>
+      <c r="AE67">
+        <v>-1.1899E-4</v>
+      </c>
+      <c r="AF67" s="3">
+        <v>2.2154999999999999E-18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>13</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68" s="3">
+        <v>1.6257E-6</v>
+      </c>
+      <c r="D68" s="3">
+        <v>-1.3955999999999999E-8</v>
+      </c>
+      <c r="E68" s="3">
+        <v>2.5973999999999999E-6</v>
+      </c>
+      <c r="F68" s="3">
+        <v>2.3558000000000002E-8</v>
+      </c>
+      <c r="G68" s="3">
+        <v>-8.2467000000000004E-22</v>
+      </c>
+      <c r="H68" s="3">
+        <v>-1.2132E-7</v>
+      </c>
+      <c r="I68" s="3">
+        <v>-2.2251000000000001E-6</v>
+      </c>
+      <c r="J68" s="3">
+        <v>-3.4911999999999999E-7</v>
+      </c>
+      <c r="K68" s="3">
+        <v>-1.2635000000000001E-6</v>
+      </c>
+      <c r="L68" s="3">
+        <v>3.5808999999999998E-22</v>
+      </c>
+      <c r="M68" s="3">
+        <v>1.1182999999999999E-6</v>
+      </c>
+      <c r="N68" s="3">
+        <v>8.2332000000000004E-7</v>
+      </c>
+      <c r="O68" s="3">
+        <v>1.5196E-6</v>
+      </c>
+      <c r="P68" s="3">
+        <v>6.9630999999999997E-7</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>4.9926000000000002E-22</v>
+      </c>
+      <c r="R68" s="3">
+        <v>-8.5486999999999998E-7</v>
+      </c>
+      <c r="S68" s="3">
+        <v>-1.0724000000000001E-6</v>
+      </c>
+      <c r="T68" s="3">
+        <v>-1.6810000000000001E-6</v>
+      </c>
+      <c r="U68" s="3">
+        <v>-4.8584999999999997E-7</v>
+      </c>
+      <c r="V68" s="3">
+        <v>2.6696000000000001E-21</v>
+      </c>
+      <c r="W68" s="3">
+        <v>3.3649000000000002E-7</v>
+      </c>
+      <c r="X68" s="3">
+        <v>2.1571999999999999E-6</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>3.6809000000000001E-7</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>1.4238E-6</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>-1.9585000000000001E-22</v>
+      </c>
+      <c r="AB68" s="3">
+        <v>-1.5206999999999999E-6</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>8.6945999999999993E-9</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>-2.5260999999999998E-6</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>2.9872999999999999E-8</v>
+      </c>
+      <c r="AF68" s="3">
+        <v>-1.9450000000000001E-21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>14</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69" s="3">
+        <v>7.6503999999999999E-19</v>
+      </c>
+      <c r="D69" s="3">
+        <v>9.8855000000000003E-19</v>
+      </c>
+      <c r="E69" s="3">
+        <v>-3.0569000000000001E-19</v>
+      </c>
+      <c r="F69" s="3">
+        <v>1.3136000000000001E-18</v>
+      </c>
+      <c r="G69" s="3">
+        <v>1.3111E-34</v>
+      </c>
+      <c r="H69" s="3">
+        <v>-6.9318000000000004E-19</v>
+      </c>
+      <c r="I69" s="3">
+        <v>-1.2607E-18</v>
+      </c>
+      <c r="J69" s="3">
+        <v>1.6092000000000001E-19</v>
+      </c>
+      <c r="K69" s="3">
+        <v>-8.7376999999999994E-19</v>
+      </c>
+      <c r="L69" s="3">
+        <v>5.0720000000000003E-34</v>
+      </c>
+      <c r="M69" s="3">
+        <v>-3.8417999999999998E-20</v>
+      </c>
+      <c r="N69" s="3">
+        <v>1.9389000000000001E-18</v>
+      </c>
+      <c r="O69" s="3">
+        <v>-2.0842E-19</v>
+      </c>
+      <c r="P69" s="3">
+        <v>6.3752000000000004E-19</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>5.1106E-34</v>
+      </c>
+      <c r="R69" s="3">
+        <v>2.4245000000000001E-19</v>
+      </c>
+      <c r="S69" s="3">
+        <v>-1.7642999999999999E-18</v>
+      </c>
+      <c r="T69" s="3">
+        <v>-3.6397999999999999E-19</v>
+      </c>
+      <c r="U69" s="3">
+        <v>-1.8107E-19</v>
+      </c>
+      <c r="V69" s="3">
+        <v>2.3470999999999998E-33</v>
+      </c>
+      <c r="W69" s="3">
+        <v>-4.3628000000000002E-20</v>
+      </c>
+      <c r="X69" s="3">
+        <v>8.4553999999999997E-19</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>1.491E-18</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>-3.5726999999999998E-19</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>-2.4615999999999999E-33</v>
+      </c>
+      <c r="AB69" s="3">
+        <v>-6.0718000000000005E-20</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>-5.918E-19</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>-1.5032E-18</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>1.3372000000000001E-20</v>
+      </c>
+      <c r="AF69" s="3">
+        <v>-6.7966999999999998E-34</v>
+      </c>
+    </row>
+    <row r="70" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>15</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70" s="3">
+        <v>1.9873999999999998E-6</v>
+      </c>
+      <c r="D70" s="3">
+        <v>5.5251999999999997E-8</v>
+      </c>
+      <c r="E70" s="3">
+        <v>3.0581999999999998E-6</v>
+      </c>
+      <c r="F70" s="3">
+        <v>6.1739999999999996E-8</v>
+      </c>
+      <c r="G70" s="3">
+        <v>-9.7628000000000006E-22</v>
+      </c>
+      <c r="H70" s="3">
+        <v>-7.1780999999999999E-8</v>
+      </c>
+      <c r="I70" s="3">
+        <v>-2.6643000000000001E-6</v>
+      </c>
+      <c r="J70" s="3">
+        <v>-2.7796999999999999E-7</v>
+      </c>
+      <c r="K70" s="3">
+        <v>-1.4473999999999999E-6</v>
+      </c>
+      <c r="L70" s="3">
+        <v>3.6908E-22</v>
+      </c>
+      <c r="M70" s="3">
+        <v>1.2757999999999999E-6</v>
+      </c>
+      <c r="N70" s="3">
+        <v>8.1739000000000004E-7</v>
+      </c>
+      <c r="O70" s="3">
+        <v>1.8612000000000001E-6</v>
+      </c>
+      <c r="P70" s="3">
+        <v>7.2989000000000003E-7</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>6.1397999999999998E-22</v>
+      </c>
+      <c r="R70" s="3">
+        <v>-1.0116E-6</v>
+      </c>
+      <c r="S70" s="3">
+        <v>-1.2945000000000001E-6</v>
+      </c>
+      <c r="T70" s="3">
+        <v>-2.0184E-6</v>
+      </c>
+      <c r="U70" s="3">
+        <v>-6.6077000000000001E-7</v>
+      </c>
+      <c r="V70" s="3">
+        <v>3.1307999999999999E-21</v>
+      </c>
+      <c r="W70" s="3">
+        <v>4.7690000000000004E-7</v>
+      </c>
+      <c r="X70" s="3">
+        <v>2.6129E-6</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>3.9639999999999998E-7</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>1.7430000000000001E-6</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>-1.5630999999999999E-22</v>
+      </c>
+      <c r="AB70" s="3">
+        <v>-1.7846E-6</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>7.9961999999999998E-8</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>-2.9658999999999998E-6</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>1.7279E-7</v>
+      </c>
+      <c r="AF70" s="3">
+        <v>-2.3628999999999998E-21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="B72">
+        <v>10</v>
+      </c>
+      <c r="C72">
+        <v>20</v>
+      </c>
+      <c r="D72">
+        <v>30</v>
+      </c>
+      <c r="E72">
+        <v>40</v>
+      </c>
+      <c r="F72">
+        <v>50</v>
+      </c>
+      <c r="G72">
+        <v>60</v>
+      </c>
+      <c r="H72">
+        <v>70</v>
+      </c>
+      <c r="I72">
+        <v>80</v>
+      </c>
+      <c r="J72">
+        <v>90</v>
+      </c>
+      <c r="K72">
+        <v>100</v>
+      </c>
+      <c r="L72">
+        <v>110</v>
+      </c>
+      <c r="M72">
+        <v>120</v>
+      </c>
+      <c r="N72">
+        <v>130</v>
+      </c>
+      <c r="O72">
+        <v>140</v>
+      </c>
+      <c r="P72">
+        <v>150</v>
+      </c>
+      <c r="Q72">
+        <v>160</v>
+      </c>
+      <c r="R72">
+        <v>170</v>
+      </c>
+      <c r="S72">
+        <v>180</v>
+      </c>
+      <c r="T72">
+        <v>190</v>
+      </c>
+      <c r="U72">
+        <v>200</v>
+      </c>
+      <c r="V72">
+        <v>210</v>
+      </c>
+      <c r="W72">
+        <v>220</v>
+      </c>
+      <c r="X72">
+        <v>230</v>
+      </c>
+      <c r="Y72">
+        <v>240</v>
+      </c>
+      <c r="Z72">
+        <v>250</v>
+      </c>
+      <c r="AA72">
+        <v>260</v>
+      </c>
+      <c r="AB72">
+        <v>270</v>
+      </c>
+      <c r="AC72">
+        <v>280</v>
+      </c>
+      <c r="AD72">
+        <v>290</v>
+      </c>
+      <c r="AE72">
+        <v>300</v>
+      </c>
+      <c r="AF72">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="73" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>0</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>0</v>
+      </c>
+      <c r="AB73">
+        <v>0</v>
+      </c>
+      <c r="AC73">
+        <v>0</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
+      </c>
+      <c r="AF73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>2</v>
+      </c>
+      <c r="B74">
+        <f>C58</f>
+        <v>-1.8548E-3</v>
+      </c>
+      <c r="C74">
+        <f>D58</f>
+        <v>-3.8983999999999998E-5</v>
+      </c>
+      <c r="D74">
+        <f t="shared" ref="D74" si="12">E58</f>
+        <v>-2.9865E-3</v>
+      </c>
+      <c r="E74">
+        <f t="shared" ref="E74:AF74" si="13">F58</f>
+        <v>-1.0833E-4</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="13"/>
+        <v>9.8622000000000006E-19</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="13"/>
+        <v>2.4553999999999998E-4</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="13"/>
+        <v>2.7899999999999999E-3</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="13"/>
+        <v>6.4201999999999998E-4</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="13"/>
+        <v>1.6153000000000001E-3</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="13"/>
+        <v>-6.0430000000000003E-19</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="13"/>
+        <v>-1.4541000000000001E-3</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="13"/>
+        <v>-1.1620999999999999E-3</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="13"/>
+        <v>-2.0143000000000001E-3</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="13"/>
+        <v>-8.7593999999999997E-4</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="13"/>
+        <v>-6.4002000000000002E-19</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="13"/>
+        <v>1.023E-3</v>
+      </c>
+      <c r="R74">
+        <f t="shared" si="13"/>
+        <v>1.2978E-3</v>
+      </c>
+      <c r="S74">
+        <f t="shared" si="13"/>
+        <v>1.918E-3</v>
+      </c>
+      <c r="T74">
+        <f t="shared" si="13"/>
+        <v>5.8646000000000002E-4</v>
+      </c>
+      <c r="U74">
+        <f t="shared" si="13"/>
+        <v>-2.9799999999999999E-18</v>
+      </c>
+      <c r="V74">
+        <f t="shared" si="13"/>
+        <v>-4.1287000000000002E-4</v>
+      </c>
+      <c r="W74">
+        <f t="shared" si="13"/>
+        <v>-2.4784E-3</v>
+      </c>
+      <c r="X74">
+        <f t="shared" si="13"/>
+        <v>-4.7008E-4</v>
+      </c>
+      <c r="Y74">
+        <f t="shared" si="13"/>
+        <v>-1.6982E-3</v>
+      </c>
+      <c r="Z74">
+        <f t="shared" si="13"/>
+        <v>3.9015E-19</v>
+      </c>
+      <c r="AA74">
+        <f t="shared" si="13"/>
+        <v>1.8518E-3</v>
+      </c>
+      <c r="AB74">
+        <f t="shared" si="13"/>
+        <v>2.1828E-4</v>
+      </c>
+      <c r="AC74">
+        <f t="shared" si="13"/>
+        <v>3.1622999999999998E-3</v>
+      </c>
+      <c r="AD74">
+        <f t="shared" si="13"/>
+        <v>1.0881E-4</v>
+      </c>
+      <c r="AE74">
+        <f t="shared" si="13"/>
+        <v>2.4915000000000002E-18</v>
+      </c>
+      <c r="AF74">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>3</v>
+      </c>
+      <c r="B75">
+        <f>C61</f>
+        <v>-3.0825000000000002E-3</v>
+      </c>
+      <c r="C75">
+        <f t="shared" ref="C75:D75" si="14">D61</f>
+        <v>-8.1460999999999998E-5</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="14"/>
+        <v>-4.8846999999999996E-3</v>
+      </c>
+      <c r="E75">
+        <f t="shared" ref="E75:AF75" si="15">F61</f>
+        <v>-1.6991E-4</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="15"/>
+        <v>1.5979E-18</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="15"/>
+        <v>3.3688000000000001E-4</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="15"/>
+        <v>4.4745000000000002E-3</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="15"/>
+        <v>9.2082000000000004E-4</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="15"/>
+        <v>2.5339E-3</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="15"/>
+        <v>-9.198299999999999E-19</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="15"/>
+        <v>-2.2609000000000001E-3</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="15"/>
+        <v>-1.7968000000000001E-3</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="15"/>
+        <v>-3.1722E-3</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="15"/>
+        <v>-1.3952000000000001E-3</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="15"/>
+        <v>-1.0118000000000001E-18</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="15"/>
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="R75">
+        <f t="shared" si="15"/>
+        <v>2.0619000000000002E-3</v>
+      </c>
+      <c r="S75">
+        <f t="shared" si="15"/>
+        <v>3.2173000000000002E-3</v>
+      </c>
+      <c r="T75">
+        <f t="shared" si="15"/>
+        <v>9.7108000000000003E-4</v>
+      </c>
+      <c r="U75">
+        <f t="shared" si="15"/>
+        <v>-4.9496000000000002E-18</v>
+      </c>
+      <c r="V75">
+        <f t="shared" si="15"/>
+        <v>-6.9618999999999996E-4</v>
+      </c>
+      <c r="W75">
+        <f t="shared" si="15"/>
+        <v>-4.1057000000000003E-3</v>
+      </c>
+      <c r="X75">
+        <f t="shared" si="15"/>
+        <v>-7.4014999999999997E-4</v>
+      </c>
+      <c r="Y75">
+        <f t="shared" si="15"/>
+        <v>-2.7791999999999999E-3</v>
+      </c>
+      <c r="Z75">
+        <f t="shared" si="15"/>
+        <v>5.7935999999999995E-19</v>
+      </c>
+      <c r="AA75">
+        <f t="shared" si="15"/>
+        <v>2.9564000000000001E-3</v>
+      </c>
+      <c r="AB75">
+        <f t="shared" si="15"/>
+        <v>2.9847000000000001E-4</v>
+      </c>
+      <c r="AC75">
+        <f t="shared" si="15"/>
+        <v>4.9928000000000004E-3</v>
+      </c>
+      <c r="AD75">
+        <f t="shared" si="15"/>
+        <v>1.0787E-4</v>
+      </c>
+      <c r="AE75">
+        <f t="shared" si="15"/>
+        <v>3.9386999999999997E-18</v>
+      </c>
+      <c r="AF75">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>4</v>
+      </c>
+      <c r="B76">
+        <f>C64</f>
+        <v>-3.0508000000000002E-3</v>
+      </c>
+      <c r="C76">
+        <f t="shared" ref="C76:D76" si="16">D64</f>
+        <v>-2.5108000000000001E-5</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="16"/>
+        <v>-4.8291999999999996E-3</v>
+      </c>
+      <c r="E76">
+        <f t="shared" ref="E76:AF76" si="17">F64</f>
+        <v>-8.9404E-5</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="17"/>
+        <v>1.5475E-18</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="17"/>
+        <v>2.353E-4</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="17"/>
+        <v>4.2307999999999998E-3</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="17"/>
+        <v>6.8426000000000001E-4</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="17"/>
+        <v>2.3806999999999999E-3</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="17"/>
+        <v>-7.2087999999999999E-19</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="17"/>
+        <v>-2.1098000000000002E-3</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="17"/>
+        <v>-1.5567999999999999E-3</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="17"/>
+        <v>-2.9329E-3</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="17"/>
+        <v>-1.2933E-3</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="17"/>
+        <v>-9.5516999999999994E-19</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="17"/>
+        <v>1.6188000000000001E-3</v>
+      </c>
+      <c r="R76">
+        <f t="shared" si="17"/>
+        <v>2.0125999999999998E-3</v>
+      </c>
+      <c r="S76">
+        <f t="shared" si="17"/>
+        <v>3.1546999999999999E-3</v>
+      </c>
+      <c r="T76">
+        <f t="shared" si="17"/>
+        <v>9.4381E-4</v>
+      </c>
+      <c r="U76">
+        <f t="shared" si="17"/>
+        <v>-4.9437000000000001E-18</v>
+      </c>
+      <c r="V76">
+        <f t="shared" si="17"/>
+        <v>-6.6520999999999995E-4</v>
+      </c>
+      <c r="W76">
+        <f t="shared" si="17"/>
+        <v>-4.0480999999999998E-3</v>
+      </c>
+      <c r="X76">
+        <f t="shared" si="17"/>
+        <v>-6.8508000000000002E-4</v>
+      </c>
+      <c r="Y76">
+        <f t="shared" si="17"/>
+        <v>-2.6959000000000002E-3</v>
+      </c>
+      <c r="Z76">
+        <f t="shared" si="17"/>
+        <v>3.9973000000000002E-19</v>
+      </c>
+      <c r="AA76">
+        <f t="shared" si="17"/>
+        <v>2.8530000000000001E-3</v>
+      </c>
+      <c r="AB76">
+        <f t="shared" si="17"/>
+        <v>5.2126000000000002E-5</v>
+      </c>
+      <c r="AC76">
+        <f t="shared" si="17"/>
+        <v>4.7597000000000004E-3</v>
+      </c>
+      <c r="AD76">
+        <f t="shared" si="17"/>
+        <v>-4.8504999999999997E-5</v>
+      </c>
+      <c r="AE76">
+        <f t="shared" si="17"/>
+        <v>3.7139999999999997E-18</v>
+      </c>
+      <c r="AF76">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>5</v>
+      </c>
+      <c r="B77">
+        <f>C67</f>
+        <v>-1.8661000000000001E-3</v>
+      </c>
+      <c r="C77">
+        <f t="shared" ref="C77:D77" si="18">D67</f>
+        <v>-2.2007000000000001E-5</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="18"/>
+        <v>-2.9096999999999999E-3</v>
+      </c>
+      <c r="E77">
+        <f t="shared" ref="E77:AF77" si="19">F67</f>
+        <v>-4.3010999999999999E-5</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="19"/>
+        <v>9.2621999999999999E-19</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="19"/>
+        <v>9.0610000000000002E-5</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="19"/>
+        <v>2.5135000000000001E-3</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="19"/>
+        <v>3.0162E-4</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="19"/>
+        <v>1.3860000000000001E-3</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="19"/>
+        <v>-3.6423E-19</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="19"/>
+        <v>-1.224E-3</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="19"/>
+        <v>-8.2569999999999996E-4</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="19"/>
+        <v>-1.7376E-3</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="19"/>
+        <v>-7.2283999999999998E-4</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="19"/>
+        <v>-5.7210000000000002E-19</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="19"/>
+        <v>9.5998999999999998E-4</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="19"/>
+        <v>1.2195000000000001E-3</v>
+      </c>
+      <c r="S77">
+        <f t="shared" si="19"/>
+        <v>1.9066E-3</v>
+      </c>
+      <c r="T77">
+        <f t="shared" si="19"/>
+        <v>5.9566999999999997E-4</v>
+      </c>
+      <c r="U77">
+        <f t="shared" si="19"/>
+        <v>-2.9835E-18</v>
+      </c>
+      <c r="V77">
+        <f t="shared" si="19"/>
+        <v>-4.2302000000000003E-4</v>
+      </c>
+      <c r="W77">
+        <f t="shared" si="19"/>
+        <v>-2.4605999999999999E-3</v>
+      </c>
+      <c r="X77">
+        <f t="shared" si="19"/>
+        <v>-3.9063999999999999E-4</v>
+      </c>
+      <c r="Y77">
+        <f t="shared" si="19"/>
+        <v>-1.6326999999999999E-3</v>
+      </c>
+      <c r="Z77">
+        <f t="shared" si="19"/>
+        <v>1.6766999999999999E-19</v>
+      </c>
+      <c r="AA77">
+        <f t="shared" si="19"/>
+        <v>1.6964E-3</v>
+      </c>
+      <c r="AB77">
+        <f t="shared" si="19"/>
+        <v>-5.9120000000000003E-5</v>
+      </c>
+      <c r="AC77">
+        <f t="shared" si="19"/>
+        <v>2.8180000000000002E-3</v>
+      </c>
+      <c r="AD77">
+        <f t="shared" si="19"/>
+        <v>-1.1899E-4</v>
+      </c>
+      <c r="AE77">
+        <f t="shared" si="19"/>
+        <v>2.2154999999999999E-18</v>
+      </c>
+      <c r="AF77">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>6</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
+      </c>
+      <c r="Y78">
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>0</v>
+      </c>
+      <c r="AB78">
+        <v>0</v>
+      </c>
+      <c r="AC78">
+        <v>0</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
+      </c>
+      <c r="AF78">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F54"/>
@@ -12959,7 +17554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -17473,4588 +22068,193 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF78"/>
+  <dimension ref="A1:AF17"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>1.0000000000000001E-18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <v>40</v>
+      </c>
+      <c r="G2">
+        <v>50</v>
+      </c>
+      <c r="H2">
+        <v>60</v>
+      </c>
+      <c r="I2">
+        <v>70</v>
+      </c>
+      <c r="J2">
+        <v>80</v>
+      </c>
+      <c r="K2">
+        <v>90</v>
+      </c>
+      <c r="L2">
+        <v>100</v>
+      </c>
+      <c r="M2">
+        <v>110</v>
+      </c>
+      <c r="N2">
+        <v>120</v>
+      </c>
+      <c r="O2">
+        <v>130</v>
+      </c>
+      <c r="P2">
+        <v>140</v>
+      </c>
+      <c r="Q2">
+        <v>150</v>
+      </c>
+      <c r="R2">
+        <v>160</v>
+      </c>
+      <c r="S2">
+        <v>170</v>
+      </c>
+      <c r="T2">
+        <v>180</v>
+      </c>
+      <c r="U2">
+        <v>190</v>
+      </c>
+      <c r="V2">
+        <v>200</v>
+      </c>
+      <c r="W2">
+        <v>210</v>
+      </c>
+      <c r="X2">
+        <v>220</v>
+      </c>
+      <c r="Y2">
+        <v>230</v>
+      </c>
+      <c r="Z2">
+        <v>240</v>
+      </c>
+      <c r="AA2">
+        <v>250</v>
+      </c>
+      <c r="AB2">
+        <v>260</v>
+      </c>
+      <c r="AC2">
+        <v>270</v>
+      </c>
+      <c r="AD2">
+        <v>280</v>
+      </c>
+      <c r="AE2">
+        <v>290</v>
+      </c>
+      <c r="AF2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="C5" s="3">
-        <f>A3*A5</f>
-        <v>4.0000000000000007E-22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <f t="shared" ref="C6:C19" si="0">A4*A6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>0.38419999999999999</v>
-      </c>
-      <c r="C7" s="3">
-        <f t="shared" si="0"/>
-        <v>1.5368000000000001E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="C8" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>0.63460000000000005</v>
-      </c>
-      <c r="C10" s="3">
-        <f t="shared" si="0"/>
-        <v>1.9038E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>1E-4</v>
-      </c>
-      <c r="C11" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>0.63390000000000002</v>
-      </c>
-      <c r="C13" s="3">
-        <f t="shared" si="0"/>
-        <v>6.3390000000000001E-5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>-1E-4</v>
-      </c>
-      <c r="C14" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>0</v>
-      </c>
-      <c r="C15" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>0.38450000000000001</v>
-      </c>
-      <c r="C16" s="3">
-        <f t="shared" si="0"/>
-        <v>-3.8449999999999999E-5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>-2.9999999999999997E-4</v>
-      </c>
-      <c r="C17" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>-4.0000000000000002E-4</v>
-      </c>
-      <c r="C19" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1999999999999999E-7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B23" s="3">
-        <v>2.7999999999999999E-8</v>
-      </c>
-      <c r="C23" s="3">
-        <v>-6.7714999999999995E-8</v>
-      </c>
-      <c r="D23" s="3">
-        <v>-2.6094000000000001E-7</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-2.9486999999999999E-7</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-9.2471999999999995E-23</v>
-      </c>
-      <c r="G23" s="3">
-        <v>4.7803999999999996E-7</v>
-      </c>
-      <c r="H23" s="3">
-        <v>9.6145999999999998E-7</v>
-      </c>
-      <c r="I23" s="3">
-        <v>1.1513000000000001E-6</v>
-      </c>
-      <c r="J23" s="3">
-        <v>8.2704000000000003E-7</v>
-      </c>
-      <c r="K23" s="3">
-        <v>4.0641999999999999E-22</v>
-      </c>
-      <c r="M23" s="3">
-        <v>2.8000000000000002E-7</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-6.7715000000000005E-7</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-2.6094E-6</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-2.9486999999999998E-6</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-9.2472000000000007E-22</v>
-      </c>
-      <c r="R23" s="3">
-        <v>4.7804E-6</v>
-      </c>
-      <c r="S23" s="3">
-        <v>9.6145999999999994E-6</v>
-      </c>
-      <c r="T23" s="3">
-        <v>1.1513E-5</v>
-      </c>
-      <c r="U23" s="3">
-        <v>8.2703999999999996E-6</v>
-      </c>
-      <c r="V23" s="3">
-        <v>4.0641999999999999E-21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B24" s="3">
-        <v>2.1754000000000002E-19</v>
-      </c>
-      <c r="C24" s="3">
-        <v>6.9288999999999996E-19</v>
-      </c>
-      <c r="D24" s="3">
-        <v>3.9192000000000002E-19</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1.4324000000000001E-20</v>
-      </c>
-      <c r="F24" s="3">
-        <v>2.5491999999999999E-35</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-3.8394000000000001E-19</v>
-      </c>
-      <c r="H24" s="3">
-        <v>-4.9298000000000003E-19</v>
-      </c>
-      <c r="I24" s="3">
-        <v>1.3217000000000001E-20</v>
-      </c>
-      <c r="J24" s="3">
-        <v>-2.9490999999999998E-20</v>
-      </c>
-      <c r="K24" s="3">
-        <v>-1.3124999999999999E-34</v>
-      </c>
-      <c r="M24" s="3">
-        <v>2.1754E-18</v>
-      </c>
-      <c r="N24" s="3">
-        <v>6.9289000000000002E-18</v>
-      </c>
-      <c r="O24" s="3">
-        <v>3.9191999999999999E-18</v>
-      </c>
-      <c r="P24" s="3">
-        <v>1.4324000000000001E-19</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>2.5491999999999999E-34</v>
-      </c>
-      <c r="R24" s="3">
-        <v>-3.8393999999999998E-18</v>
-      </c>
-      <c r="S24" s="3">
-        <v>-4.9297999999999998E-18</v>
-      </c>
-      <c r="T24" s="3">
-        <v>1.3216999999999999E-19</v>
-      </c>
-      <c r="U24" s="3">
-        <v>-2.9491E-19</v>
-      </c>
-      <c r="V24" s="3">
-        <v>-1.3124999999999999E-33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B25" s="3">
-        <v>-2.8606000000000002E-6</v>
-      </c>
-      <c r="C25" s="3">
-        <v>-9.5602999999999999E-5</v>
-      </c>
-      <c r="D25">
-        <v>-2.5431999999999999E-4</v>
-      </c>
-      <c r="E25">
-        <v>-2.7563000000000002E-4</v>
-      </c>
-      <c r="F25" s="3">
-        <v>-8.1138999999999999E-20</v>
-      </c>
-      <c r="G25">
-        <v>4.6443999999999999E-4</v>
-      </c>
-      <c r="H25">
-        <v>9.1252E-4</v>
-      </c>
-      <c r="I25">
-        <v>1.0920999999999999E-3</v>
-      </c>
-      <c r="J25">
-        <v>7.9367999999999995E-4</v>
-      </c>
-      <c r="K25" s="3">
-        <v>3.8420999999999998E-19</v>
-      </c>
-      <c r="M25" s="3">
-        <v>-2.8606E-5</v>
-      </c>
-      <c r="N25">
-        <v>-9.5602999999999997E-4</v>
-      </c>
-      <c r="O25">
-        <v>-2.5431999999999998E-3</v>
-      </c>
-      <c r="P25">
-        <v>-2.7563000000000002E-3</v>
-      </c>
-      <c r="Q25" s="3">
-        <v>-8.1139000000000004E-19</v>
-      </c>
-      <c r="R25">
-        <v>4.6443999999999999E-3</v>
-      </c>
-      <c r="S25">
-        <v>9.1252E-3</v>
-      </c>
-      <c r="T25">
-        <v>1.0921E-2</v>
-      </c>
-      <c r="U25">
-        <v>7.9368000000000008E-3</v>
-      </c>
-      <c r="V25" s="3">
-        <v>3.8420999999999998E-18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B26" s="3">
-        <v>-5.0150999999999997E-8</v>
-      </c>
-      <c r="C26" s="3">
-        <v>-1.3136999999999999E-7</v>
-      </c>
-      <c r="D26" s="3">
-        <v>-2.3192E-7</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-2.2716E-7</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-5.9872000000000001E-23</v>
-      </c>
-      <c r="G26" s="3">
-        <v>4.2037E-7</v>
-      </c>
-      <c r="H26" s="3">
-        <v>8.0054000000000005E-7</v>
-      </c>
-      <c r="I26" s="3">
-        <v>9.6509000000000002E-7</v>
-      </c>
-      <c r="J26" s="3">
-        <v>7.1221E-7</v>
-      </c>
-      <c r="K26" s="3">
-        <v>3.4033000000000001E-22</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-5.0151000000000005E-7</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-1.3137E-6</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-2.3192000000000002E-6</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-2.2716E-6</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-5.9872000000000003E-22</v>
-      </c>
-      <c r="R26" s="3">
-        <v>4.2037000000000001E-6</v>
-      </c>
-      <c r="S26" s="3">
-        <v>8.0053999999999996E-6</v>
-      </c>
-      <c r="T26" s="3">
-        <v>9.6508999999999994E-6</v>
-      </c>
-      <c r="U26" s="3">
-        <v>7.1221E-6</v>
-      </c>
-      <c r="V26" s="3">
-        <v>3.4032999999999999E-21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B27" s="3">
-        <v>3.8781999999999998E-19</v>
-      </c>
-      <c r="C27" s="3">
-        <v>1.3099000000000001E-18</v>
-      </c>
-      <c r="D27" s="3">
-        <v>8.1821999999999997E-19</v>
-      </c>
-      <c r="E27" s="3">
-        <v>3.2612000000000003E-20</v>
-      </c>
-      <c r="F27" s="3">
-        <v>4.1710999999999998E-35</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-7.2474E-19</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-9.9142999999999997E-19</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-1.1565999999999999E-20</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-2.9316999999999998E-20</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-2.4077E-34</v>
-      </c>
-      <c r="M27" s="3">
-        <v>3.8781999999999999E-18</v>
-      </c>
-      <c r="N27" s="3">
-        <v>1.3098999999999999E-17</v>
-      </c>
-      <c r="O27" s="3">
-        <v>8.1821999999999995E-18</v>
-      </c>
-      <c r="P27" s="3">
-        <v>3.2612E-19</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>4.1710999999999997E-34</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-7.2474000000000004E-18</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-9.9142999999999997E-18</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-1.1565999999999999E-19</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-2.9317000000000002E-19</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-2.4077E-33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B28" s="3">
-        <v>-4.6845999999999998E-5</v>
-      </c>
-      <c r="C28">
-        <v>-1.9322E-4</v>
-      </c>
-      <c r="D28">
-        <v>-3.7326999999999998E-4</v>
-      </c>
-      <c r="E28">
-        <v>-3.7020999999999999E-4</v>
-      </c>
-      <c r="F28" s="3">
-        <v>-1.0819E-19</v>
-      </c>
-      <c r="G28">
-        <v>7.1823999999999998E-4</v>
-      </c>
-      <c r="H28">
-        <v>1.4449E-3</v>
-      </c>
-      <c r="I28">
-        <v>1.7556E-3</v>
-      </c>
-      <c r="J28">
-        <v>1.2964000000000001E-3</v>
-      </c>
-      <c r="K28" s="3">
-        <v>6.3455999999999996E-19</v>
-      </c>
-      <c r="M28">
-        <v>-4.6846000000000002E-4</v>
-      </c>
-      <c r="N28">
-        <v>-1.9322E-3</v>
-      </c>
-      <c r="O28">
-        <v>-3.7326999999999998E-3</v>
-      </c>
-      <c r="P28">
-        <v>-3.7020999999999998E-3</v>
-      </c>
-      <c r="Q28" s="3">
-        <v>-1.0819E-18</v>
-      </c>
-      <c r="R28">
-        <v>7.1824000000000002E-3</v>
-      </c>
-      <c r="S28">
-        <v>1.4449E-2</v>
-      </c>
-      <c r="T28">
-        <v>1.7555999999999999E-2</v>
-      </c>
-      <c r="U28">
-        <v>1.2964E-2</v>
-      </c>
-      <c r="V28" s="3">
-        <v>6.3456000000000003E-18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B29" s="3">
-        <v>5.2845999999999997E-9</v>
-      </c>
-      <c r="C29" s="3">
-        <v>-1.0706E-8</v>
-      </c>
-      <c r="D29" s="3">
-        <v>4.4279999999999997E-8</v>
-      </c>
-      <c r="E29" s="3">
-        <v>6.4128000000000004E-8</v>
-      </c>
-      <c r="F29" s="3">
-        <v>6.8122E-24</v>
-      </c>
-      <c r="G29" s="3">
-        <v>2.955E-8</v>
-      </c>
-      <c r="H29" s="3">
-        <v>1.9257000000000001E-7</v>
-      </c>
-      <c r="I29" s="3">
-        <v>2.8047000000000002E-7</v>
-      </c>
-      <c r="J29" s="3">
-        <v>2.3879999999999999E-7</v>
-      </c>
-      <c r="K29" s="3">
-        <v>1.3642999999999999E-22</v>
-      </c>
-      <c r="M29" s="3">
-        <v>5.2846000000000002E-8</v>
-      </c>
-      <c r="N29" s="3">
-        <v>-1.0705999999999999E-7</v>
-      </c>
-      <c r="O29" s="3">
-        <v>4.4280000000000002E-7</v>
-      </c>
-      <c r="P29" s="3">
-        <v>6.4127999999999998E-7</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>6.8122000000000006E-23</v>
-      </c>
-      <c r="R29" s="3">
-        <v>2.9550000000000002E-7</v>
-      </c>
-      <c r="S29" s="3">
-        <v>1.9257E-6</v>
-      </c>
-      <c r="T29" s="3">
-        <v>2.8047E-6</v>
-      </c>
-      <c r="U29" s="3">
-        <v>2.3879999999999998E-6</v>
-      </c>
-      <c r="V29" s="3">
-        <v>1.3643E-21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B30" s="3">
-        <v>5.3219000000000002E-19</v>
-      </c>
-      <c r="C30" s="3">
-        <v>1.8438000000000002E-18</v>
-      </c>
-      <c r="D30" s="3">
-        <v>1.1436999999999999E-18</v>
-      </c>
-      <c r="E30" s="3">
-        <v>9.2336000000000006E-21</v>
-      </c>
-      <c r="F30" s="3">
-        <v>5.5976000000000002E-35</v>
-      </c>
-      <c r="G30" s="3">
-        <v>-9.7833000000000002E-19</v>
-      </c>
-      <c r="H30" s="3">
-        <v>-1.3018000000000001E-18</v>
-      </c>
-      <c r="I30" s="3">
-        <v>-4.2803999999999998E-20</v>
-      </c>
-      <c r="J30" s="3">
-        <v>-3.6713E-20</v>
-      </c>
-      <c r="K30" s="3">
-        <v>-3.1532E-34</v>
-      </c>
-      <c r="M30" s="3">
-        <v>5.3219000000000002E-18</v>
-      </c>
-      <c r="N30" s="3">
-        <v>1.8438E-17</v>
-      </c>
-      <c r="O30" s="3">
-        <v>1.1437E-17</v>
-      </c>
-      <c r="P30" s="3">
-        <v>9.2336000000000006E-20</v>
-      </c>
-      <c r="Q30" s="3">
-        <v>5.5976000000000002E-34</v>
-      </c>
-      <c r="R30" s="3">
-        <v>-9.7832999999999994E-18</v>
-      </c>
-      <c r="S30" s="3">
-        <v>-1.3018E-17</v>
-      </c>
-      <c r="T30" s="3">
-        <v>-4.2803999999999998E-19</v>
-      </c>
-      <c r="U30" s="3">
-        <v>-3.6713E-19</v>
-      </c>
-      <c r="V30" s="3">
-        <v>-3.1531999999999999E-33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B31" s="3">
-        <v>-4.0389000000000004E-6</v>
-      </c>
-      <c r="C31" s="3">
-        <v>-9.5366999999999997E-5</v>
-      </c>
-      <c r="D31">
-        <v>-1.9662E-4</v>
-      </c>
-      <c r="E31">
-        <v>-2.0976999999999999E-4</v>
-      </c>
-      <c r="F31" s="3">
-        <v>-7.7201000000000004E-20</v>
-      </c>
-      <c r="G31">
-        <v>5.5285999999999996E-4</v>
-      </c>
-      <c r="H31">
-        <v>1.2738999999999999E-3</v>
-      </c>
-      <c r="I31">
-        <v>1.6437999999999999E-3</v>
-      </c>
-      <c r="J31">
-        <v>1.2565E-3</v>
-      </c>
-      <c r="K31" s="3">
-        <v>6.3392000000000001E-19</v>
-      </c>
-      <c r="M31" s="3">
-        <v>-4.0389000000000002E-5</v>
-      </c>
-      <c r="N31">
-        <v>-9.5367E-4</v>
-      </c>
-      <c r="O31">
-        <v>-1.9662E-3</v>
-      </c>
-      <c r="P31">
-        <v>-2.0977000000000001E-3</v>
-      </c>
-      <c r="Q31" s="3">
-        <v>-7.7201000000000004E-19</v>
-      </c>
-      <c r="R31">
-        <v>5.5285999999999998E-3</v>
-      </c>
-      <c r="S31">
-        <v>1.2739E-2</v>
-      </c>
-      <c r="T31">
-        <v>1.6438000000000001E-2</v>
-      </c>
-      <c r="U31">
-        <v>1.2565E-2</v>
-      </c>
-      <c r="V31" s="3">
-        <v>6.3392000000000001E-18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B32" s="3">
-        <v>4.1910000000000003E-8</v>
-      </c>
-      <c r="C32" s="3">
-        <v>1.6499E-7</v>
-      </c>
-      <c r="D32" s="3">
-        <v>2.4119E-7</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1.8752E-7</v>
-      </c>
-      <c r="F32" s="3">
-        <v>4.6450000000000001E-23</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-2.8570999999999998E-7</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-4.7460999999999999E-7</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-4.4630999999999998E-7</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-2.8285999999999998E-7</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-1.3607999999999999E-22</v>
-      </c>
-      <c r="M32" s="3">
-        <v>4.1909999999999999E-7</v>
-      </c>
-      <c r="N32" s="3">
-        <v>1.6499000000000001E-6</v>
-      </c>
-      <c r="O32" s="3">
-        <v>2.4119000000000002E-6</v>
-      </c>
-      <c r="P32" s="3">
-        <v>1.8752000000000001E-6</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>4.6449999999999996E-22</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-2.8571000000000001E-6</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-4.7461000000000002E-6</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-4.4630999999999997E-6</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-2.8285999999999999E-6</v>
-      </c>
-      <c r="V32" s="3">
-        <v>-1.3608E-21</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B33" s="3">
-        <v>5.9636999999999997E-19</v>
-      </c>
-      <c r="C33" s="3">
-        <v>2.1210999999999998E-18</v>
-      </c>
-      <c r="D33" s="3">
-        <v>1.3277000000000001E-18</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-5.0244E-22</v>
-      </c>
-      <c r="F33" s="3">
-        <v>7.2823E-35</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-1.1759E-18</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-1.5117999999999999E-18</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-6.5583000000000005E-20</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-4.4546000000000001E-20</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-3.7411999999999998E-34</v>
-      </c>
-      <c r="M33" s="3">
-        <v>5.9637000000000001E-18</v>
-      </c>
-      <c r="N33" s="3">
-        <v>2.1210999999999999E-17</v>
-      </c>
-      <c r="O33" s="3">
-        <v>1.3277E-17</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-5.0243999999999998E-21</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>7.2822999999999996E-34</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-1.1759E-17</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-1.5117999999999999E-17</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-6.5583E-19</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-4.4546000000000004E-19</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-3.7412E-33</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B34" s="3">
-        <v>2.0613000000000001E-6</v>
-      </c>
-      <c r="C34" s="3">
-        <v>2.7801999999999999E-5</v>
-      </c>
-      <c r="D34" s="3">
-        <v>-1.4507E-5</v>
-      </c>
-      <c r="E34" s="3">
-        <v>-7.5867999999999999E-5</v>
-      </c>
-      <c r="F34" s="3">
-        <v>-3.1151999999999998E-20</v>
-      </c>
-      <c r="G34">
-        <v>2.6458999999999999E-4</v>
-      </c>
-      <c r="H34">
-        <v>6.6087000000000003E-4</v>
-      </c>
-      <c r="I34">
-        <v>9.6887999999999998E-4</v>
-      </c>
-      <c r="J34">
-        <v>7.8355999999999999E-4</v>
-      </c>
-      <c r="K34" s="3">
-        <v>3.8445999999999998E-19</v>
-      </c>
-      <c r="M34" s="3">
-        <v>2.0613000000000001E-5</v>
-      </c>
-      <c r="N34">
-        <v>2.7802000000000002E-4</v>
-      </c>
-      <c r="O34">
-        <v>-1.4506999999999999E-4</v>
-      </c>
-      <c r="P34">
-        <v>-7.5867999999999997E-4</v>
-      </c>
-      <c r="Q34" s="3">
-        <v>-3.1152E-19</v>
-      </c>
-      <c r="R34">
-        <v>2.6459000000000001E-3</v>
-      </c>
-      <c r="S34">
-        <v>6.6087000000000003E-3</v>
-      </c>
-      <c r="T34">
-        <v>9.6887999999999991E-3</v>
-      </c>
-      <c r="U34">
-        <v>7.8355999999999999E-3</v>
-      </c>
-      <c r="V34" s="3">
-        <v>3.8446000000000003E-18</v>
-      </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B35" s="3">
-        <v>-1.9285E-8</v>
-      </c>
-      <c r="C35" s="3">
-        <v>4.4564000000000001E-8</v>
-      </c>
-      <c r="D35" s="3">
-        <v>8.6188000000000004E-8</v>
-      </c>
-      <c r="E35" s="3">
-        <v>8.3308999999999995E-8</v>
-      </c>
-      <c r="F35" s="3">
-        <v>3.9424E-23</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-2.6856999999999998E-7</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-6.7329999999999997E-7</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-8.5613999999999999E-7</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-6.5232000000000001E-7</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-3.3963999999999999E-22</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-1.9285000000000001E-7</v>
-      </c>
-      <c r="N35" s="3">
-        <v>4.4564000000000001E-7</v>
-      </c>
-      <c r="O35" s="3">
-        <v>8.6188000000000004E-7</v>
-      </c>
-      <c r="P35" s="3">
-        <v>8.3308999999999995E-7</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>3.9424000000000001E-22</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-2.6857E-6</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-6.7329999999999997E-6</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-8.5614000000000007E-6</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-6.5231999999999996E-6</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-3.3963999999999998E-21</v>
-      </c>
-    </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B36" s="3">
-        <v>5.8852999999999998E-19</v>
-      </c>
-      <c r="C36" s="3">
-        <v>2.1264000000000001E-18</v>
-      </c>
-      <c r="D36" s="3">
-        <v>1.3232E-18</v>
-      </c>
-      <c r="E36" s="3">
-        <v>-5.1163999999999997E-20</v>
-      </c>
-      <c r="F36" s="3">
-        <v>6.4631000000000005E-35</v>
-      </c>
-      <c r="G36" s="3">
-        <v>-1.1833000000000001E-18</v>
-      </c>
-      <c r="H36" s="3">
-        <v>-1.5011E-18</v>
-      </c>
-      <c r="I36" s="3">
-        <v>2.9298999999999998E-20</v>
-      </c>
-      <c r="J36" s="3">
-        <v>8.0941000000000003E-21</v>
-      </c>
-      <c r="K36" s="3">
-        <v>-3.8781999999999999E-34</v>
-      </c>
-      <c r="M36" s="3">
-        <v>5.8852999999999998E-18</v>
-      </c>
-      <c r="N36" s="3">
-        <v>2.1264E-17</v>
-      </c>
-      <c r="O36" s="3">
-        <v>1.3232E-17</v>
-      </c>
-      <c r="P36" s="3">
-        <v>-5.1163999999999996E-19</v>
-      </c>
-      <c r="Q36" s="3">
-        <v>6.4631000000000001E-34</v>
-      </c>
-      <c r="R36" s="3">
-        <v>-1.1833E-17</v>
-      </c>
-      <c r="S36" s="3">
-        <v>-1.5011000000000001E-17</v>
-      </c>
-      <c r="T36" s="3">
-        <v>2.9299000000000002E-19</v>
-      </c>
-      <c r="U36" s="3">
-        <v>8.0941000000000003E-20</v>
-      </c>
-      <c r="V36" s="3">
-        <v>-3.8782000000000002E-33</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B37" s="3">
-        <v>1.6481E-8</v>
-      </c>
-      <c r="C37" s="3">
-        <v>-6.7235000000000006E-8</v>
-      </c>
-      <c r="D37" s="3">
-        <v>-1.8529E-8</v>
-      </c>
-      <c r="E37" s="3">
-        <v>7.9263E-8</v>
-      </c>
-      <c r="F37" s="3">
-        <v>2.6843000000000002E-23</v>
-      </c>
-      <c r="G37" s="3">
-        <v>-2.6931999999999998E-7</v>
-      </c>
-      <c r="H37" s="3">
-        <v>-6.5186999999999997E-7</v>
-      </c>
-      <c r="I37" s="3">
-        <v>-1.0376E-6</v>
-      </c>
-      <c r="J37" s="3">
-        <v>-8.5868999999999997E-7</v>
-      </c>
-      <c r="K37" s="3">
-        <v>-4.0849000000000002E-22</v>
-      </c>
-      <c r="M37" s="3">
-        <v>1.6481E-7</v>
-      </c>
-      <c r="N37" s="3">
-        <v>-6.7235000000000001E-7</v>
-      </c>
-      <c r="O37" s="3">
-        <v>-1.8528999999999999E-7</v>
-      </c>
-      <c r="P37" s="3">
-        <v>7.9263000000000002E-7</v>
-      </c>
-      <c r="Q37" s="3">
-        <v>2.6842999999999998E-22</v>
-      </c>
-      <c r="R37" s="3">
-        <v>-2.6931999999999999E-6</v>
-      </c>
-      <c r="S37" s="3">
-        <v>-6.5186999999999999E-6</v>
-      </c>
-      <c r="T37" s="3">
-        <v>-1.0376E-5</v>
-      </c>
-      <c r="U37" s="3">
-        <v>-8.5869000000000007E-6</v>
-      </c>
-      <c r="V37" s="3">
-        <v>-4.0849000000000001E-21</v>
-      </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B39" s="3">
-        <f>B23-M23</f>
-        <v>-2.5200000000000003E-7</v>
-      </c>
-      <c r="C39" s="3">
-        <f t="shared" ref="C39:K39" si="1">C23-N23</f>
-        <v>6.0943500000000006E-7</v>
-      </c>
-      <c r="D39" s="3">
-        <f t="shared" si="1"/>
-        <v>2.3484599999999998E-6</v>
-      </c>
-      <c r="E39" s="3">
-        <f t="shared" si="1"/>
-        <v>2.6538299999999999E-6</v>
-      </c>
-      <c r="F39" s="3">
-        <f t="shared" si="1"/>
-        <v>8.3224800000000006E-22</v>
-      </c>
-      <c r="G39" s="3">
-        <f t="shared" si="1"/>
-        <v>-4.3023600000000003E-6</v>
-      </c>
-      <c r="H39" s="3">
-        <f t="shared" si="1"/>
-        <v>-8.6531399999999996E-6</v>
-      </c>
-      <c r="I39" s="3">
-        <f t="shared" si="1"/>
-        <v>-1.0361699999999999E-5</v>
-      </c>
-      <c r="J39" s="3">
-        <f t="shared" si="1"/>
-        <v>-7.4433599999999995E-6</v>
-      </c>
-      <c r="K39" s="3">
-        <f t="shared" si="1"/>
-        <v>-3.6577800000000003E-21</v>
-      </c>
-      <c r="M39" s="3">
-        <v>2.8E-5</v>
-      </c>
-      <c r="N39" s="3">
-        <v>-6.7714999999999998E-5</v>
-      </c>
-      <c r="O39">
-        <v>-2.6093999999999998E-4</v>
-      </c>
-      <c r="P39">
-        <v>-2.9486999999999997E-4</v>
-      </c>
-      <c r="Q39" s="3">
-        <v>-9.2471999999999997E-20</v>
-      </c>
-      <c r="R39">
-        <v>4.7804E-4</v>
-      </c>
-      <c r="S39">
-        <v>9.6146000000000003E-4</v>
-      </c>
-      <c r="T39">
-        <v>1.1513000000000001E-3</v>
-      </c>
-      <c r="U39">
-        <v>8.2704000000000002E-4</v>
-      </c>
-      <c r="V39" s="3">
-        <v>4.0642000000000002E-19</v>
-      </c>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B40" s="3">
-        <f t="shared" ref="B40:B54" si="2">B24-M24</f>
-        <v>-1.9578600000000001E-18</v>
-      </c>
-      <c r="C40" s="3">
-        <f t="shared" ref="C40:C54" si="3">C24-N24</f>
-        <v>-6.2360100000000003E-18</v>
-      </c>
-      <c r="D40" s="3">
-        <f t="shared" ref="D40:D54" si="4">D24-O24</f>
-        <v>-3.5272800000000002E-18</v>
-      </c>
-      <c r="E40" s="3">
-        <f t="shared" ref="E40:E54" si="5">E24-P24</f>
-        <v>-1.2891600000000001E-19</v>
-      </c>
-      <c r="F40" s="3">
-        <f t="shared" ref="F40:F54" si="6">F24-Q24</f>
-        <v>-2.2942799999999999E-34</v>
-      </c>
-      <c r="G40" s="3">
-        <f t="shared" ref="G40:G54" si="7">G24-R24</f>
-        <v>3.4554599999999997E-18</v>
-      </c>
-      <c r="H40" s="3">
-        <f t="shared" ref="H40:H54" si="8">H24-S24</f>
-        <v>4.4368199999999996E-18</v>
-      </c>
-      <c r="I40" s="3">
-        <f t="shared" ref="I40:I54" si="9">I24-T24</f>
-        <v>-1.1895299999999998E-19</v>
-      </c>
-      <c r="J40" s="3">
-        <f t="shared" ref="J40:J54" si="10">J24-U24</f>
-        <v>2.6541900000000002E-19</v>
-      </c>
-      <c r="K40" s="3">
-        <f t="shared" ref="K40:K54" si="11">K24-V24</f>
-        <v>1.18125E-33</v>
-      </c>
-      <c r="M40" s="3">
-        <v>2.1754000000000001E-16</v>
-      </c>
-      <c r="N40" s="3">
-        <v>6.9289E-16</v>
-      </c>
-      <c r="O40" s="3">
-        <v>3.9192000000000002E-16</v>
-      </c>
-      <c r="P40" s="3">
-        <v>1.4323999999999999E-17</v>
-      </c>
-      <c r="Q40" s="3">
-        <v>2.5491999999999999E-32</v>
-      </c>
-      <c r="R40" s="3">
-        <v>-3.8393999999999998E-16</v>
-      </c>
-      <c r="S40" s="3">
-        <v>-4.9297999999999998E-16</v>
-      </c>
-      <c r="T40" s="3">
-        <v>1.3217E-17</v>
-      </c>
-      <c r="U40" s="3">
-        <v>-2.9490999999999998E-17</v>
-      </c>
-      <c r="V40" s="3">
-        <v>-1.3125000000000001E-31</v>
-      </c>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B41" s="3">
-        <f t="shared" si="2"/>
-        <v>2.5745399999999999E-5</v>
-      </c>
-      <c r="C41" s="3">
-        <f t="shared" si="3"/>
-        <v>8.6042699999999998E-4</v>
-      </c>
-      <c r="D41" s="3">
-        <f t="shared" si="4"/>
-        <v>2.2888799999999996E-3</v>
-      </c>
-      <c r="E41" s="3">
-        <f t="shared" si="5"/>
-        <v>2.4806699999999999E-3</v>
-      </c>
-      <c r="F41" s="3">
-        <f t="shared" si="6"/>
-        <v>7.3025100000000002E-19</v>
-      </c>
-      <c r="G41" s="3">
-        <f t="shared" si="7"/>
-        <v>-4.1799599999999999E-3</v>
-      </c>
-      <c r="H41" s="3">
-        <f t="shared" si="8"/>
-        <v>-8.21268E-3</v>
-      </c>
-      <c r="I41" s="3">
-        <f t="shared" si="9"/>
-        <v>-9.8288999999999998E-3</v>
-      </c>
-      <c r="J41" s="3">
-        <f t="shared" si="10"/>
-        <v>-7.1431200000000011E-3</v>
-      </c>
-      <c r="K41" s="3">
-        <f t="shared" si="11"/>
-        <v>-3.4578899999999998E-18</v>
-      </c>
-      <c r="M41">
-        <v>-2.8606E-3</v>
-      </c>
-      <c r="N41">
-        <v>-9.5602999999999994E-2</v>
-      </c>
-      <c r="O41">
-        <v>-0.25431999999999999</v>
-      </c>
-      <c r="P41">
-        <v>-0.27562999999999999</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>-8.1139000000000006E-17</v>
-      </c>
-      <c r="R41">
-        <v>0.46444000000000002</v>
-      </c>
-      <c r="S41">
-        <v>0.91252</v>
-      </c>
-      <c r="T41">
-        <v>1.0921000000000001</v>
-      </c>
-      <c r="U41">
-        <v>0.79368000000000005</v>
-      </c>
-      <c r="V41" s="3">
-        <v>3.8420999999999999E-16</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B42" s="3">
-        <f t="shared" si="2"/>
-        <v>4.5135900000000006E-7</v>
-      </c>
-      <c r="C42" s="3">
-        <f t="shared" si="3"/>
-        <v>1.1823300000000001E-6</v>
-      </c>
-      <c r="D42" s="3">
-        <f t="shared" si="4"/>
-        <v>2.0872800000000002E-6</v>
-      </c>
-      <c r="E42" s="3">
-        <f t="shared" si="5"/>
-        <v>2.0444400000000001E-6</v>
-      </c>
-      <c r="F42" s="3">
-        <f t="shared" si="6"/>
-        <v>5.3884800000000002E-22</v>
-      </c>
-      <c r="G42" s="3">
-        <f t="shared" si="7"/>
-        <v>-3.7833300000000002E-6</v>
-      </c>
-      <c r="H42" s="3">
-        <f t="shared" si="8"/>
-        <v>-7.20486E-6</v>
-      </c>
-      <c r="I42" s="3">
-        <f t="shared" si="9"/>
-        <v>-8.6858099999999998E-6</v>
-      </c>
-      <c r="J42" s="3">
-        <f t="shared" si="10"/>
-        <v>-6.4098900000000004E-6</v>
-      </c>
-      <c r="K42" s="3">
-        <f t="shared" si="11"/>
-        <v>-3.0629699999999998E-21</v>
-      </c>
-      <c r="M42" s="3">
-        <v>-5.0151000000000001E-5</v>
-      </c>
-      <c r="N42">
-        <v>-1.3137000000000001E-4</v>
-      </c>
-      <c r="O42">
-        <v>-2.3191999999999999E-4</v>
-      </c>
-      <c r="P42">
-        <v>-2.2715999999999999E-4</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>-5.9871999999999998E-20</v>
-      </c>
-      <c r="R42">
-        <v>4.2036999999999999E-4</v>
-      </c>
-      <c r="S42">
-        <v>8.0053999999999998E-4</v>
-      </c>
-      <c r="T42">
-        <v>9.6509000000000005E-4</v>
-      </c>
-      <c r="U42">
-        <v>7.1221000000000001E-4</v>
-      </c>
-      <c r="V42" s="3">
-        <v>3.4033000000000002E-19</v>
-      </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B43" s="3">
-        <f t="shared" si="2"/>
-        <v>-3.4903800000000001E-18</v>
-      </c>
-      <c r="C43" s="3">
-        <f t="shared" si="3"/>
-        <v>-1.17891E-17</v>
-      </c>
-      <c r="D43" s="3">
-        <f t="shared" si="4"/>
-        <v>-7.3639799999999992E-18</v>
-      </c>
-      <c r="E43" s="3">
-        <f t="shared" si="5"/>
-        <v>-2.9350800000000001E-19</v>
-      </c>
-      <c r="F43" s="3">
-        <f t="shared" si="6"/>
-        <v>-3.7539899999999996E-34</v>
-      </c>
-      <c r="G43" s="3">
-        <f t="shared" si="7"/>
-        <v>6.5226600000000002E-18</v>
-      </c>
-      <c r="H43" s="3">
-        <f t="shared" si="8"/>
-        <v>8.9228699999999997E-18</v>
-      </c>
-      <c r="I43" s="3">
-        <f t="shared" si="9"/>
-        <v>1.0409399999999999E-19</v>
-      </c>
-      <c r="J43" s="3">
-        <f t="shared" si="10"/>
-        <v>2.6385300000000002E-19</v>
-      </c>
-      <c r="K43" s="3">
-        <f t="shared" si="11"/>
-        <v>2.16693E-33</v>
-      </c>
-      <c r="M43" s="3">
-        <v>3.8782000000000001E-16</v>
-      </c>
-      <c r="N43" s="3">
-        <v>1.3099E-15</v>
-      </c>
-      <c r="O43" s="3">
-        <v>8.1822000000000001E-16</v>
-      </c>
-      <c r="P43" s="3">
-        <v>3.2611999999999999E-17</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>4.1710999999999998E-32</v>
-      </c>
-      <c r="R43" s="3">
-        <v>-7.2474000000000002E-16</v>
-      </c>
-      <c r="S43" s="3">
-        <v>-9.9143000000000002E-16</v>
-      </c>
-      <c r="T43" s="3">
-        <v>-1.1566E-17</v>
-      </c>
-      <c r="U43" s="3">
-        <v>-2.9316999999999999E-17</v>
-      </c>
-      <c r="V43" s="3">
-        <v>-2.4076999999999998E-31</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B44" s="3">
-        <f t="shared" si="2"/>
-        <v>4.2161400000000001E-4</v>
-      </c>
-      <c r="C44" s="3">
-        <f t="shared" si="3"/>
-        <v>1.73898E-3</v>
-      </c>
-      <c r="D44" s="3">
-        <f t="shared" si="4"/>
-        <v>3.3594300000000001E-3</v>
-      </c>
-      <c r="E44" s="3">
-        <f t="shared" si="5"/>
-        <v>3.3318899999999997E-3</v>
-      </c>
-      <c r="F44" s="3">
-        <f t="shared" si="6"/>
-        <v>9.7371E-19</v>
-      </c>
-      <c r="G44" s="3">
-        <f t="shared" si="7"/>
-        <v>-6.46416E-3</v>
-      </c>
-      <c r="H44" s="3">
-        <f t="shared" si="8"/>
-        <v>-1.3004099999999999E-2</v>
-      </c>
-      <c r="I44" s="3">
-        <f t="shared" si="9"/>
-        <v>-1.5800399999999999E-2</v>
-      </c>
-      <c r="J44" s="3">
-        <f t="shared" si="10"/>
-        <v>-1.16676E-2</v>
-      </c>
-      <c r="K44" s="3">
-        <f t="shared" si="11"/>
-        <v>-5.7110400000000004E-18</v>
-      </c>
-      <c r="M44">
-        <v>-4.6845999999999999E-2</v>
-      </c>
-      <c r="N44">
-        <v>-0.19322</v>
-      </c>
-      <c r="O44">
-        <v>-0.37326999999999999</v>
-      </c>
-      <c r="P44">
-        <v>-0.37020999999999998</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>-1.0819E-16</v>
-      </c>
-      <c r="R44">
-        <v>0.71823999999999999</v>
-      </c>
-      <c r="S44">
-        <v>1.4449000000000001</v>
-      </c>
-      <c r="T44">
-        <v>1.7556</v>
-      </c>
-      <c r="U44">
-        <v>1.2964</v>
-      </c>
-      <c r="V44" s="3">
-        <v>6.3456E-16</v>
-      </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B45" s="3">
-        <f t="shared" si="2"/>
-        <v>-4.75614E-8</v>
-      </c>
-      <c r="C45" s="3">
-        <f t="shared" si="3"/>
-        <v>9.635399999999999E-8</v>
-      </c>
-      <c r="D45" s="3">
-        <f t="shared" si="4"/>
-        <v>-3.9852E-7</v>
-      </c>
-      <c r="E45" s="3">
-        <f t="shared" si="5"/>
-        <v>-5.7715200000000001E-7</v>
-      </c>
-      <c r="F45" s="3">
-        <f t="shared" si="6"/>
-        <v>-6.1309800000000009E-23</v>
-      </c>
-      <c r="G45" s="3">
-        <f t="shared" si="7"/>
-        <v>-2.6595000000000002E-7</v>
-      </c>
-      <c r="H45" s="3">
-        <f t="shared" si="8"/>
-        <v>-1.73313E-6</v>
-      </c>
-      <c r="I45" s="3">
-        <f t="shared" si="9"/>
-        <v>-2.5242299999999999E-6</v>
-      </c>
-      <c r="J45" s="3">
-        <f t="shared" si="10"/>
-        <v>-2.1491999999999997E-6</v>
-      </c>
-      <c r="K45" s="3">
-        <f t="shared" si="11"/>
-        <v>-1.2278700000000001E-21</v>
-      </c>
-      <c r="M45" s="3">
-        <v>5.2846000000000002E-6</v>
-      </c>
-      <c r="N45" s="3">
-        <v>-1.0706E-5</v>
-      </c>
-      <c r="O45" s="3">
-        <v>4.4280000000000003E-5</v>
-      </c>
-      <c r="P45" s="3">
-        <v>6.4128000000000007E-5</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>6.8122000000000001E-21</v>
-      </c>
-      <c r="R45" s="3">
-        <v>2.955E-5</v>
-      </c>
-      <c r="S45">
-        <v>1.9257000000000001E-4</v>
-      </c>
-      <c r="T45">
-        <v>2.8047E-4</v>
-      </c>
-      <c r="U45">
-        <v>2.388E-4</v>
-      </c>
-      <c r="V45" s="3">
-        <v>1.3642999999999999E-19</v>
-      </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B46" s="3">
-        <f t="shared" si="2"/>
-        <v>-4.7897099999999998E-18</v>
-      </c>
-      <c r="C46" s="3">
-        <f t="shared" si="3"/>
-        <v>-1.6594200000000001E-17</v>
-      </c>
-      <c r="D46" s="3">
-        <f t="shared" si="4"/>
-        <v>-1.0293300000000001E-17</v>
-      </c>
-      <c r="E46" s="3">
-        <f t="shared" si="5"/>
-        <v>-8.3102400000000005E-20</v>
-      </c>
-      <c r="F46" s="3">
-        <f t="shared" si="6"/>
-        <v>-5.0378400000000002E-34</v>
-      </c>
-      <c r="G46" s="3">
-        <f t="shared" si="7"/>
-        <v>8.8049699999999998E-18</v>
-      </c>
-      <c r="H46" s="3">
-        <f t="shared" si="8"/>
-        <v>1.1716199999999999E-17</v>
-      </c>
-      <c r="I46" s="3">
-        <f t="shared" si="9"/>
-        <v>3.8523599999999998E-19</v>
-      </c>
-      <c r="J46" s="3">
-        <f t="shared" si="10"/>
-        <v>3.3041699999999997E-19</v>
-      </c>
-      <c r="K46" s="3">
-        <f t="shared" si="11"/>
-        <v>2.8378799999999998E-33</v>
-      </c>
-      <c r="M46" s="3">
-        <v>5.3218999999999998E-16</v>
-      </c>
-      <c r="N46" s="3">
-        <v>1.8438000000000001E-15</v>
-      </c>
-      <c r="O46" s="3">
-        <v>1.1437E-15</v>
-      </c>
-      <c r="P46" s="3">
-        <v>9.2335999999999999E-18</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>5.5976000000000002E-32</v>
-      </c>
-      <c r="R46" s="3">
-        <v>-9.7833000000000006E-16</v>
-      </c>
-      <c r="S46" s="3">
-        <v>-1.3018E-15</v>
-      </c>
-      <c r="T46" s="3">
-        <v>-4.2804000000000001E-17</v>
-      </c>
-      <c r="U46" s="3">
-        <v>-3.6712999999999999E-17</v>
-      </c>
-      <c r="V46" s="3">
-        <v>-3.1531999999999999E-31</v>
-      </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B47" s="3">
-        <f t="shared" si="2"/>
-        <v>3.6350100000000003E-5</v>
-      </c>
-      <c r="C47" s="3">
-        <f t="shared" si="3"/>
-        <v>8.5830300000000004E-4</v>
-      </c>
-      <c r="D47" s="3">
-        <f t="shared" si="4"/>
-        <v>1.76958E-3</v>
-      </c>
-      <c r="E47" s="3">
-        <f t="shared" si="5"/>
-        <v>1.8879300000000001E-3</v>
-      </c>
-      <c r="F47" s="3">
-        <f t="shared" si="6"/>
-        <v>6.9480899999999999E-19</v>
-      </c>
-      <c r="G47" s="3">
-        <f t="shared" si="7"/>
-        <v>-4.9757400000000002E-3</v>
-      </c>
-      <c r="H47" s="3">
-        <f t="shared" si="8"/>
-        <v>-1.1465100000000001E-2</v>
-      </c>
-      <c r="I47" s="3">
-        <f t="shared" si="9"/>
-        <v>-1.47942E-2</v>
-      </c>
-      <c r="J47" s="3">
-        <f t="shared" si="10"/>
-        <v>-1.1308499999999999E-2</v>
-      </c>
-      <c r="K47" s="3">
-        <f t="shared" si="11"/>
-        <v>-5.7052800000000005E-18</v>
-      </c>
-      <c r="M47">
-        <v>-4.0388999999999998E-3</v>
-      </c>
-      <c r="N47">
-        <v>-9.5366999999999993E-2</v>
-      </c>
-      <c r="O47">
-        <v>-0.19661999999999999</v>
-      </c>
-      <c r="P47">
-        <v>-0.20977000000000001</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>-7.7200999999999995E-17</v>
-      </c>
-      <c r="R47">
-        <v>0.55286000000000002</v>
-      </c>
-      <c r="S47">
-        <v>1.2739</v>
-      </c>
-      <c r="T47">
-        <v>1.6437999999999999</v>
-      </c>
-      <c r="U47">
-        <v>1.2565</v>
-      </c>
-      <c r="V47" s="3">
-        <v>6.3391999999999995E-16</v>
-      </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B48" s="3">
-        <f t="shared" si="2"/>
-        <v>-3.7719E-7</v>
-      </c>
-      <c r="C48" s="3">
-        <f t="shared" si="3"/>
-        <v>-1.48491E-6</v>
-      </c>
-      <c r="D48" s="3">
-        <f t="shared" si="4"/>
-        <v>-2.1707100000000001E-6</v>
-      </c>
-      <c r="E48" s="3">
-        <f t="shared" si="5"/>
-        <v>-1.68768E-6</v>
-      </c>
-      <c r="F48" s="3">
-        <f t="shared" si="6"/>
-        <v>-4.1804999999999994E-22</v>
-      </c>
-      <c r="G48" s="3">
-        <f t="shared" si="7"/>
-        <v>2.5713900000000002E-6</v>
-      </c>
-      <c r="H48" s="3">
-        <f t="shared" si="8"/>
-        <v>4.2714899999999998E-6</v>
-      </c>
-      <c r="I48" s="3">
-        <f t="shared" si="9"/>
-        <v>4.0167899999999995E-6</v>
-      </c>
-      <c r="J48" s="3">
-        <f t="shared" si="10"/>
-        <v>2.5457399999999999E-6</v>
-      </c>
-      <c r="K48" s="3">
-        <f t="shared" si="11"/>
-        <v>1.2247200000000001E-21</v>
-      </c>
-      <c r="M48" s="3">
-        <v>4.1909999999999997E-5</v>
-      </c>
-      <c r="N48">
-        <v>1.6499E-4</v>
-      </c>
-      <c r="O48">
-        <v>2.4119000000000001E-4</v>
-      </c>
-      <c r="P48">
-        <v>1.8751999999999999E-4</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>4.6450000000000001E-20</v>
-      </c>
-      <c r="R48">
-        <v>-2.8571E-4</v>
-      </c>
-      <c r="S48">
-        <v>-4.7460999999999998E-4</v>
-      </c>
-      <c r="T48">
-        <v>-4.4631E-4</v>
-      </c>
-      <c r="U48">
-        <v>-2.8286000000000001E-4</v>
-      </c>
-      <c r="V48" s="3">
-        <v>-1.3608000000000001E-19</v>
-      </c>
-    </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="B49" s="3">
-        <f t="shared" si="2"/>
-        <v>-5.3673299999999999E-18</v>
-      </c>
-      <c r="C49" s="3">
-        <f t="shared" si="3"/>
-        <v>-1.9089899999999999E-17</v>
-      </c>
-      <c r="D49" s="3">
-        <f t="shared" si="4"/>
-        <v>-1.19493E-17</v>
-      </c>
-      <c r="E49" s="3">
-        <f t="shared" si="5"/>
-        <v>4.5219599999999999E-21</v>
-      </c>
-      <c r="F49" s="3">
-        <f t="shared" si="6"/>
-        <v>-6.5540699999999994E-34</v>
-      </c>
-      <c r="G49" s="3">
-        <f t="shared" si="7"/>
-        <v>1.05831E-17</v>
-      </c>
-      <c r="H49" s="3">
-        <f t="shared" si="8"/>
-        <v>1.3606199999999999E-17</v>
-      </c>
-      <c r="I49" s="3">
-        <f t="shared" si="9"/>
-        <v>5.9024700000000002E-19</v>
-      </c>
-      <c r="J49" s="3">
-        <f t="shared" si="10"/>
-        <v>4.0091400000000002E-19</v>
-      </c>
-      <c r="K49" s="3">
-        <f t="shared" si="11"/>
-        <v>3.3670800000000003E-33</v>
-      </c>
-      <c r="M49" s="3">
-        <v>5.9636999999999997E-16</v>
-      </c>
-      <c r="N49" s="3">
-        <v>2.1211000000000001E-15</v>
-      </c>
-      <c r="O49" s="3">
-        <v>1.3277000000000001E-15</v>
-      </c>
-      <c r="P49" s="3">
-        <v>-5.0244000000000004E-19</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>7.2822999999999995E-32</v>
-      </c>
-      <c r="R49" s="3">
-        <v>-1.1759E-15</v>
-      </c>
-      <c r="S49" s="3">
-        <v>-1.5118E-15</v>
-      </c>
-      <c r="T49" s="3">
-        <v>-6.5583E-17</v>
-      </c>
-      <c r="U49" s="3">
-        <v>-4.4545999999999997E-17</v>
-      </c>
-      <c r="V49" s="3">
-        <v>-3.7411999999999998E-31</v>
-      </c>
-    </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="B50" s="3">
-        <f t="shared" si="2"/>
-        <v>-1.8551700000000001E-5</v>
-      </c>
-      <c r="C50" s="3">
-        <f t="shared" si="3"/>
-        <v>-2.5021800000000002E-4</v>
-      </c>
-      <c r="D50" s="3">
-        <f t="shared" si="4"/>
-        <v>1.3056299999999999E-4</v>
-      </c>
-      <c r="E50" s="3">
-        <f t="shared" si="5"/>
-        <v>6.8281199999999998E-4</v>
-      </c>
-      <c r="F50" s="3">
-        <f t="shared" si="6"/>
-        <v>2.8036799999999999E-19</v>
-      </c>
-      <c r="G50" s="3">
-        <f t="shared" si="7"/>
-        <v>-2.3813100000000002E-3</v>
-      </c>
-      <c r="H50" s="3">
-        <f t="shared" si="8"/>
-        <v>-5.9478300000000003E-3</v>
-      </c>
-      <c r="I50" s="3">
-        <f t="shared" si="9"/>
-        <v>-8.7199199999999991E-3</v>
-      </c>
-      <c r="J50" s="3">
-        <f t="shared" si="10"/>
-        <v>-7.0520399999999999E-3</v>
-      </c>
-      <c r="K50" s="3">
-        <f t="shared" si="11"/>
-        <v>-3.4601400000000003E-18</v>
-      </c>
-      <c r="M50">
-        <v>2.0612999999999999E-3</v>
-      </c>
-      <c r="N50">
-        <v>2.7802E-2</v>
-      </c>
-      <c r="O50">
-        <v>-1.4507000000000001E-2</v>
-      </c>
-      <c r="P50">
-        <v>-7.5868000000000005E-2</v>
-      </c>
-      <c r="Q50" s="3">
-        <v>-3.1152000000000002E-17</v>
-      </c>
-      <c r="R50">
-        <v>0.26458999999999999</v>
-      </c>
-      <c r="S50">
-        <v>0.66086999999999996</v>
-      </c>
-      <c r="T50">
-        <v>0.96887999999999996</v>
-      </c>
-      <c r="U50">
-        <v>0.78356000000000003</v>
-      </c>
-      <c r="V50" s="3">
-        <v>3.8445999999999999E-16</v>
-      </c>
-    </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="B51" s="3">
-        <f t="shared" si="2"/>
-        <v>1.7356500000000001E-7</v>
-      </c>
-      <c r="C51" s="3">
-        <f t="shared" si="3"/>
-        <v>-4.0107600000000004E-7</v>
-      </c>
-      <c r="D51" s="3">
-        <f t="shared" si="4"/>
-        <v>-7.7569200000000003E-7</v>
-      </c>
-      <c r="E51" s="3">
-        <f t="shared" si="5"/>
-        <v>-7.497809999999999E-7</v>
-      </c>
-      <c r="F51" s="3">
-        <f t="shared" si="6"/>
-        <v>-3.5481600000000003E-22</v>
-      </c>
-      <c r="G51" s="3">
-        <f t="shared" si="7"/>
-        <v>2.4171300000000001E-6</v>
-      </c>
-      <c r="H51" s="3">
-        <f t="shared" si="8"/>
-        <v>6.0596999999999998E-6</v>
-      </c>
-      <c r="I51" s="3">
-        <f t="shared" si="9"/>
-        <v>7.7052600000000012E-6</v>
-      </c>
-      <c r="J51" s="3">
-        <f t="shared" si="10"/>
-        <v>5.8708799999999994E-6</v>
-      </c>
-      <c r="K51" s="3">
-        <f t="shared" si="11"/>
-        <v>3.0567599999999997E-21</v>
-      </c>
-      <c r="M51" s="3">
-        <v>-1.9284999999999999E-5</v>
-      </c>
-      <c r="N51" s="3">
-        <v>4.4564000000000002E-5</v>
-      </c>
-      <c r="O51" s="3">
-        <v>8.6187999999999995E-5</v>
-      </c>
-      <c r="P51" s="3">
-        <v>8.3308999999999998E-5</v>
-      </c>
-      <c r="Q51" s="3">
-        <v>3.9423999999999997E-20</v>
-      </c>
-      <c r="R51">
-        <v>-2.6856999999999998E-4</v>
-      </c>
-      <c r="S51">
-        <v>-6.7330000000000005E-4</v>
-      </c>
-      <c r="T51">
-        <v>-8.5614000000000003E-4</v>
-      </c>
-      <c r="U51">
-        <v>-6.5231999999999996E-4</v>
-      </c>
-      <c r="V51" s="3">
-        <v>-3.3963999999999998E-19</v>
-      </c>
-    </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="B52" s="3">
-        <f t="shared" si="2"/>
-        <v>-5.2967700000000002E-18</v>
-      </c>
-      <c r="C52" s="3">
-        <f t="shared" si="3"/>
-        <v>-1.9137599999999999E-17</v>
-      </c>
-      <c r="D52" s="3">
-        <f t="shared" si="4"/>
-        <v>-1.1908799999999999E-17</v>
-      </c>
-      <c r="E52" s="3">
-        <f t="shared" si="5"/>
-        <v>4.6047599999999994E-19</v>
-      </c>
-      <c r="F52" s="3">
-        <f t="shared" si="6"/>
-        <v>-5.8167899999999998E-34</v>
-      </c>
-      <c r="G52" s="3">
-        <f t="shared" si="7"/>
-        <v>1.06497E-17</v>
-      </c>
-      <c r="H52" s="3">
-        <f t="shared" si="8"/>
-        <v>1.3509900000000001E-17</v>
-      </c>
-      <c r="I52" s="3">
-        <f t="shared" si="9"/>
-        <v>-2.63691E-19</v>
-      </c>
-      <c r="J52" s="3">
-        <f t="shared" si="10"/>
-        <v>-7.2846900000000003E-20</v>
-      </c>
-      <c r="K52" s="3">
-        <f t="shared" si="11"/>
-        <v>3.49038E-33</v>
-      </c>
-      <c r="M52" s="3">
-        <v>5.8853000000000002E-16</v>
-      </c>
-      <c r="N52" s="3">
-        <v>2.1264E-15</v>
-      </c>
-      <c r="O52" s="3">
-        <v>1.3232000000000001E-15</v>
-      </c>
-      <c r="P52" s="3">
-        <v>-5.1164000000000003E-17</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>6.4630999999999998E-32</v>
-      </c>
-      <c r="R52" s="3">
-        <v>-1.1832999999999999E-15</v>
-      </c>
-      <c r="S52" s="3">
-        <v>-1.5011000000000001E-15</v>
-      </c>
-      <c r="T52" s="3">
-        <v>2.9298999999999998E-17</v>
-      </c>
-      <c r="U52" s="3">
-        <v>8.0941000000000007E-18</v>
-      </c>
-      <c r="V52" s="3">
-        <v>-3.8782000000000001E-31</v>
-      </c>
-    </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="B53" s="3">
-        <f t="shared" si="2"/>
-        <v>-1.48329E-7</v>
-      </c>
-      <c r="C53" s="3">
-        <f t="shared" si="3"/>
-        <v>6.0511500000000003E-7</v>
-      </c>
-      <c r="D53" s="3">
-        <f t="shared" si="4"/>
-        <v>1.6676099999999999E-7</v>
-      </c>
-      <c r="E53" s="3">
-        <f t="shared" si="5"/>
-        <v>-7.1336700000000006E-7</v>
-      </c>
-      <c r="F53" s="3">
-        <f t="shared" si="6"/>
-        <v>-2.4158699999999997E-22</v>
-      </c>
-      <c r="G53" s="3">
-        <f t="shared" si="7"/>
-        <v>2.4238800000000001E-6</v>
-      </c>
-      <c r="H53" s="3">
-        <f t="shared" si="8"/>
-        <v>5.8668299999999999E-6</v>
-      </c>
-      <c r="I53" s="3">
-        <f t="shared" si="9"/>
-        <v>9.3384000000000002E-6</v>
-      </c>
-      <c r="J53" s="3">
-        <f t="shared" si="10"/>
-        <v>7.7282100000000007E-6</v>
-      </c>
-      <c r="K53" s="3">
-        <f t="shared" si="11"/>
-        <v>3.6764100000000003E-21</v>
-      </c>
-      <c r="M53" s="3">
-        <v>1.6481E-5</v>
-      </c>
-      <c r="N53" s="3">
-        <v>-6.7235000000000003E-5</v>
-      </c>
-      <c r="O53" s="3">
-        <v>-1.8529000000000002E-5</v>
-      </c>
-      <c r="P53" s="3">
-        <v>7.9263000000000003E-5</v>
-      </c>
-      <c r="Q53" s="3">
-        <v>2.6842999999999999E-20</v>
-      </c>
-      <c r="R53">
-        <v>-2.6931999999999998E-4</v>
-      </c>
-      <c r="S53">
-        <v>-6.5187000000000003E-4</v>
-      </c>
-      <c r="T53">
-        <v>-1.0376000000000001E-3</v>
-      </c>
-      <c r="U53">
-        <v>-8.5868999999999995E-4</v>
-      </c>
-      <c r="V53" s="3">
-        <v>-4.0849E-19</v>
-      </c>
-    </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="B54" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C54" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D54" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E54" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F54" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G54" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H54" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I54" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J54" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K54" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>44</v>
-      </c>
-      <c r="B55">
-        <v>0</v>
-      </c>
-      <c r="C55">
-        <v>10</v>
-      </c>
-      <c r="D55">
-        <v>20</v>
-      </c>
-      <c r="E55">
-        <v>30</v>
-      </c>
-      <c r="F55">
-        <v>40</v>
-      </c>
-      <c r="G55">
-        <v>50</v>
-      </c>
-      <c r="H55">
-        <v>60</v>
-      </c>
-      <c r="I55">
-        <v>70</v>
-      </c>
-      <c r="J55">
-        <v>80</v>
-      </c>
-      <c r="K55">
-        <v>90</v>
-      </c>
-      <c r="L55">
-        <v>100</v>
-      </c>
-      <c r="M55">
-        <v>110</v>
-      </c>
-      <c r="N55">
-        <v>120</v>
-      </c>
-      <c r="O55">
-        <v>130</v>
-      </c>
-      <c r="P55">
-        <v>140</v>
-      </c>
-      <c r="Q55">
-        <v>150</v>
-      </c>
-      <c r="R55">
-        <v>160</v>
-      </c>
-      <c r="S55">
-        <v>170</v>
-      </c>
-      <c r="T55">
-        <v>180</v>
-      </c>
-      <c r="U55">
-        <v>190</v>
-      </c>
-      <c r="V55">
-        <v>200</v>
-      </c>
-      <c r="W55">
-        <v>210</v>
-      </c>
-      <c r="X55">
-        <v>220</v>
-      </c>
-      <c r="Y55">
-        <v>230</v>
-      </c>
-      <c r="Z55">
-        <v>240</v>
-      </c>
-      <c r="AA55">
-        <v>250</v>
-      </c>
-      <c r="AB55">
-        <v>260</v>
-      </c>
-      <c r="AC55">
-        <v>270</v>
-      </c>
-      <c r="AD55">
-        <v>280</v>
-      </c>
-      <c r="AE55">
-        <v>290</v>
-      </c>
-      <c r="AF55">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A56">
-        <v>1</v>
-      </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-      <c r="C56" s="3">
-        <v>-1.9464000000000001E-6</v>
-      </c>
-      <c r="D56" s="3">
-        <v>-1.6869E-8</v>
-      </c>
-      <c r="E56" s="3">
-        <v>-3.1864999999999999E-6</v>
-      </c>
-      <c r="F56" s="3">
-        <v>-9.9271000000000003E-8</v>
-      </c>
-      <c r="G56" s="3">
-        <v>1.0478999999999999E-21</v>
-      </c>
-      <c r="H56" s="3">
-        <v>2.762E-7</v>
-      </c>
-      <c r="I56" s="3">
-        <v>2.9598999999999998E-6</v>
-      </c>
-      <c r="J56" s="3">
-        <v>7.1055999999999998E-7</v>
-      </c>
-      <c r="K56" s="3">
-        <v>1.7446E-6</v>
-      </c>
-      <c r="L56" s="3">
-        <v>-6.4048999999999999E-22</v>
-      </c>
-      <c r="M56" s="3">
-        <v>-1.5719999999999999E-6</v>
-      </c>
-      <c r="N56" s="3">
-        <v>-1.2526000000000001E-6</v>
-      </c>
-      <c r="O56" s="3">
-        <v>-2.1428E-6</v>
-      </c>
-      <c r="P56" s="3">
-        <v>-9.4560999999999996E-7</v>
-      </c>
-      <c r="Q56" s="3">
-        <v>-6.8363999999999999E-22</v>
-      </c>
-      <c r="R56" s="3">
-        <v>1.0659E-6</v>
-      </c>
-      <c r="S56" s="3">
-        <v>1.3955E-6</v>
-      </c>
-      <c r="T56" s="3">
-        <v>1.9976000000000002E-6</v>
-      </c>
-      <c r="U56" s="3">
-        <v>6.0782000000000005E-7</v>
-      </c>
-      <c r="V56" s="3">
-        <v>-3.1623E-21</v>
-      </c>
-      <c r="W56" s="3">
-        <v>-4.1890000000000003E-7</v>
-      </c>
-      <c r="X56" s="3">
-        <v>-2.6029999999999999E-6</v>
-      </c>
-      <c r="Y56" s="3">
-        <v>-5.0999999999999999E-7</v>
-      </c>
-      <c r="Z56" s="3">
-        <v>-1.7853000000000001E-6</v>
-      </c>
-      <c r="AA56" s="3">
-        <v>4.2232000000000001E-22</v>
-      </c>
-      <c r="AB56" s="3">
-        <v>1.9885000000000001E-6</v>
-      </c>
-      <c r="AC56" s="3">
-        <v>2.1995999999999999E-7</v>
-      </c>
-      <c r="AD56" s="3">
-        <v>3.3967999999999998E-6</v>
-      </c>
-      <c r="AE56" s="3">
-        <v>1.3108000000000001E-7</v>
-      </c>
-      <c r="AF56" s="3">
-        <v>2.6583000000000001E-21</v>
-      </c>
-    </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A57">
-        <v>2</v>
-      </c>
-      <c r="B57">
-        <v>0</v>
-      </c>
-      <c r="C57" s="3">
-        <v>2.4827000000000002E-19</v>
-      </c>
-      <c r="D57" s="3">
-        <v>3.6036999999999998E-19</v>
-      </c>
-      <c r="E57" s="3">
-        <v>-5.9810000000000004E-20</v>
-      </c>
-      <c r="F57" s="3">
-        <v>4.1841999999999999E-19</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1.8782999999999999E-35</v>
-      </c>
-      <c r="H57" s="3">
-        <v>-2.2474000000000002E-19</v>
-      </c>
-      <c r="I57" s="3">
-        <v>-3.6412999999999999E-19</v>
-      </c>
-      <c r="J57" s="3">
-        <v>-2.6858E-21</v>
-      </c>
-      <c r="K57" s="3">
-        <v>-2.9768999999999998E-19</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1.6066999999999999E-34</v>
-      </c>
-      <c r="M57" s="3">
-        <v>2.5282000000000001E-20</v>
-      </c>
-      <c r="N57" s="3">
-        <v>6.4395000000000005E-19</v>
-      </c>
-      <c r="O57" s="3">
-        <v>-7.2388000000000004E-20</v>
-      </c>
-      <c r="P57" s="3">
-        <v>2.0499000000000001E-19</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>1.7237000000000001E-34</v>
-      </c>
-      <c r="R57" s="3">
-        <v>5.1422999999999999E-20</v>
-      </c>
-      <c r="S57" s="3">
-        <v>-5.7332999999999996E-19</v>
-      </c>
-      <c r="T57" s="3">
-        <v>-1.5830999999999999E-19</v>
-      </c>
-      <c r="U57" s="3">
-        <v>-8.8512000000000005E-20</v>
-      </c>
-      <c r="V57" s="3">
-        <v>7.1077000000000001E-34</v>
-      </c>
-      <c r="W57" s="3">
-        <v>-9.9899000000000007E-21</v>
-      </c>
-      <c r="X57" s="3">
-        <v>3.2700000000000002E-19</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>4.7607999999999995E-19</v>
-      </c>
-      <c r="Z57" s="3">
-        <v>-9.5107999999999998E-20</v>
-      </c>
-      <c r="AA57" s="3">
-        <v>-8.5755999999999993E-34</v>
-      </c>
-      <c r="AB57" s="3">
-        <v>-2.6046000000000001E-20</v>
-      </c>
-      <c r="AC57" s="3">
-        <v>-1.7220000000000001E-19</v>
-      </c>
-      <c r="AD57" s="3">
-        <v>-5.0372999999999996E-19</v>
-      </c>
-      <c r="AE57" s="3">
-        <v>-1.3658999999999999E-20</v>
-      </c>
-      <c r="AF57" s="3">
-        <v>-2.2758999999999999E-34</v>
-      </c>
-    </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A58" s="8">
-        <v>3</v>
-      </c>
-      <c r="B58">
-        <v>0</v>
-      </c>
-      <c r="C58">
-        <v>-1.8548E-3</v>
-      </c>
-      <c r="D58" s="3">
-        <v>-3.8983999999999998E-5</v>
-      </c>
-      <c r="E58">
-        <v>-2.9865E-3</v>
-      </c>
-      <c r="F58">
-        <v>-1.0833E-4</v>
-      </c>
-      <c r="G58" s="3">
-        <v>9.8622000000000006E-19</v>
-      </c>
-      <c r="H58">
-        <v>2.4553999999999998E-4</v>
-      </c>
-      <c r="I58">
-        <v>2.7899999999999999E-3</v>
-      </c>
-      <c r="J58">
-        <v>6.4201999999999998E-4</v>
-      </c>
-      <c r="K58">
-        <v>1.6153000000000001E-3</v>
-      </c>
-      <c r="L58" s="3">
-        <v>-6.0430000000000003E-19</v>
-      </c>
-      <c r="M58">
-        <v>-1.4541000000000001E-3</v>
-      </c>
-      <c r="N58">
-        <v>-1.1620999999999999E-3</v>
-      </c>
-      <c r="O58">
-        <v>-2.0143000000000001E-3</v>
-      </c>
-      <c r="P58">
-        <v>-8.7593999999999997E-4</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>-6.4002000000000002E-19</v>
-      </c>
-      <c r="R58">
-        <v>1.023E-3</v>
-      </c>
-      <c r="S58">
-        <v>1.2978E-3</v>
-      </c>
-      <c r="T58">
-        <v>1.918E-3</v>
-      </c>
-      <c r="U58">
-        <v>5.8646000000000002E-4</v>
-      </c>
-      <c r="V58" s="3">
-        <v>-2.9799999999999999E-18</v>
-      </c>
-      <c r="W58">
-        <v>-4.1287000000000002E-4</v>
-      </c>
-      <c r="X58">
-        <v>-2.4784E-3</v>
-      </c>
-      <c r="Y58">
-        <v>-4.7008E-4</v>
-      </c>
-      <c r="Z58">
-        <v>-1.6982E-3</v>
-      </c>
-      <c r="AA58" s="3">
-        <v>3.9015E-19</v>
-      </c>
-      <c r="AB58">
-        <v>1.8518E-3</v>
-      </c>
-      <c r="AC58">
-        <v>2.1828E-4</v>
-      </c>
-      <c r="AD58">
-        <v>3.1622999999999998E-3</v>
-      </c>
-      <c r="AE58">
-        <v>1.0881E-4</v>
-      </c>
-      <c r="AF58" s="3">
-        <v>2.4915000000000002E-18</v>
-      </c>
-    </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A59">
-        <v>4</v>
-      </c>
-      <c r="B59">
-        <v>0</v>
-      </c>
-      <c r="C59" s="3">
-        <v>-1.6659E-6</v>
-      </c>
-      <c r="D59" s="3">
-        <v>-6.8387000000000002E-8</v>
-      </c>
-      <c r="E59" s="3">
-        <v>-2.6118999999999999E-6</v>
-      </c>
-      <c r="F59" s="3">
-        <v>-1.1498E-7</v>
-      </c>
-      <c r="G59" s="3">
-        <v>8.6262000000000009E-22</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1.8799E-7</v>
-      </c>
-      <c r="I59" s="3">
-        <v>2.4416000000000001E-6</v>
-      </c>
-      <c r="J59" s="3">
-        <v>5.1473E-7</v>
-      </c>
-      <c r="K59" s="3">
-        <v>1.3680000000000001E-6</v>
-      </c>
-      <c r="L59" s="3">
-        <v>-5.2641999999999997E-22</v>
-      </c>
-      <c r="M59" s="3">
-        <v>-1.2220999999999999E-6</v>
-      </c>
-      <c r="N59" s="3">
-        <v>-9.8601000000000003E-7</v>
-      </c>
-      <c r="O59" s="3">
-        <v>-1.7455000000000001E-6</v>
-      </c>
-      <c r="P59" s="3">
-        <v>-7.5089000000000002E-7</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>-5.5131000000000002E-22</v>
-      </c>
-      <c r="R59" s="3">
-        <v>9.3172999999999999E-7</v>
-      </c>
-      <c r="S59" s="3">
-        <v>1.1051E-6</v>
-      </c>
-      <c r="T59" s="3">
-        <v>1.7467999999999999E-6</v>
-      </c>
-      <c r="U59" s="3">
-        <v>5.3608000000000002E-7</v>
-      </c>
-      <c r="V59" s="3">
-        <v>-2.6432999999999999E-21</v>
-      </c>
-      <c r="W59" s="3">
-        <v>-3.9024999999999999E-7</v>
-      </c>
-      <c r="X59" s="3">
-        <v>-2.2199999999999999E-6</v>
-      </c>
-      <c r="Y59" s="3">
-        <v>-3.9737000000000002E-7</v>
-      </c>
-      <c r="Z59" s="3">
-        <v>-1.5122999999999999E-6</v>
-      </c>
-      <c r="AA59" s="3">
-        <v>3.3283000000000001E-22</v>
-      </c>
-      <c r="AB59" s="3">
-        <v>1.5904000000000001E-6</v>
-      </c>
-      <c r="AC59" s="3">
-        <v>2.0520000000000001E-7</v>
-      </c>
-      <c r="AD59" s="3">
-        <v>2.6952E-6</v>
-      </c>
-      <c r="AE59" s="3">
-        <v>7.0779000000000001E-8</v>
-      </c>
-      <c r="AF59" s="3">
-        <v>2.1481000000000002E-21</v>
-      </c>
-    </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A60">
-        <v>5</v>
-      </c>
-      <c r="B60">
-        <v>0</v>
-      </c>
-      <c r="C60" s="3">
-        <v>4.8262E-19</v>
-      </c>
-      <c r="D60" s="3">
-        <v>6.7788000000000001E-19</v>
-      </c>
-      <c r="E60" s="3">
-        <v>-1.7374999999999999E-19</v>
-      </c>
-      <c r="F60" s="3">
-        <v>8.0925000000000005E-19</v>
-      </c>
-      <c r="G60" s="3">
-        <v>5.4284999999999998E-35</v>
-      </c>
-      <c r="H60" s="3">
-        <v>-4.2624000000000001E-19</v>
-      </c>
-      <c r="I60" s="3">
-        <v>-7.5234999999999999E-19</v>
-      </c>
-      <c r="J60" s="3">
-        <v>1.8839000000000001E-20</v>
-      </c>
-      <c r="K60" s="3">
-        <v>-5.5395000000000005E-19</v>
-      </c>
-      <c r="L60" s="3">
-        <v>3.1725999999999999E-34</v>
-      </c>
-      <c r="M60" s="3">
-        <v>-2.7879E-21</v>
-      </c>
-      <c r="N60" s="3">
-        <v>1.2182E-18</v>
-      </c>
-      <c r="O60" s="3">
-        <v>-1.1198E-19</v>
-      </c>
-      <c r="P60" s="3">
-        <v>3.8768999999999999E-19</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>3.4183000000000001E-34</v>
-      </c>
-      <c r="R60" s="3">
-        <v>1.1167999999999999E-19</v>
-      </c>
-      <c r="S60" s="3">
-        <v>-1.0448E-18</v>
-      </c>
-      <c r="T60" s="3">
-        <v>-2.8560999999999998E-19</v>
-      </c>
-      <c r="U60" s="3">
-        <v>-1.3761E-19</v>
-      </c>
-      <c r="V60" s="3">
-        <v>1.3839E-33</v>
-      </c>
-      <c r="W60" s="3">
-        <v>2.2531E-20</v>
-      </c>
-      <c r="X60" s="3">
-        <v>5.7800999999999996E-19</v>
-      </c>
-      <c r="Y60" s="3">
-        <v>9.1930999999999993E-19</v>
-      </c>
-      <c r="Z60" s="3">
-        <v>-2.0209999999999999E-19</v>
-      </c>
-      <c r="AA60" s="3">
-        <v>-1.5259E-33</v>
-      </c>
-      <c r="AB60" s="3">
-        <v>-5.9004000000000006E-20</v>
-      </c>
-      <c r="AC60" s="3">
-        <v>-3.7191E-19</v>
-      </c>
-      <c r="AD60" s="3">
-        <v>-9.5001000000000008E-19</v>
-      </c>
-      <c r="AE60" s="3">
-        <v>-5.6210999999999998E-20</v>
-      </c>
-      <c r="AF60" s="3">
-        <v>-3.8944000000000003E-34</v>
-      </c>
-    </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A61" s="8">
-        <v>6</v>
-      </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-      <c r="C61">
-        <v>-3.0825000000000002E-3</v>
-      </c>
-      <c r="D61" s="3">
-        <v>-8.1460999999999998E-5</v>
-      </c>
-      <c r="E61">
-        <v>-4.8846999999999996E-3</v>
-      </c>
-      <c r="F61">
-        <v>-1.6991E-4</v>
-      </c>
-      <c r="G61" s="3">
-        <v>1.5979E-18</v>
-      </c>
-      <c r="H61">
-        <v>3.3688000000000001E-4</v>
-      </c>
-      <c r="I61">
-        <v>4.4745000000000002E-3</v>
-      </c>
-      <c r="J61">
-        <v>9.2082000000000004E-4</v>
-      </c>
-      <c r="K61">
-        <v>2.5339E-3</v>
-      </c>
-      <c r="L61" s="3">
-        <v>-9.198299999999999E-19</v>
-      </c>
-      <c r="M61">
-        <v>-2.2609000000000001E-3</v>
-      </c>
-      <c r="N61">
-        <v>-1.7968000000000001E-3</v>
-      </c>
-      <c r="O61">
-        <v>-3.1722E-3</v>
-      </c>
-      <c r="P61">
-        <v>-1.3952000000000001E-3</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>-1.0118000000000001E-18</v>
-      </c>
-      <c r="R61">
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="S61">
-        <v>2.0619000000000002E-3</v>
-      </c>
-      <c r="T61">
-        <v>3.2173000000000002E-3</v>
-      </c>
-      <c r="U61">
-        <v>9.7108000000000003E-4</v>
-      </c>
-      <c r="V61" s="3">
-        <v>-4.9496000000000002E-18</v>
-      </c>
-      <c r="W61">
-        <v>-6.9618999999999996E-4</v>
-      </c>
-      <c r="X61">
-        <v>-4.1057000000000003E-3</v>
-      </c>
-      <c r="Y61">
-        <v>-7.4014999999999997E-4</v>
-      </c>
-      <c r="Z61">
-        <v>-2.7791999999999999E-3</v>
-      </c>
-      <c r="AA61" s="3">
-        <v>5.7935999999999995E-19</v>
-      </c>
-      <c r="AB61">
-        <v>2.9564000000000001E-3</v>
-      </c>
-      <c r="AC61">
-        <v>2.9847000000000001E-4</v>
-      </c>
-      <c r="AD61">
-        <v>4.9928000000000004E-3</v>
-      </c>
-      <c r="AE61">
-        <v>1.0787E-4</v>
-      </c>
-      <c r="AF61" s="3">
-        <v>3.9386999999999997E-18</v>
-      </c>
-    </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A62">
-        <v>7</v>
-      </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-      <c r="C62" s="3">
-        <v>-6.5252000000000002E-7</v>
-      </c>
-      <c r="D62" s="3">
-        <v>2.2390000000000001E-8</v>
-      </c>
-      <c r="E62" s="3">
-        <v>-1.0041000000000001E-6</v>
-      </c>
-      <c r="F62" s="3">
-        <v>2.6076999999999999E-8</v>
-      </c>
-      <c r="G62" s="3">
-        <v>3.0073E-22</v>
-      </c>
-      <c r="H62" s="3">
-        <v>-1.6776999999999999E-8</v>
-      </c>
-      <c r="I62" s="3">
-        <v>7.4519000000000002E-7</v>
-      </c>
-      <c r="J62" s="3">
-        <v>-6.1639000000000002E-9</v>
-      </c>
-      <c r="K62" s="3">
-        <v>3.9117999999999999E-7</v>
-      </c>
-      <c r="L62" s="3">
-        <v>-3.7844000000000002E-23</v>
-      </c>
-      <c r="M62" s="3">
-        <v>-3.3232E-7</v>
-      </c>
-      <c r="N62" s="3">
-        <v>-1.9702E-7</v>
-      </c>
-      <c r="O62" s="3">
-        <v>-4.4815E-7</v>
-      </c>
-      <c r="P62" s="3">
-        <v>-2.2350000000000001E-7</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>-1.5744E-22</v>
-      </c>
-      <c r="R62" s="3">
-        <v>3.2193999999999998E-7</v>
-      </c>
-      <c r="S62" s="3">
-        <v>3.7467000000000001E-7</v>
-      </c>
-      <c r="T62" s="3">
-        <v>6.8224000000000005E-7</v>
-      </c>
-      <c r="U62" s="3">
-        <v>1.8194E-7</v>
-      </c>
-      <c r="V62" s="3">
-        <v>-1.0885000000000001E-21</v>
-      </c>
-      <c r="W62" s="3">
-        <v>-1.2704E-7</v>
-      </c>
-      <c r="X62" s="3">
-        <v>-8.5570000000000002E-7</v>
-      </c>
-      <c r="Y62" s="3">
-        <v>-1.1309E-7</v>
-      </c>
-      <c r="Z62" s="3">
-        <v>-5.3117000000000001E-7</v>
-      </c>
-      <c r="AA62" s="3">
-        <v>-1.531E-23</v>
-      </c>
-      <c r="AB62" s="3">
-        <v>5.2651999999999998E-7</v>
-      </c>
-      <c r="AC62" s="3">
-        <v>-1.1867E-7</v>
-      </c>
-      <c r="AD62" s="3">
-        <v>8.2770999999999999E-7</v>
-      </c>
-      <c r="AE62" s="3">
-        <v>-9.5412999999999995E-8</v>
-      </c>
-      <c r="AF62" s="3">
-        <v>6.1580999999999997E-22</v>
-      </c>
-    </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A63">
-        <v>8</v>
-      </c>
-      <c r="B63">
-        <v>0</v>
-      </c>
-      <c r="C63" s="3">
-        <v>6.3070000000000004E-19</v>
-      </c>
-      <c r="D63" s="3">
-        <v>9.1352000000000005E-19</v>
-      </c>
-      <c r="E63" s="3">
-        <v>-2.8930000000000002E-19</v>
-      </c>
-      <c r="F63" s="3">
-        <v>1.1345999999999999E-18</v>
-      </c>
-      <c r="G63" s="3">
-        <v>1.0085E-34</v>
-      </c>
-      <c r="H63" s="3">
-        <v>-5.8229000000000004E-19</v>
-      </c>
-      <c r="I63" s="3">
-        <v>-1.0195E-18</v>
-      </c>
-      <c r="J63" s="3">
-        <v>8.3570000000000003E-20</v>
-      </c>
-      <c r="K63" s="3">
-        <v>-7.2426999999999998E-19</v>
-      </c>
-      <c r="L63" s="3">
-        <v>4.5860000000000003E-34</v>
-      </c>
-      <c r="M63" s="3">
-        <v>-3.3092000000000003E-20</v>
-      </c>
-      <c r="N63" s="3">
-        <v>1.6629E-18</v>
-      </c>
-      <c r="O63" s="3">
-        <v>-1.6607000000000001E-19</v>
-      </c>
-      <c r="P63" s="3">
-        <v>5.0259E-19</v>
-      </c>
-      <c r="Q63" s="3">
-        <v>4.4850000000000003E-34</v>
-      </c>
-      <c r="R63" s="3">
-        <v>1.7835E-19</v>
-      </c>
-      <c r="S63" s="3">
-        <v>-1.4425999999999999E-18</v>
-      </c>
-      <c r="T63" s="3">
-        <v>-3.8846000000000002E-19</v>
-      </c>
-      <c r="U63" s="3">
-        <v>-1.7121000000000001E-19</v>
-      </c>
-      <c r="V63" s="3">
-        <v>1.8657999999999999E-33</v>
-      </c>
-      <c r="W63" s="3">
-        <v>1.3722E-20</v>
-      </c>
-      <c r="X63" s="3">
-        <v>6.8069000000000003E-19</v>
-      </c>
-      <c r="Y63" s="3">
-        <v>1.2848000000000001E-18</v>
-      </c>
-      <c r="Z63" s="3">
-        <v>-2.7779999999999998E-19</v>
-      </c>
-      <c r="AA63" s="3">
-        <v>-2.0817999999999999E-33</v>
-      </c>
-      <c r="AB63" s="3">
-        <v>-6.4600000000000002E-20</v>
-      </c>
-      <c r="AC63" s="3">
-        <v>-5.0603000000000003E-19</v>
-      </c>
-      <c r="AD63" s="3">
-        <v>-1.1871999999999999E-18</v>
-      </c>
-      <c r="AE63" s="3">
-        <v>-6.8695000000000003E-20</v>
-      </c>
-      <c r="AF63" s="3">
-        <v>-5.1320999999999996E-34</v>
-      </c>
-    </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A64" s="8">
-        <v>9</v>
-      </c>
-      <c r="B64">
-        <v>0</v>
-      </c>
-      <c r="C64">
-        <v>-3.0508000000000002E-3</v>
-      </c>
-      <c r="D64" s="3">
-        <v>-2.5108000000000001E-5</v>
-      </c>
-      <c r="E64">
-        <v>-4.8291999999999996E-3</v>
-      </c>
-      <c r="F64" s="3">
-        <v>-8.9404E-5</v>
-      </c>
-      <c r="G64" s="3">
-        <v>1.5475E-18</v>
-      </c>
-      <c r="H64">
-        <v>2.353E-4</v>
-      </c>
-      <c r="I64">
-        <v>4.2307999999999998E-3</v>
-      </c>
-      <c r="J64">
-        <v>6.8426000000000001E-4</v>
-      </c>
-      <c r="K64">
-        <v>2.3806999999999999E-3</v>
-      </c>
-      <c r="L64" s="3">
-        <v>-7.2087999999999999E-19</v>
-      </c>
-      <c r="M64">
-        <v>-2.1098000000000002E-3</v>
-      </c>
-      <c r="N64">
-        <v>-1.5567999999999999E-3</v>
-      </c>
-      <c r="O64">
-        <v>-2.9329E-3</v>
-      </c>
-      <c r="P64">
-        <v>-1.2933E-3</v>
-      </c>
-      <c r="Q64" s="3">
-        <v>-9.5516999999999994E-19</v>
-      </c>
-      <c r="R64">
-        <v>1.6188000000000001E-3</v>
-      </c>
-      <c r="S64">
-        <v>2.0125999999999998E-3</v>
-      </c>
-      <c r="T64">
-        <v>3.1546999999999999E-3</v>
-      </c>
-      <c r="U64">
-        <v>9.4381E-4</v>
-      </c>
-      <c r="V64" s="3">
-        <v>-4.9437000000000001E-18</v>
-      </c>
-      <c r="W64">
-        <v>-6.6520999999999995E-4</v>
-      </c>
-      <c r="X64">
-        <v>-4.0480999999999998E-3</v>
-      </c>
-      <c r="Y64">
-        <v>-6.8508000000000002E-4</v>
-      </c>
-      <c r="Z64">
-        <v>-2.6959000000000002E-3</v>
-      </c>
-      <c r="AA64" s="3">
-        <v>3.9973000000000002E-19</v>
-      </c>
-      <c r="AB64">
-        <v>2.8530000000000001E-3</v>
-      </c>
-      <c r="AC64" s="3">
-        <v>5.2126000000000002E-5</v>
-      </c>
-      <c r="AD64">
-        <v>4.7597000000000004E-3</v>
-      </c>
-      <c r="AE64" s="3">
-        <v>-4.8504999999999997E-5</v>
-      </c>
-      <c r="AF64" s="3">
-        <v>3.7139999999999997E-18</v>
-      </c>
-    </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A65">
-        <v>10</v>
-      </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-      <c r="C65" s="3">
-        <v>6.7217000000000002E-7</v>
-      </c>
-      <c r="D65" s="3">
-        <v>4.0760999999999997E-8</v>
-      </c>
-      <c r="E65" s="3">
-        <v>1.0828E-6</v>
-      </c>
-      <c r="F65" s="3">
-        <v>8.4105999999999999E-8</v>
-      </c>
-      <c r="G65" s="3">
-        <v>-3.7448000000000001E-22</v>
-      </c>
-      <c r="H65" s="3">
-        <v>-1.5209999999999999E-7</v>
-      </c>
-      <c r="I65" s="3">
-        <v>-1.1093999999999999E-6</v>
-      </c>
-      <c r="J65" s="3">
-        <v>-3.7575000000000001E-7</v>
-      </c>
-      <c r="K65" s="3">
-        <v>-6.4427000000000004E-7</v>
-      </c>
-      <c r="L65" s="3">
-        <v>3.4188999999999999E-22</v>
-      </c>
-      <c r="M65" s="3">
-        <v>5.8416000000000001E-7</v>
-      </c>
-      <c r="N65" s="3">
-        <v>5.7731999999999998E-7</v>
-      </c>
-      <c r="O65" s="3">
-        <v>8.1488E-7</v>
-      </c>
-      <c r="P65" s="3">
-        <v>3.8593999999999997E-7</v>
-      </c>
-      <c r="Q65" s="3">
-        <v>2.4431999999999998E-22</v>
-      </c>
-      <c r="R65" s="3">
-        <v>-4.2593E-7</v>
-      </c>
-      <c r="S65" s="3">
-        <v>-4.5788999999999998E-7</v>
-      </c>
-      <c r="T65" s="3">
-        <v>-7.3758000000000002E-7</v>
-      </c>
-      <c r="U65" s="3">
-        <v>-2.057E-7</v>
-      </c>
-      <c r="V65" s="3">
-        <v>1.0778999999999999E-21</v>
-      </c>
-      <c r="W65" s="3">
-        <v>1.518E-7</v>
-      </c>
-      <c r="X65" s="3">
-        <v>9.1350000000000002E-7</v>
-      </c>
-      <c r="Y65" s="3">
-        <v>1.9917E-7</v>
-      </c>
-      <c r="Z65" s="3">
-        <v>6.4079000000000001E-7</v>
-      </c>
-      <c r="AA65" s="3">
-        <v>-2.5468E-22</v>
-      </c>
-      <c r="AB65" s="3">
-        <v>-6.9805999999999999E-7</v>
-      </c>
-      <c r="AC65" s="3">
-        <v>-2.4517999999999998E-7</v>
-      </c>
-      <c r="AD65" s="3">
-        <v>-1.2122E-6</v>
-      </c>
-      <c r="AE65" s="3">
-        <v>-1.5717E-7</v>
-      </c>
-      <c r="AF65" s="3">
-        <v>-9.6663999999999994E-22</v>
-      </c>
-    </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A66">
-        <v>11</v>
-      </c>
-      <c r="B66">
-        <v>0</v>
-      </c>
-      <c r="C66" s="3">
-        <v>7.5949999999999998E-19</v>
-      </c>
-      <c r="D66" s="3">
-        <v>1.0392999999999999E-18</v>
-      </c>
-      <c r="E66" s="3">
-        <v>-2.0999999999999999E-19</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1.3251E-18</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1.0414999999999999E-34</v>
-      </c>
-      <c r="H66" s="3">
-        <v>-6.7333E-19</v>
-      </c>
-      <c r="I66" s="3">
-        <v>-1.2327E-18</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1.0063E-19</v>
-      </c>
-      <c r="K66" s="3">
-        <v>-8.9018999999999996E-19</v>
-      </c>
-      <c r="L66" s="3">
-        <v>5.6063000000000002E-34</v>
-      </c>
-      <c r="M66" s="3">
-        <v>3.3743999999999999E-21</v>
-      </c>
-      <c r="N66" s="3">
-        <v>1.9130999999999999E-18</v>
-      </c>
-      <c r="O66" s="3">
-        <v>-1.7334E-19</v>
-      </c>
-      <c r="P66" s="3">
-        <v>6.1803E-19</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>5.2495000000000001E-34</v>
-      </c>
-      <c r="R66" s="3">
-        <v>1.7252999999999999E-19</v>
-      </c>
-      <c r="S66" s="3">
-        <v>-1.7575000000000001E-18</v>
-      </c>
-      <c r="T66" s="3">
-        <v>-4.4078999999999997E-19</v>
-      </c>
-      <c r="U66" s="3">
-        <v>-1.9376000000000001E-19</v>
-      </c>
-      <c r="V66" s="3">
-        <v>2.2650999999999999E-33</v>
-      </c>
-      <c r="W66" s="3">
-        <v>5.8744999999999998E-21</v>
-      </c>
-      <c r="X66" s="3">
-        <v>8.7413000000000002E-19</v>
-      </c>
-      <c r="Y66" s="3">
-        <v>1.5214E-18</v>
-      </c>
-      <c r="Z66" s="3">
-        <v>-2.8999000000000002E-19</v>
-      </c>
-      <c r="AA66" s="3">
-        <v>-2.4072E-33</v>
-      </c>
-      <c r="AB66" s="3">
-        <v>-9.1827000000000002E-20</v>
-      </c>
-      <c r="AC66" s="3">
-        <v>-6.0542999999999996E-19</v>
-      </c>
-      <c r="AD66" s="3">
-        <v>-1.4835999999999999E-18</v>
-      </c>
-      <c r="AE66" s="3">
-        <v>-5.7402999999999996E-20</v>
-      </c>
-      <c r="AF66" s="3">
-        <v>-6.8893000000000004E-34</v>
-      </c>
-    </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A67" s="8">
-        <v>12</v>
-      </c>
-      <c r="B67">
-        <v>0</v>
-      </c>
-      <c r="C67">
-        <v>-1.8661000000000001E-3</v>
-      </c>
-      <c r="D67" s="3">
-        <v>-2.2007000000000001E-5</v>
-      </c>
-      <c r="E67">
-        <v>-2.9096999999999999E-3</v>
-      </c>
-      <c r="F67" s="3">
-        <v>-4.3010999999999999E-5</v>
-      </c>
-      <c r="G67" s="3">
-        <v>9.2621999999999999E-19</v>
-      </c>
-      <c r="H67" s="3">
-        <v>9.0610000000000002E-5</v>
-      </c>
-      <c r="I67">
-        <v>2.5135000000000001E-3</v>
-      </c>
-      <c r="J67">
-        <v>3.0162E-4</v>
-      </c>
-      <c r="K67">
-        <v>1.3860000000000001E-3</v>
-      </c>
-      <c r="L67" s="3">
-        <v>-3.6423E-19</v>
-      </c>
-      <c r="M67">
-        <v>-1.224E-3</v>
-      </c>
-      <c r="N67">
-        <v>-8.2569999999999996E-4</v>
-      </c>
-      <c r="O67">
-        <v>-1.7376E-3</v>
-      </c>
-      <c r="P67">
-        <v>-7.2283999999999998E-4</v>
-      </c>
-      <c r="Q67" s="3">
-        <v>-5.7210000000000002E-19</v>
-      </c>
-      <c r="R67">
-        <v>9.5998999999999998E-4</v>
-      </c>
-      <c r="S67">
-        <v>1.2195000000000001E-3</v>
-      </c>
-      <c r="T67">
-        <v>1.9066E-3</v>
-      </c>
-      <c r="U67">
-        <v>5.9566999999999997E-4</v>
-      </c>
-      <c r="V67" s="3">
-        <v>-2.9835E-18</v>
-      </c>
-      <c r="W67">
-        <v>-4.2302000000000003E-4</v>
-      </c>
-      <c r="X67">
-        <v>-2.4605999999999999E-3</v>
-      </c>
-      <c r="Y67">
-        <v>-3.9063999999999999E-4</v>
-      </c>
-      <c r="Z67">
-        <v>-1.6326999999999999E-3</v>
-      </c>
-      <c r="AA67" s="3">
-        <v>1.6766999999999999E-19</v>
-      </c>
-      <c r="AB67">
-        <v>1.6964E-3</v>
-      </c>
-      <c r="AC67" s="3">
-        <v>-5.9120000000000003E-5</v>
-      </c>
-      <c r="AD67">
-        <v>2.8180000000000002E-3</v>
-      </c>
-      <c r="AE67">
-        <v>-1.1899E-4</v>
-      </c>
-      <c r="AF67" s="3">
-        <v>2.2154999999999999E-18</v>
-      </c>
-    </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A68">
-        <v>13</v>
-      </c>
-      <c r="B68">
-        <v>0</v>
-      </c>
-      <c r="C68" s="3">
-        <v>1.6257E-6</v>
-      </c>
-      <c r="D68" s="3">
-        <v>-1.3955999999999999E-8</v>
-      </c>
-      <c r="E68" s="3">
-        <v>2.5973999999999999E-6</v>
-      </c>
-      <c r="F68" s="3">
-        <v>2.3558000000000002E-8</v>
-      </c>
-      <c r="G68" s="3">
-        <v>-8.2467000000000004E-22</v>
-      </c>
-      <c r="H68" s="3">
-        <v>-1.2132E-7</v>
-      </c>
-      <c r="I68" s="3">
-        <v>-2.2251000000000001E-6</v>
-      </c>
-      <c r="J68" s="3">
-        <v>-3.4911999999999999E-7</v>
-      </c>
-      <c r="K68" s="3">
-        <v>-1.2635000000000001E-6</v>
-      </c>
-      <c r="L68" s="3">
-        <v>3.5808999999999998E-22</v>
-      </c>
-      <c r="M68" s="3">
-        <v>1.1182999999999999E-6</v>
-      </c>
-      <c r="N68" s="3">
-        <v>8.2332000000000004E-7</v>
-      </c>
-      <c r="O68" s="3">
-        <v>1.5196E-6</v>
-      </c>
-      <c r="P68" s="3">
-        <v>6.9630999999999997E-7</v>
-      </c>
-      <c r="Q68" s="3">
-        <v>4.9926000000000002E-22</v>
-      </c>
-      <c r="R68" s="3">
-        <v>-8.5486999999999998E-7</v>
-      </c>
-      <c r="S68" s="3">
-        <v>-1.0724000000000001E-6</v>
-      </c>
-      <c r="T68" s="3">
-        <v>-1.6810000000000001E-6</v>
-      </c>
-      <c r="U68" s="3">
-        <v>-4.8584999999999997E-7</v>
-      </c>
-      <c r="V68" s="3">
-        <v>2.6696000000000001E-21</v>
-      </c>
-      <c r="W68" s="3">
-        <v>3.3649000000000002E-7</v>
-      </c>
-      <c r="X68" s="3">
-        <v>2.1571999999999999E-6</v>
-      </c>
-      <c r="Y68" s="3">
-        <v>3.6809000000000001E-7</v>
-      </c>
-      <c r="Z68" s="3">
-        <v>1.4238E-6</v>
-      </c>
-      <c r="AA68" s="3">
-        <v>-1.9585000000000001E-22</v>
-      </c>
-      <c r="AB68" s="3">
-        <v>-1.5206999999999999E-6</v>
-      </c>
-      <c r="AC68" s="3">
-        <v>8.6945999999999993E-9</v>
-      </c>
-      <c r="AD68" s="3">
-        <v>-2.5260999999999998E-6</v>
-      </c>
-      <c r="AE68" s="3">
-        <v>2.9872999999999999E-8</v>
-      </c>
-      <c r="AF68" s="3">
-        <v>-1.9450000000000001E-21</v>
-      </c>
-    </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A69">
-        <v>14</v>
-      </c>
-      <c r="B69">
-        <v>0</v>
-      </c>
-      <c r="C69" s="3">
-        <v>7.6503999999999999E-19</v>
-      </c>
-      <c r="D69" s="3">
-        <v>9.8855000000000003E-19</v>
-      </c>
-      <c r="E69" s="3">
-        <v>-3.0569000000000001E-19</v>
-      </c>
-      <c r="F69" s="3">
-        <v>1.3136000000000001E-18</v>
-      </c>
-      <c r="G69" s="3">
-        <v>1.3111E-34</v>
-      </c>
-      <c r="H69" s="3">
-        <v>-6.9318000000000004E-19</v>
-      </c>
-      <c r="I69" s="3">
-        <v>-1.2607E-18</v>
-      </c>
-      <c r="J69" s="3">
-        <v>1.6092000000000001E-19</v>
-      </c>
-      <c r="K69" s="3">
-        <v>-8.7376999999999994E-19</v>
-      </c>
-      <c r="L69" s="3">
-        <v>5.0720000000000003E-34</v>
-      </c>
-      <c r="M69" s="3">
-        <v>-3.8417999999999998E-20</v>
-      </c>
-      <c r="N69" s="3">
-        <v>1.9389000000000001E-18</v>
-      </c>
-      <c r="O69" s="3">
-        <v>-2.0842E-19</v>
-      </c>
-      <c r="P69" s="3">
-        <v>6.3752000000000004E-19</v>
-      </c>
-      <c r="Q69" s="3">
-        <v>5.1106E-34</v>
-      </c>
-      <c r="R69" s="3">
-        <v>2.4245000000000001E-19</v>
-      </c>
-      <c r="S69" s="3">
-        <v>-1.7642999999999999E-18</v>
-      </c>
-      <c r="T69" s="3">
-        <v>-3.6397999999999999E-19</v>
-      </c>
-      <c r="U69" s="3">
-        <v>-1.8107E-19</v>
-      </c>
-      <c r="V69" s="3">
-        <v>2.3470999999999998E-33</v>
-      </c>
-      <c r="W69" s="3">
-        <v>-4.3628000000000002E-20</v>
-      </c>
-      <c r="X69" s="3">
-        <v>8.4553999999999997E-19</v>
-      </c>
-      <c r="Y69" s="3">
-        <v>1.491E-18</v>
-      </c>
-      <c r="Z69" s="3">
-        <v>-3.5726999999999998E-19</v>
-      </c>
-      <c r="AA69" s="3">
-        <v>-2.4615999999999999E-33</v>
-      </c>
-      <c r="AB69" s="3">
-        <v>-6.0718000000000005E-20</v>
-      </c>
-      <c r="AC69" s="3">
-        <v>-5.918E-19</v>
-      </c>
-      <c r="AD69" s="3">
-        <v>-1.5032E-18</v>
-      </c>
-      <c r="AE69" s="3">
-        <v>1.3372000000000001E-20</v>
-      </c>
-      <c r="AF69" s="3">
-        <v>-6.7966999999999998E-34</v>
-      </c>
-    </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A70">
         <v>15</v>
-      </c>
-      <c r="B70">
-        <v>0</v>
-      </c>
-      <c r="C70" s="3">
-        <v>1.9873999999999998E-6</v>
-      </c>
-      <c r="D70" s="3">
-        <v>5.5251999999999997E-8</v>
-      </c>
-      <c r="E70" s="3">
-        <v>3.0581999999999998E-6</v>
-      </c>
-      <c r="F70" s="3">
-        <v>6.1739999999999996E-8</v>
-      </c>
-      <c r="G70" s="3">
-        <v>-9.7628000000000006E-22</v>
-      </c>
-      <c r="H70" s="3">
-        <v>-7.1780999999999999E-8</v>
-      </c>
-      <c r="I70" s="3">
-        <v>-2.6643000000000001E-6</v>
-      </c>
-      <c r="J70" s="3">
-        <v>-2.7796999999999999E-7</v>
-      </c>
-      <c r="K70" s="3">
-        <v>-1.4473999999999999E-6</v>
-      </c>
-      <c r="L70" s="3">
-        <v>3.6908E-22</v>
-      </c>
-      <c r="M70" s="3">
-        <v>1.2757999999999999E-6</v>
-      </c>
-      <c r="N70" s="3">
-        <v>8.1739000000000004E-7</v>
-      </c>
-      <c r="O70" s="3">
-        <v>1.8612000000000001E-6</v>
-      </c>
-      <c r="P70" s="3">
-        <v>7.2989000000000003E-7</v>
-      </c>
-      <c r="Q70" s="3">
-        <v>6.1397999999999998E-22</v>
-      </c>
-      <c r="R70" s="3">
-        <v>-1.0116E-6</v>
-      </c>
-      <c r="S70" s="3">
-        <v>-1.2945000000000001E-6</v>
-      </c>
-      <c r="T70" s="3">
-        <v>-2.0184E-6</v>
-      </c>
-      <c r="U70" s="3">
-        <v>-6.6077000000000001E-7</v>
-      </c>
-      <c r="V70" s="3">
-        <v>3.1307999999999999E-21</v>
-      </c>
-      <c r="W70" s="3">
-        <v>4.7690000000000004E-7</v>
-      </c>
-      <c r="X70" s="3">
-        <v>2.6129E-6</v>
-      </c>
-      <c r="Y70" s="3">
-        <v>3.9639999999999998E-7</v>
-      </c>
-      <c r="Z70" s="3">
-        <v>1.7430000000000001E-6</v>
-      </c>
-      <c r="AA70" s="3">
-        <v>-1.5630999999999999E-22</v>
-      </c>
-      <c r="AB70" s="3">
-        <v>-1.7846E-6</v>
-      </c>
-      <c r="AC70" s="3">
-        <v>7.9961999999999998E-8</v>
-      </c>
-      <c r="AD70" s="3">
-        <v>-2.9658999999999998E-6</v>
-      </c>
-      <c r="AE70" s="3">
-        <v>1.7279E-7</v>
-      </c>
-      <c r="AF70" s="3">
-        <v>-2.3628999999999998E-21</v>
-      </c>
-    </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="B72">
-        <v>10</v>
-      </c>
-      <c r="C72">
-        <v>20</v>
-      </c>
-      <c r="D72">
-        <v>30</v>
-      </c>
-      <c r="E72">
-        <v>40</v>
-      </c>
-      <c r="F72">
-        <v>50</v>
-      </c>
-      <c r="G72">
-        <v>60</v>
-      </c>
-      <c r="H72">
-        <v>70</v>
-      </c>
-      <c r="I72">
-        <v>80</v>
-      </c>
-      <c r="J72">
-        <v>90</v>
-      </c>
-      <c r="K72">
-        <v>100</v>
-      </c>
-      <c r="L72">
-        <v>110</v>
-      </c>
-      <c r="M72">
-        <v>120</v>
-      </c>
-      <c r="N72">
-        <v>130</v>
-      </c>
-      <c r="O72">
-        <v>140</v>
-      </c>
-      <c r="P72">
-        <v>150</v>
-      </c>
-      <c r="Q72">
-        <v>160</v>
-      </c>
-      <c r="R72">
-        <v>170</v>
-      </c>
-      <c r="S72">
-        <v>180</v>
-      </c>
-      <c r="T72">
-        <v>190</v>
-      </c>
-      <c r="U72">
-        <v>200</v>
-      </c>
-      <c r="V72">
-        <v>210</v>
-      </c>
-      <c r="W72">
-        <v>220</v>
-      </c>
-      <c r="X72">
-        <v>230</v>
-      </c>
-      <c r="Y72">
-        <v>240</v>
-      </c>
-      <c r="Z72">
-        <v>250</v>
-      </c>
-      <c r="AA72">
-        <v>260</v>
-      </c>
-      <c r="AB72">
-        <v>270</v>
-      </c>
-      <c r="AC72">
-        <v>280</v>
-      </c>
-      <c r="AD72">
-        <v>290</v>
-      </c>
-      <c r="AE72">
-        <v>300</v>
-      </c>
-      <c r="AF72">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A73">
-        <v>1</v>
-      </c>
-      <c r="B73">
-        <v>0</v>
-      </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-      <c r="L73">
-        <v>0</v>
-      </c>
-      <c r="M73">
-        <v>0</v>
-      </c>
-      <c r="N73">
-        <v>0</v>
-      </c>
-      <c r="O73">
-        <v>0</v>
-      </c>
-      <c r="P73">
-        <v>0</v>
-      </c>
-      <c r="Q73">
-        <v>0</v>
-      </c>
-      <c r="R73">
-        <v>0</v>
-      </c>
-      <c r="S73">
-        <v>0</v>
-      </c>
-      <c r="T73">
-        <v>0</v>
-      </c>
-      <c r="U73">
-        <v>0</v>
-      </c>
-      <c r="V73">
-        <v>0</v>
-      </c>
-      <c r="W73">
-        <v>0</v>
-      </c>
-      <c r="X73">
-        <v>0</v>
-      </c>
-      <c r="Y73">
-        <v>0</v>
-      </c>
-      <c r="Z73">
-        <v>0</v>
-      </c>
-      <c r="AA73">
-        <v>0</v>
-      </c>
-      <c r="AB73">
-        <v>0</v>
-      </c>
-      <c r="AC73">
-        <v>0</v>
-      </c>
-      <c r="AD73">
-        <v>0</v>
-      </c>
-      <c r="AE73">
-        <v>0</v>
-      </c>
-      <c r="AF73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A74">
-        <v>2</v>
-      </c>
-      <c r="B74">
-        <f>C58</f>
-        <v>-1.8548E-3</v>
-      </c>
-      <c r="C74">
-        <f>D58</f>
-        <v>-3.8983999999999998E-5</v>
-      </c>
-      <c r="D74">
-        <f t="shared" ref="C74:AF74" si="12">E58</f>
-        <v>-2.9865E-3</v>
-      </c>
-      <c r="E74">
-        <f t="shared" ref="E74:AF74" si="13">F58</f>
-        <v>-1.0833E-4</v>
-      </c>
-      <c r="F74">
-        <f t="shared" si="13"/>
-        <v>9.8622000000000006E-19</v>
-      </c>
-      <c r="G74">
-        <f t="shared" si="13"/>
-        <v>2.4553999999999998E-4</v>
-      </c>
-      <c r="H74">
-        <f t="shared" si="13"/>
-        <v>2.7899999999999999E-3</v>
-      </c>
-      <c r="I74">
-        <f t="shared" si="13"/>
-        <v>6.4201999999999998E-4</v>
-      </c>
-      <c r="J74">
-        <f t="shared" si="13"/>
-        <v>1.6153000000000001E-3</v>
-      </c>
-      <c r="K74">
-        <f t="shared" si="13"/>
-        <v>-6.0430000000000003E-19</v>
-      </c>
-      <c r="L74">
-        <f t="shared" si="13"/>
-        <v>-1.4541000000000001E-3</v>
-      </c>
-      <c r="M74">
-        <f t="shared" si="13"/>
-        <v>-1.1620999999999999E-3</v>
-      </c>
-      <c r="N74">
-        <f t="shared" si="13"/>
-        <v>-2.0143000000000001E-3</v>
-      </c>
-      <c r="O74">
-        <f t="shared" si="13"/>
-        <v>-8.7593999999999997E-4</v>
-      </c>
-      <c r="P74">
-        <f t="shared" si="13"/>
-        <v>-6.4002000000000002E-19</v>
-      </c>
-      <c r="Q74">
-        <f t="shared" si="13"/>
-        <v>1.023E-3</v>
-      </c>
-      <c r="R74">
-        <f t="shared" si="13"/>
-        <v>1.2978E-3</v>
-      </c>
-      <c r="S74">
-        <f t="shared" si="13"/>
-        <v>1.918E-3</v>
-      </c>
-      <c r="T74">
-        <f t="shared" si="13"/>
-        <v>5.8646000000000002E-4</v>
-      </c>
-      <c r="U74">
-        <f t="shared" si="13"/>
-        <v>-2.9799999999999999E-18</v>
-      </c>
-      <c r="V74">
-        <f t="shared" si="13"/>
-        <v>-4.1287000000000002E-4</v>
-      </c>
-      <c r="W74">
-        <f t="shared" si="13"/>
-        <v>-2.4784E-3</v>
-      </c>
-      <c r="X74">
-        <f t="shared" si="13"/>
-        <v>-4.7008E-4</v>
-      </c>
-      <c r="Y74">
-        <f t="shared" si="13"/>
-        <v>-1.6982E-3</v>
-      </c>
-      <c r="Z74">
-        <f t="shared" si="13"/>
-        <v>3.9015E-19</v>
-      </c>
-      <c r="AA74">
-        <f t="shared" si="13"/>
-        <v>1.8518E-3</v>
-      </c>
-      <c r="AB74">
-        <f t="shared" si="13"/>
-        <v>2.1828E-4</v>
-      </c>
-      <c r="AC74">
-        <f t="shared" si="13"/>
-        <v>3.1622999999999998E-3</v>
-      </c>
-      <c r="AD74">
-        <f t="shared" si="13"/>
-        <v>1.0881E-4</v>
-      </c>
-      <c r="AE74">
-        <f t="shared" si="13"/>
-        <v>2.4915000000000002E-18</v>
-      </c>
-      <c r="AF74">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A75">
-        <v>3</v>
-      </c>
-      <c r="B75">
-        <f>C61</f>
-        <v>-3.0825000000000002E-3</v>
-      </c>
-      <c r="C75">
-        <f t="shared" ref="C75:AF75" si="14">D61</f>
-        <v>-8.1460999999999998E-5</v>
-      </c>
-      <c r="D75">
-        <f t="shared" si="14"/>
-        <v>-4.8846999999999996E-3</v>
-      </c>
-      <c r="E75">
-        <f t="shared" ref="E75:AF75" si="15">F61</f>
-        <v>-1.6991E-4</v>
-      </c>
-      <c r="F75">
-        <f t="shared" si="15"/>
-        <v>1.5979E-18</v>
-      </c>
-      <c r="G75">
-        <f t="shared" si="15"/>
-        <v>3.3688000000000001E-4</v>
-      </c>
-      <c r="H75">
-        <f t="shared" si="15"/>
-        <v>4.4745000000000002E-3</v>
-      </c>
-      <c r="I75">
-        <f t="shared" si="15"/>
-        <v>9.2082000000000004E-4</v>
-      </c>
-      <c r="J75">
-        <f t="shared" si="15"/>
-        <v>2.5339E-3</v>
-      </c>
-      <c r="K75">
-        <f t="shared" si="15"/>
-        <v>-9.198299999999999E-19</v>
-      </c>
-      <c r="L75">
-        <f t="shared" si="15"/>
-        <v>-2.2609000000000001E-3</v>
-      </c>
-      <c r="M75">
-        <f t="shared" si="15"/>
-        <v>-1.7968000000000001E-3</v>
-      </c>
-      <c r="N75">
-        <f t="shared" si="15"/>
-        <v>-3.1722E-3</v>
-      </c>
-      <c r="O75">
-        <f t="shared" si="15"/>
-        <v>-1.3952000000000001E-3</v>
-      </c>
-      <c r="P75">
-        <f t="shared" si="15"/>
-        <v>-1.0118000000000001E-18</v>
-      </c>
-      <c r="Q75">
-        <f t="shared" si="15"/>
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="R75">
-        <f t="shared" si="15"/>
-        <v>2.0619000000000002E-3</v>
-      </c>
-      <c r="S75">
-        <f t="shared" si="15"/>
-        <v>3.2173000000000002E-3</v>
-      </c>
-      <c r="T75">
-        <f t="shared" si="15"/>
-        <v>9.7108000000000003E-4</v>
-      </c>
-      <c r="U75">
-        <f t="shared" si="15"/>
-        <v>-4.9496000000000002E-18</v>
-      </c>
-      <c r="V75">
-        <f t="shared" si="15"/>
-        <v>-6.9618999999999996E-4</v>
-      </c>
-      <c r="W75">
-        <f t="shared" si="15"/>
-        <v>-4.1057000000000003E-3</v>
-      </c>
-      <c r="X75">
-        <f t="shared" si="15"/>
-        <v>-7.4014999999999997E-4</v>
-      </c>
-      <c r="Y75">
-        <f t="shared" si="15"/>
-        <v>-2.7791999999999999E-3</v>
-      </c>
-      <c r="Z75">
-        <f t="shared" si="15"/>
-        <v>5.7935999999999995E-19</v>
-      </c>
-      <c r="AA75">
-        <f t="shared" si="15"/>
-        <v>2.9564000000000001E-3</v>
-      </c>
-      <c r="AB75">
-        <f t="shared" si="15"/>
-        <v>2.9847000000000001E-4</v>
-      </c>
-      <c r="AC75">
-        <f t="shared" si="15"/>
-        <v>4.9928000000000004E-3</v>
-      </c>
-      <c r="AD75">
-        <f t="shared" si="15"/>
-        <v>1.0787E-4</v>
-      </c>
-      <c r="AE75">
-        <f t="shared" si="15"/>
-        <v>3.9386999999999997E-18</v>
-      </c>
-      <c r="AF75">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A76">
-        <v>4</v>
-      </c>
-      <c r="B76">
-        <f>C64</f>
-        <v>-3.0508000000000002E-3</v>
-      </c>
-      <c r="C76">
-        <f t="shared" ref="C76:AF76" si="16">D64</f>
-        <v>-2.5108000000000001E-5</v>
-      </c>
-      <c r="D76">
-        <f t="shared" si="16"/>
-        <v>-4.8291999999999996E-3</v>
-      </c>
-      <c r="E76">
-        <f t="shared" ref="E76:AF76" si="17">F64</f>
-        <v>-8.9404E-5</v>
-      </c>
-      <c r="F76">
-        <f t="shared" si="17"/>
-        <v>1.5475E-18</v>
-      </c>
-      <c r="G76">
-        <f t="shared" si="17"/>
-        <v>2.353E-4</v>
-      </c>
-      <c r="H76">
-        <f t="shared" si="17"/>
-        <v>4.2307999999999998E-3</v>
-      </c>
-      <c r="I76">
-        <f t="shared" si="17"/>
-        <v>6.8426000000000001E-4</v>
-      </c>
-      <c r="J76">
-        <f t="shared" si="17"/>
-        <v>2.3806999999999999E-3</v>
-      </c>
-      <c r="K76">
-        <f t="shared" si="17"/>
-        <v>-7.2087999999999999E-19</v>
-      </c>
-      <c r="L76">
-        <f t="shared" si="17"/>
-        <v>-2.1098000000000002E-3</v>
-      </c>
-      <c r="M76">
-        <f t="shared" si="17"/>
-        <v>-1.5567999999999999E-3</v>
-      </c>
-      <c r="N76">
-        <f t="shared" si="17"/>
-        <v>-2.9329E-3</v>
-      </c>
-      <c r="O76">
-        <f t="shared" si="17"/>
-        <v>-1.2933E-3</v>
-      </c>
-      <c r="P76">
-        <f t="shared" si="17"/>
-        <v>-9.5516999999999994E-19</v>
-      </c>
-      <c r="Q76">
-        <f t="shared" si="17"/>
-        <v>1.6188000000000001E-3</v>
-      </c>
-      <c r="R76">
-        <f t="shared" si="17"/>
-        <v>2.0125999999999998E-3</v>
-      </c>
-      <c r="S76">
-        <f t="shared" si="17"/>
-        <v>3.1546999999999999E-3</v>
-      </c>
-      <c r="T76">
-        <f t="shared" si="17"/>
-        <v>9.4381E-4</v>
-      </c>
-      <c r="U76">
-        <f t="shared" si="17"/>
-        <v>-4.9437000000000001E-18</v>
-      </c>
-      <c r="V76">
-        <f t="shared" si="17"/>
-        <v>-6.6520999999999995E-4</v>
-      </c>
-      <c r="W76">
-        <f t="shared" si="17"/>
-        <v>-4.0480999999999998E-3</v>
-      </c>
-      <c r="X76">
-        <f t="shared" si="17"/>
-        <v>-6.8508000000000002E-4</v>
-      </c>
-      <c r="Y76">
-        <f t="shared" si="17"/>
-        <v>-2.6959000000000002E-3</v>
-      </c>
-      <c r="Z76">
-        <f t="shared" si="17"/>
-        <v>3.9973000000000002E-19</v>
-      </c>
-      <c r="AA76">
-        <f t="shared" si="17"/>
-        <v>2.8530000000000001E-3</v>
-      </c>
-      <c r="AB76">
-        <f t="shared" si="17"/>
-        <v>5.2126000000000002E-5</v>
-      </c>
-      <c r="AC76">
-        <f t="shared" si="17"/>
-        <v>4.7597000000000004E-3</v>
-      </c>
-      <c r="AD76">
-        <f t="shared" si="17"/>
-        <v>-4.8504999999999997E-5</v>
-      </c>
-      <c r="AE76">
-        <f t="shared" si="17"/>
-        <v>3.7139999999999997E-18</v>
-      </c>
-      <c r="AF76">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A77">
-        <v>5</v>
-      </c>
-      <c r="B77">
-        <f>C67</f>
-        <v>-1.8661000000000001E-3</v>
-      </c>
-      <c r="C77">
-        <f t="shared" ref="C77:AF77" si="18">D67</f>
-        <v>-2.2007000000000001E-5</v>
-      </c>
-      <c r="D77">
-        <f t="shared" si="18"/>
-        <v>-2.9096999999999999E-3</v>
-      </c>
-      <c r="E77">
-        <f t="shared" ref="E77:AF77" si="19">F67</f>
-        <v>-4.3010999999999999E-5</v>
-      </c>
-      <c r="F77">
-        <f t="shared" si="19"/>
-        <v>9.2621999999999999E-19</v>
-      </c>
-      <c r="G77">
-        <f t="shared" si="19"/>
-        <v>9.0610000000000002E-5</v>
-      </c>
-      <c r="H77">
-        <f t="shared" si="19"/>
-        <v>2.5135000000000001E-3</v>
-      </c>
-      <c r="I77">
-        <f t="shared" si="19"/>
-        <v>3.0162E-4</v>
-      </c>
-      <c r="J77">
-        <f t="shared" si="19"/>
-        <v>1.3860000000000001E-3</v>
-      </c>
-      <c r="K77">
-        <f t="shared" si="19"/>
-        <v>-3.6423E-19</v>
-      </c>
-      <c r="L77">
-        <f t="shared" si="19"/>
-        <v>-1.224E-3</v>
-      </c>
-      <c r="M77">
-        <f t="shared" si="19"/>
-        <v>-8.2569999999999996E-4</v>
-      </c>
-      <c r="N77">
-        <f t="shared" si="19"/>
-        <v>-1.7376E-3</v>
-      </c>
-      <c r="O77">
-        <f t="shared" si="19"/>
-        <v>-7.2283999999999998E-4</v>
-      </c>
-      <c r="P77">
-        <f t="shared" si="19"/>
-        <v>-5.7210000000000002E-19</v>
-      </c>
-      <c r="Q77">
-        <f t="shared" si="19"/>
-        <v>9.5998999999999998E-4</v>
-      </c>
-      <c r="R77">
-        <f t="shared" si="19"/>
-        <v>1.2195000000000001E-3</v>
-      </c>
-      <c r="S77">
-        <f t="shared" si="19"/>
-        <v>1.9066E-3</v>
-      </c>
-      <c r="T77">
-        <f t="shared" si="19"/>
-        <v>5.9566999999999997E-4</v>
-      </c>
-      <c r="U77">
-        <f t="shared" si="19"/>
-        <v>-2.9835E-18</v>
-      </c>
-      <c r="V77">
-        <f t="shared" si="19"/>
-        <v>-4.2302000000000003E-4</v>
-      </c>
-      <c r="W77">
-        <f t="shared" si="19"/>
-        <v>-2.4605999999999999E-3</v>
-      </c>
-      <c r="X77">
-        <f t="shared" si="19"/>
-        <v>-3.9063999999999999E-4</v>
-      </c>
-      <c r="Y77">
-        <f t="shared" si="19"/>
-        <v>-1.6326999999999999E-3</v>
-      </c>
-      <c r="Z77">
-        <f t="shared" si="19"/>
-        <v>1.6766999999999999E-19</v>
-      </c>
-      <c r="AA77">
-        <f t="shared" si="19"/>
-        <v>1.6964E-3</v>
-      </c>
-      <c r="AB77">
-        <f t="shared" si="19"/>
-        <v>-5.9120000000000003E-5</v>
-      </c>
-      <c r="AC77">
-        <f t="shared" si="19"/>
-        <v>2.8180000000000002E-3</v>
-      </c>
-      <c r="AD77">
-        <f t="shared" si="19"/>
-        <v>-1.1899E-4</v>
-      </c>
-      <c r="AE77">
-        <f t="shared" si="19"/>
-        <v>2.2154999999999999E-18</v>
-      </c>
-      <c r="AF77">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A78">
-        <v>6</v>
-      </c>
-      <c r="B78">
-        <v>0</v>
-      </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-      <c r="K78">
-        <v>0</v>
-      </c>
-      <c r="L78">
-        <v>0</v>
-      </c>
-      <c r="M78">
-        <v>0</v>
-      </c>
-      <c r="N78">
-        <v>0</v>
-      </c>
-      <c r="O78">
-        <v>0</v>
-      </c>
-      <c r="P78">
-        <v>0</v>
-      </c>
-      <c r="Q78">
-        <v>0</v>
-      </c>
-      <c r="R78">
-        <v>0</v>
-      </c>
-      <c r="S78">
-        <v>0</v>
-      </c>
-      <c r="T78">
-        <v>0</v>
-      </c>
-      <c r="U78">
-        <v>0</v>
-      </c>
-      <c r="V78">
-        <v>0</v>
-      </c>
-      <c r="W78">
-        <v>0</v>
-      </c>
-      <c r="X78">
-        <v>0</v>
-      </c>
-      <c r="Y78">
-        <v>0</v>
-      </c>
-      <c r="Z78">
-        <v>0</v>
-      </c>
-      <c r="AA78">
-        <v>0</v>
-      </c>
-      <c r="AB78">
-        <v>0</v>
-      </c>
-      <c r="AC78">
-        <v>0</v>
-      </c>
-      <c r="AD78">
-        <v>0</v>
-      </c>
-      <c r="AE78">
-        <v>0</v>
-      </c>
-      <c r="AF78">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>